--- a/BN/wwwroot/Database/HRGIS_TRAINING_TestCase_MTP_rev01.xlsx
+++ b/BN/wwwroot/Database/HRGIS_TRAINING_TestCase_MTP_rev01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cptfile01\div\2200\★All Pictures CPD★\Ms.Wanpen [Try]\HRGIS\TEST\REV01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\SYS\BN\wwwroot\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D284856E-474D-48A2-A0CE-E3D4FD2B4716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="3" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="315">
   <si>
     <t>Project Test Cases</t>
   </si>
@@ -983,7 +984,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -1047,7 +1048,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1069,6 +1070,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,7 +1167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1342,6 +1349,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1349,24 +1410,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1390,46 +1433,67 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="66">
     <dxf>
@@ -2367,32 +2431,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B61" sqref="B61"/>
+      <pane ySplit="12" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="42.625" customWidth="1"/>
-    <col min="3" max="6" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" customWidth="1"/>
+    <col min="2" max="2" width="42.58203125" customWidth="1"/>
+    <col min="3" max="6" width="12.58203125" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="9" width="12.625" customWidth="1"/>
+    <col min="8" max="9" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="23" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -2408,10 +2472,10 @@
       <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="74"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
@@ -2419,18 +2483,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="8" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -2451,64 +2515,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="80"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="92"/>
       <c r="E7" s="49">
         <v>44621</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="77"/>
+      <c r="G7" s="88"/>
+      <c r="H7" s="89"/>
       <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>268</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="90" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="79"/>
-      <c r="D8" s="80"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="92"/>
       <c r="E8" s="22">
         <v>44639</v>
       </c>
-      <c r="F8" s="75" t="s">
+      <c r="F8" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="76"/>
-      <c r="H8" s="77"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="89"/>
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="80"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="91"/>
+      <c r="D9" s="92"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="77"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2518,7 +2582,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="8" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -2543,7 +2607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>132</v>
       </c>
@@ -2551,14 +2615,14 @@
         <v>293</v>
       </c>
       <c r="C13" s="41"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="37"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="72"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
       <c r="I13" s="38"/>
     </row>
-    <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>133</v>
       </c>
@@ -2566,14 +2630,14 @@
         <v>270</v>
       </c>
       <c r="C14" s="34"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="66"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="68"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="82"/>
       <c r="I14" s="28"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>134</v>
       </c>
@@ -2581,14 +2645,14 @@
         <v>273</v>
       </c>
       <c r="C15" s="56"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="82"/>
       <c r="I15" s="28"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
         <v>135</v>
       </c>
@@ -2596,14 +2660,14 @@
         <v>272</v>
       </c>
       <c r="C16" s="34"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="84"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="68"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="82"/>
       <c r="I16" s="28"/>
     </row>
-    <row r="17" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
         <v>136</v>
       </c>
@@ -2611,14 +2675,14 @@
         <v>269</v>
       </c>
       <c r="C17" s="34"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="66"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="68"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="82"/>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>271</v>
       </c>
@@ -2626,14 +2690,14 @@
         <v>278</v>
       </c>
       <c r="C18" s="34"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="66"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="84"/>
       <c r="F18" s="27"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="68"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="82"/>
       <c r="I18" s="28"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="35">
         <v>2</v>
       </c>
@@ -2641,14 +2705,14 @@
         <v>41</v>
       </c>
       <c r="C19" s="41"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="70"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
       <c r="F19" s="37"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="72"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
       <c r="I19" s="38"/>
     </row>
-    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>254</v>
       </c>
@@ -2656,14 +2720,14 @@
         <v>270</v>
       </c>
       <c r="C20" s="56"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="84"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="68"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="82"/>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>255</v>
       </c>
@@ -2671,14 +2735,14 @@
         <v>276</v>
       </c>
       <c r="C21" s="56"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="66"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="82"/>
       <c r="I21" s="28"/>
     </row>
-    <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>256</v>
       </c>
@@ -2686,14 +2750,14 @@
         <v>139</v>
       </c>
       <c r="C22" s="34"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="66"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="84"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="68"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="28"/>
     </row>
-    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>252</v>
       </c>
@@ -2701,14 +2765,14 @@
         <v>258</v>
       </c>
       <c r="C23" s="34"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="82"/>
       <c r="I23" s="28"/>
     </row>
-    <row r="24" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
         <v>137</v>
       </c>
@@ -2716,14 +2780,14 @@
         <v>259</v>
       </c>
       <c r="C24" s="34"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="84"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="68"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="82"/>
       <c r="I24" s="28"/>
     </row>
-    <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>257</v>
       </c>
@@ -2731,14 +2795,14 @@
         <v>253</v>
       </c>
       <c r="C25" s="54"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="84"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="68"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="82"/>
       <c r="I25" s="28"/>
     </row>
-    <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>274</v>
       </c>
@@ -2746,14 +2810,14 @@
         <v>251</v>
       </c>
       <c r="C26" s="48"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="66"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="84"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="68"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="82"/>
       <c r="I26" s="28"/>
     </row>
-    <row r="27" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>275</v>
       </c>
@@ -2761,14 +2825,14 @@
         <v>138</v>
       </c>
       <c r="C27" s="56"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="84"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="68"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="82"/>
       <c r="I27" s="28"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>277</v>
       </c>
@@ -2776,14 +2840,14 @@
         <v>278</v>
       </c>
       <c r="C28" s="56"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="84"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="67"/>
-      <c r="H28" s="68"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="82"/>
       <c r="I28" s="28"/>
     </row>
-    <row r="29" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="35" t="s">
         <v>118</v>
       </c>
@@ -2791,14 +2855,14 @@
         <v>42</v>
       </c>
       <c r="C29" s="36"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="70"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="37"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="72"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="80"/>
       <c r="I29" s="38"/>
     </row>
-    <row r="30" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
         <v>119</v>
       </c>
@@ -2806,14 +2870,14 @@
         <v>279</v>
       </c>
       <c r="C30" s="32"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="66"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="84"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="68"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="82"/>
       <c r="I30" s="28"/>
     </row>
-    <row r="31" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
         <v>120</v>
       </c>
@@ -2821,14 +2885,14 @@
         <v>280</v>
       </c>
       <c r="C31" s="34"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="84"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="68"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="82"/>
       <c r="I31" s="28"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
         <v>121</v>
       </c>
@@ -2839,11 +2903,11 @@
       <c r="D32" s="58"/>
       <c r="E32" s="59"/>
       <c r="F32" s="27"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="68"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="82"/>
       <c r="I32" s="28"/>
     </row>
-    <row r="33" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>122</v>
       </c>
@@ -2851,14 +2915,14 @@
         <v>281</v>
       </c>
       <c r="C33" s="34"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="84"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="68"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="82"/>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
         <v>124</v>
       </c>
@@ -2866,14 +2930,14 @@
         <v>282</v>
       </c>
       <c r="C34" s="60"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="66"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="68"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="82"/>
       <c r="I34" s="28"/>
     </row>
-    <row r="35" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
         <v>125</v>
       </c>
@@ -2884,11 +2948,11 @@
       <c r="D35" s="52"/>
       <c r="E35" s="53"/>
       <c r="F35" s="27"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="68"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
       <c r="I35" s="28"/>
     </row>
-    <row r="36" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
         <v>286</v>
       </c>
@@ -2899,11 +2963,11 @@
       <c r="D36" s="52"/>
       <c r="E36" s="53"/>
       <c r="F36" s="27"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="68"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="82"/>
       <c r="I36" s="28"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
         <v>287</v>
       </c>
@@ -2914,11 +2978,11 @@
       <c r="D37" s="52"/>
       <c r="E37" s="53"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="68"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="82"/>
       <c r="I37" s="28"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
         <v>288</v>
       </c>
@@ -2929,11 +2993,11 @@
       <c r="D38" s="52"/>
       <c r="E38" s="53"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="68"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="82"/>
       <c r="I38" s="28"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
         <v>291</v>
       </c>
@@ -2941,14 +3005,14 @@
         <v>45</v>
       </c>
       <c r="C39" s="60"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="84"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="68"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="82"/>
       <c r="I39" s="28"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
         <v>140</v>
       </c>
@@ -2956,14 +3020,14 @@
         <v>292</v>
       </c>
       <c r="C40" s="46"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="70"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="78"/>
       <c r="F40" s="37"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="72"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="80"/>
       <c r="I40" s="38"/>
     </row>
-    <row r="41" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
         <v>141</v>
       </c>
@@ -2971,14 +3035,14 @@
         <v>298</v>
       </c>
       <c r="C41" s="45"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="66"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="84"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="68"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="82"/>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
         <v>142</v>
       </c>
@@ -2993,7 +3057,7 @@
       <c r="H42" s="64"/>
       <c r="I42" s="28"/>
     </row>
-    <row r="43" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>142</v>
       </c>
@@ -3001,14 +3065,14 @@
         <v>123</v>
       </c>
       <c r="C43" s="51"/>
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="84"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="68"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="82"/>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>143</v>
       </c>
@@ -3016,14 +3080,14 @@
         <v>126</v>
       </c>
       <c r="C44" s="51"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="84"/>
       <c r="F44" s="27"/>
-      <c r="G44" s="67"/>
-      <c r="H44" s="68"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="82"/>
       <c r="I44" s="28"/>
     </row>
-    <row r="45" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
         <v>144</v>
       </c>
@@ -3031,14 +3095,14 @@
         <v>127</v>
       </c>
       <c r="C45" s="51"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="66"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="84"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="68"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="82"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
         <v>145</v>
       </c>
@@ -3046,14 +3110,14 @@
         <v>300</v>
       </c>
       <c r="C46" s="51"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="66"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="84"/>
       <c r="F46" s="27"/>
-      <c r="G46" s="67"/>
-      <c r="H46" s="68"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="82"/>
       <c r="I46" s="28"/>
     </row>
-    <row r="47" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>146</v>
       </c>
@@ -3061,14 +3125,14 @@
         <v>128</v>
       </c>
       <c r="C47" s="51"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="66"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="84"/>
       <c r="F47" s="27"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="68"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="82"/>
       <c r="I47" s="28"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="35" t="s">
         <v>147</v>
       </c>
@@ -3076,14 +3140,14 @@
         <v>294</v>
       </c>
       <c r="C48" s="41"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="70"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="78"/>
       <c r="F48" s="37"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="72"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="80"/>
       <c r="I48" s="38"/>
     </row>
-    <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
         <v>148</v>
       </c>
@@ -3091,14 +3155,14 @@
         <v>301</v>
       </c>
       <c r="C49" s="34"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="66"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="84"/>
       <c r="F49" s="27"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="68"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="82"/>
       <c r="I49" s="28"/>
     </row>
-    <row r="50" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
         <v>149</v>
       </c>
@@ -3106,14 +3170,14 @@
         <v>302</v>
       </c>
       <c r="C50" s="34"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="66"/>
+      <c r="D50" s="83"/>
+      <c r="E50" s="84"/>
       <c r="F50" s="27"/>
-      <c r="G50" s="67"/>
-      <c r="H50" s="68"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="82"/>
       <c r="I50" s="28"/>
     </row>
-    <row r="51" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
         <v>150</v>
       </c>
@@ -3121,14 +3185,14 @@
         <v>303</v>
       </c>
       <c r="C51" s="34"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="66"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="84"/>
       <c r="F51" s="27"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="68"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="82"/>
       <c r="I51" s="28"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
         <v>151</v>
       </c>
@@ -3136,14 +3200,14 @@
         <v>304</v>
       </c>
       <c r="C52" s="34"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="66"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="84"/>
       <c r="F52" s="27"/>
-      <c r="G52" s="67"/>
-      <c r="H52" s="68"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="82"/>
       <c r="I52" s="28"/>
     </row>
-    <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>152</v>
       </c>
@@ -3151,14 +3215,14 @@
         <v>305</v>
       </c>
       <c r="C53" s="34"/>
-      <c r="D53" s="65"/>
-      <c r="E53" s="66"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="84"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="68"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="82"/>
       <c r="I53" s="28"/>
     </row>
-    <row r="54" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
         <v>153</v>
       </c>
@@ -3166,14 +3230,14 @@
         <v>306</v>
       </c>
       <c r="C54" s="43"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="66"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="84"/>
       <c r="F54" s="27"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="68"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="82"/>
       <c r="I54" s="28"/>
     </row>
-    <row r="55" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
         <v>154</v>
       </c>
@@ -3181,14 +3245,14 @@
         <v>308</v>
       </c>
       <c r="C55" s="43"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="66"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="84"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="68"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="82"/>
       <c r="I55" s="28"/>
     </row>
-    <row r="56" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
         <v>155</v>
       </c>
@@ -3196,14 +3260,14 @@
         <v>307</v>
       </c>
       <c r="C56" s="43"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="66"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="84"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="68"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="82"/>
       <c r="I56" s="28"/>
     </row>
-    <row r="57" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
         <v>156</v>
       </c>
@@ -3218,7 +3282,7 @@
       <c r="H57" s="64"/>
       <c r="I57" s="28"/>
     </row>
-    <row r="58" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
         <v>157</v>
       </c>
@@ -3233,7 +3297,7 @@
       <c r="H58" s="64"/>
       <c r="I58" s="28"/>
     </row>
-    <row r="59" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A59" s="33" t="s">
         <v>309</v>
       </c>
@@ -3248,7 +3312,7 @@
       <c r="H59" s="64"/>
       <c r="I59" s="28"/>
     </row>
-    <row r="60" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
         <v>310</v>
       </c>
@@ -3263,7 +3327,7 @@
       <c r="H60" s="64"/>
       <c r="I60" s="28"/>
     </row>
-    <row r="61" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
         <v>311</v>
       </c>
@@ -3271,14 +3335,14 @@
         <v>128</v>
       </c>
       <c r="C61" s="43"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="66"/>
+      <c r="D61" s="83"/>
+      <c r="E61" s="84"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="68"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="82"/>
       <c r="I61" s="28"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="35" t="s">
         <v>158</v>
       </c>
@@ -3286,271 +3350,271 @@
         <v>295</v>
       </c>
       <c r="C62" s="41"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="70"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="78"/>
       <c r="F62" s="37"/>
-      <c r="G62" s="71"/>
-      <c r="H62" s="72"/>
+      <c r="G62" s="79"/>
+      <c r="H62" s="80"/>
       <c r="I62" s="38"/>
     </row>
-    <row r="63" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="81" t="s">
+    <row r="63" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A63" s="65" t="s">
         <v>159</v>
       </c>
-      <c r="B63" s="82" t="s">
+      <c r="B63" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C63" s="83" t="s">
+      <c r="C63" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="84"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="86">
+      <c r="D63" s="73"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="68">
         <v>44631</v>
       </c>
-      <c r="G63" s="87" t="s">
+      <c r="G63" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H63" s="88"/>
-      <c r="I63" s="89" t="s">
+      <c r="H63" s="76"/>
+      <c r="I63" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="81" t="s">
+    <row r="64" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="B64" s="82" t="s">
+      <c r="B64" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C64" s="83" t="s">
+      <c r="C64" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="84"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="86">
+      <c r="D64" s="73"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="68">
         <v>44622</v>
       </c>
-      <c r="G64" s="87" t="s">
+      <c r="G64" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H64" s="88"/>
-      <c r="I64" s="89" t="s">
+      <c r="H64" s="76"/>
+      <c r="I64" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="81" t="s">
+    <row r="65" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="65" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="82" t="s">
+      <c r="B65" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="83" t="s">
+      <c r="C65" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D65" s="84"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="86">
+      <c r="D65" s="73"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="68">
         <v>44623</v>
       </c>
-      <c r="G65" s="87" t="s">
+      <c r="G65" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H65" s="88"/>
-      <c r="I65" s="89" t="s">
+      <c r="H65" s="76"/>
+      <c r="I65" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="81" t="s">
+    <row r="66" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="65" t="s">
         <v>162</v>
       </c>
-      <c r="B66" s="82" t="s">
+      <c r="B66" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C66" s="83" t="s">
+      <c r="C66" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D66" s="84"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="86">
+      <c r="D66" s="73"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="68">
         <v>44622</v>
       </c>
-      <c r="G66" s="87" t="s">
+      <c r="G66" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H66" s="88"/>
-      <c r="I66" s="89" t="s">
+      <c r="H66" s="76"/>
+      <c r="I66" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="81" t="s">
+    <row r="67" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="65" t="s">
         <v>163</v>
       </c>
-      <c r="B67" s="82" t="s">
+      <c r="B67" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="83" t="s">
+      <c r="C67" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D67" s="84" t="s">
+      <c r="D67" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="E67" s="85"/>
-      <c r="F67" s="86">
+      <c r="E67" s="74"/>
+      <c r="F67" s="68">
         <v>44622</v>
       </c>
-      <c r="G67" s="87" t="s">
+      <c r="G67" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H67" s="88"/>
-      <c r="I67" s="89" t="s">
+      <c r="H67" s="76"/>
+      <c r="I67" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="81" t="s">
+    <row r="68" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="B68" s="82" t="s">
+      <c r="B68" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C68" s="83" t="s">
+      <c r="C68" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="84"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="86">
+      <c r="D68" s="73"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="68">
         <v>44622</v>
       </c>
-      <c r="G68" s="87" t="s">
+      <c r="G68" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H68" s="88"/>
-      <c r="I68" s="89" t="s">
+      <c r="H68" s="76"/>
+      <c r="I68" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="81" t="s">
+    <row r="69" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="65" t="s">
         <v>165</v>
       </c>
-      <c r="B69" s="82" t="s">
+      <c r="B69" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C69" s="83" t="s">
+      <c r="C69" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="84"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="86">
+      <c r="D69" s="73"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="68">
         <v>44622</v>
       </c>
-      <c r="G69" s="87" t="s">
+      <c r="G69" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H69" s="88"/>
-      <c r="I69" s="89" t="s">
+      <c r="H69" s="76"/>
+      <c r="I69" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="81" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="65" t="s">
         <v>166</v>
       </c>
-      <c r="B70" s="82" t="s">
+      <c r="B70" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C70" s="83" t="s">
+      <c r="C70" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="84"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="86">
+      <c r="D70" s="73"/>
+      <c r="E70" s="74"/>
+      <c r="F70" s="68">
         <v>44622</v>
       </c>
-      <c r="G70" s="87" t="s">
+      <c r="G70" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H70" s="88"/>
-      <c r="I70" s="89" t="s">
+      <c r="H70" s="76"/>
+      <c r="I70" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="81" t="s">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="B71" s="82" t="s">
+      <c r="B71" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="83" t="s">
+      <c r="C71" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="84"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="86">
+      <c r="D71" s="73"/>
+      <c r="E71" s="74"/>
+      <c r="F71" s="68">
         <v>44622</v>
       </c>
-      <c r="G71" s="87" t="s">
+      <c r="G71" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H71" s="88"/>
-      <c r="I71" s="89" t="s">
+      <c r="H71" s="76"/>
+      <c r="I71" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="81" t="s">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="65" t="s">
         <v>168</v>
       </c>
-      <c r="B72" s="82" t="s">
+      <c r="B72" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="83" t="s">
+      <c r="C72" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="84" t="s">
+      <c r="D72" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="E72" s="85"/>
-      <c r="F72" s="86">
+      <c r="E72" s="74"/>
+      <c r="F72" s="68">
         <v>44622</v>
       </c>
-      <c r="G72" s="87" t="s">
+      <c r="G72" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H72" s="88"/>
-      <c r="I72" s="89" t="s">
+      <c r="H72" s="76"/>
+      <c r="I72" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="81" t="s">
+    <row r="73" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="65" t="s">
         <v>169</v>
       </c>
-      <c r="B73" s="82" t="s">
+      <c r="B73" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C73" s="83" t="s">
+      <c r="C73" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="84"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="86">
+      <c r="D73" s="73"/>
+      <c r="E73" s="74"/>
+      <c r="F73" s="68">
         <v>44622</v>
       </c>
-      <c r="G73" s="87" t="s">
+      <c r="G73" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H73" s="88"/>
-      <c r="I73" s="89" t="s">
+      <c r="H73" s="76"/>
+      <c r="I73" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
         <v>170</v>
       </c>
@@ -3558,1919 +3622,2054 @@
         <v>296</v>
       </c>
       <c r="C74" s="41"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="70"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="78"/>
       <c r="F74" s="37"/>
-      <c r="G74" s="71"/>
-      <c r="H74" s="72"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="80"/>
       <c r="I74" s="38"/>
     </row>
-    <row r="75" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="81" t="s">
+    <row r="75" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A75" s="65" t="s">
         <v>171</v>
       </c>
-      <c r="B75" s="82" t="s">
+      <c r="B75" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C75" s="83" t="s">
+      <c r="C75" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="84"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="86">
+      <c r="D75" s="73"/>
+      <c r="E75" s="74"/>
+      <c r="F75" s="68">
         <v>44622</v>
       </c>
-      <c r="G75" s="87" t="s">
+      <c r="G75" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H75" s="88"/>
-      <c r="I75" s="89" t="s">
+      <c r="H75" s="76"/>
+      <c r="I75" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="81" t="s">
+    <row r="76" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A76" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="B76" s="82" t="s">
+      <c r="B76" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C76" s="83" t="s">
+      <c r="C76" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="84"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="86">
+      <c r="D76" s="73"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="68">
         <v>44622</v>
       </c>
-      <c r="G76" s="87" t="s">
+      <c r="G76" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H76" s="88"/>
-      <c r="I76" s="89" t="s">
+      <c r="H76" s="76"/>
+      <c r="I76" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="81" t="s">
+    <row r="77" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A77" s="65" t="s">
         <v>173</v>
       </c>
-      <c r="B77" s="82" t="s">
+      <c r="B77" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C77" s="83" t="s">
+      <c r="C77" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="84"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="86">
+      <c r="D77" s="73"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="68">
         <v>44631</v>
       </c>
-      <c r="G77" s="87" t="s">
+      <c r="G77" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H77" s="88"/>
-      <c r="I77" s="89" t="s">
+      <c r="H77" s="76"/>
+      <c r="I77" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="81" t="s">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="B78" s="82" t="s">
+      <c r="B78" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C78" s="83" t="s">
+      <c r="C78" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="84"/>
-      <c r="E78" s="85"/>
-      <c r="F78" s="86">
+      <c r="D78" s="73"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="68">
         <v>44622</v>
       </c>
-      <c r="G78" s="87" t="s">
+      <c r="G78" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H78" s="88"/>
-      <c r="I78" s="89" t="s">
+      <c r="H78" s="76"/>
+      <c r="I78" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="81" t="s">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="65" t="s">
         <v>175</v>
       </c>
-      <c r="B79" s="82" t="s">
+      <c r="B79" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C79" s="83" t="s">
+      <c r="C79" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D79" s="84" t="s">
+      <c r="D79" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="E79" s="85"/>
-      <c r="F79" s="86">
+      <c r="E79" s="74"/>
+      <c r="F79" s="68">
         <v>44622</v>
       </c>
-      <c r="G79" s="87" t="s">
+      <c r="G79" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H79" s="88"/>
-      <c r="I79" s="89" t="s">
+      <c r="H79" s="76"/>
+      <c r="I79" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A80" s="81" t="s">
+    <row r="80" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+      <c r="A80" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="82" t="s">
+      <c r="B80" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="83" t="s">
+      <c r="C80" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="84"/>
-      <c r="E80" s="85"/>
-      <c r="F80" s="86">
+      <c r="D80" s="73"/>
+      <c r="E80" s="74"/>
+      <c r="F80" s="68">
         <v>44622</v>
       </c>
-      <c r="G80" s="87" t="s">
+      <c r="G80" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H80" s="88"/>
-      <c r="I80" s="89" t="s">
+      <c r="H80" s="76"/>
+      <c r="I80" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="81" t="s">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="B81" s="82" t="s">
+      <c r="B81" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C81" s="83" t="s">
+      <c r="C81" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="84"/>
-      <c r="E81" s="85"/>
-      <c r="F81" s="86">
+      <c r="D81" s="73"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="68">
         <v>44622</v>
       </c>
-      <c r="G81" s="87" t="s">
+      <c r="G81" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H81" s="88"/>
-      <c r="I81" s="89" t="s">
+      <c r="H81" s="76"/>
+      <c r="I81" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="81" t="s">
+    <row r="82" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="B82" s="82" t="s">
+      <c r="B82" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C82" s="83" t="s">
+      <c r="C82" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="84"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="86">
+      <c r="D82" s="73"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="68">
         <v>44622</v>
       </c>
-      <c r="G82" s="87" t="s">
+      <c r="G82" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H82" s="88"/>
-      <c r="I82" s="89" t="s">
+      <c r="H82" s="76"/>
+      <c r="I82" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="81" t="s">
+    <row r="83" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="B83" s="82" t="s">
+      <c r="B83" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C83" s="83" t="s">
+      <c r="C83" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="84"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="86">
+      <c r="D83" s="73"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="68">
         <v>44622</v>
       </c>
-      <c r="G83" s="87" t="s">
+      <c r="G83" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H83" s="88"/>
-      <c r="I83" s="89" t="s">
+      <c r="H83" s="76"/>
+      <c r="I83" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="81" t="s">
+    <row r="84" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A84" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B84" s="82" t="s">
+      <c r="B84" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="C84" s="83" t="s">
+      <c r="C84" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="84"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="86">
+      <c r="D84" s="73"/>
+      <c r="E84" s="74"/>
+      <c r="F84" s="68">
         <v>44631</v>
       </c>
-      <c r="G84" s="87" t="s">
+      <c r="G84" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H84" s="88"/>
-      <c r="I84" s="89" t="s">
+      <c r="H84" s="76"/>
+      <c r="I84" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="81" t="s">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="65" t="s">
         <v>180</v>
       </c>
-      <c r="B85" s="82" t="s">
+      <c r="B85" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C85" s="83" t="s">
+      <c r="C85" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="84"/>
-      <c r="E85" s="85"/>
-      <c r="F85" s="86">
+      <c r="D85" s="73"/>
+      <c r="E85" s="74"/>
+      <c r="F85" s="68">
         <v>44622</v>
       </c>
-      <c r="G85" s="87" t="s">
+      <c r="G85" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H85" s="88"/>
-      <c r="I85" s="89" t="s">
+      <c r="H85" s="76"/>
+      <c r="I85" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="81" t="s">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="65" t="s">
         <v>181</v>
       </c>
-      <c r="B86" s="82" t="s">
+      <c r="B86" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="C86" s="83" t="s">
+      <c r="C86" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="84" t="s">
+      <c r="D86" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="E86" s="85"/>
-      <c r="F86" s="86">
+      <c r="E86" s="74"/>
+      <c r="F86" s="68">
         <v>44622</v>
       </c>
-      <c r="G86" s="87" t="s">
+      <c r="G86" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H86" s="88"/>
-      <c r="I86" s="89" t="s">
+      <c r="H86" s="76"/>
+      <c r="I86" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A87" s="81" t="s">
+    <row r="87" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+      <c r="A87" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="B87" s="82" t="s">
+      <c r="B87" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="C87" s="83" t="s">
+      <c r="C87" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="84"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="86">
+      <c r="D87" s="73"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="68">
         <v>44622</v>
       </c>
-      <c r="G87" s="87" t="s">
+      <c r="G87" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H87" s="88"/>
-      <c r="I87" s="89" t="s">
+      <c r="H87" s="76"/>
+      <c r="I87" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="81" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="B88" s="90" t="s">
+      <c r="B88" s="70" t="s">
         <v>297</v>
       </c>
-      <c r="C88" s="83"/>
-      <c r="D88" s="84"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="86"/>
-      <c r="G88" s="87"/>
-      <c r="H88" s="88"/>
-      <c r="I88" s="89"/>
-    </row>
-    <row r="89" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="81" t="s">
+      <c r="C88" s="67"/>
+      <c r="D88" s="73"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="68"/>
+      <c r="G88" s="75"/>
+      <c r="H88" s="76"/>
+      <c r="I88" s="69"/>
+    </row>
+    <row r="89" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="B89" s="82" t="s">
+      <c r="B89" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C89" s="83" t="s">
+      <c r="C89" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="84" t="s">
+      <c r="D89" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="E89" s="85"/>
-      <c r="F89" s="86">
+      <c r="E89" s="74"/>
+      <c r="F89" s="68">
         <v>44631</v>
       </c>
-      <c r="G89" s="87" t="s">
+      <c r="G89" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H89" s="88"/>
-      <c r="I89" s="89" t="s">
+      <c r="H89" s="76"/>
+      <c r="I89" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="81" t="s">
+    <row r="90" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A90" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="B90" s="82" t="s">
+      <c r="B90" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C90" s="83" t="s">
+      <c r="C90" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="84" t="s">
+      <c r="D90" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="E90" s="85"/>
-      <c r="F90" s="86">
+      <c r="E90" s="74"/>
+      <c r="F90" s="68">
         <v>44622</v>
       </c>
-      <c r="G90" s="87" t="s">
+      <c r="G90" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H90" s="88"/>
-      <c r="I90" s="89" t="s">
+      <c r="H90" s="76"/>
+      <c r="I90" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="81" t="s">
+    <row r="91" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A91" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="B91" s="82" t="s">
+      <c r="B91" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="83" t="s">
+      <c r="C91" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="84"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="86">
+      <c r="D91" s="73"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="68">
         <v>44622</v>
       </c>
-      <c r="G91" s="87" t="s">
+      <c r="G91" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H91" s="88"/>
-      <c r="I91" s="89" t="s">
+      <c r="H91" s="76"/>
+      <c r="I91" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="81" t="s">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="B92" s="82" t="s">
+      <c r="B92" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C92" s="83" t="s">
+      <c r="C92" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="84"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="86">
+      <c r="D92" s="73"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="68">
         <v>44622</v>
       </c>
-      <c r="G92" s="87" t="s">
+      <c r="G92" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H92" s="88"/>
-      <c r="I92" s="89" t="s">
+      <c r="H92" s="76"/>
+      <c r="I92" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="81" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="65" t="s">
         <v>188</v>
       </c>
-      <c r="B93" s="82" t="s">
+      <c r="B93" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="83" t="s">
+      <c r="C93" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="84" t="s">
+      <c r="D93" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="E93" s="85"/>
-      <c r="F93" s="86">
+      <c r="E93" s="74"/>
+      <c r="F93" s="68">
         <v>44622</v>
       </c>
-      <c r="G93" s="87" t="s">
+      <c r="G93" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H93" s="88"/>
-      <c r="I93" s="89" t="s">
+      <c r="H93" s="76"/>
+      <c r="I93" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="81" t="s">
+    <row r="94" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+      <c r="A94" s="65" t="s">
         <v>189</v>
       </c>
-      <c r="B94" s="82" t="s">
+      <c r="B94" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C94" s="83" t="s">
+      <c r="C94" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="84"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="86">
+      <c r="D94" s="73"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="68">
         <v>44622</v>
       </c>
-      <c r="G94" s="87" t="s">
+      <c r="G94" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H94" s="88"/>
-      <c r="I94" s="89" t="s">
+      <c r="H94" s="76"/>
+      <c r="I94" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="81" t="s">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="B95" s="82" t="s">
+      <c r="B95" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C95" s="83" t="s">
+      <c r="C95" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="84"/>
-      <c r="E95" s="85"/>
-      <c r="F95" s="86">
+      <c r="D95" s="73"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="68">
         <v>44622</v>
       </c>
-      <c r="G95" s="87" t="s">
+      <c r="G95" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H95" s="88"/>
-      <c r="I95" s="89" t="s">
+      <c r="H95" s="76"/>
+      <c r="I95" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="81" t="s">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="B96" s="82" t="s">
+      <c r="B96" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C96" s="83" t="s">
+      <c r="C96" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="84"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="86">
+      <c r="D96" s="73"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="68">
         <v>44622</v>
       </c>
-      <c r="G96" s="87" t="s">
+      <c r="G96" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H96" s="88"/>
-      <c r="I96" s="89" t="s">
+      <c r="H96" s="76"/>
+      <c r="I96" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="81" t="s">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="B97" s="82" t="s">
+      <c r="B97" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C97" s="83" t="s">
+      <c r="C97" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="84"/>
-      <c r="E97" s="85"/>
-      <c r="F97" s="86">
+      <c r="D97" s="73"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="68">
         <v>44622</v>
       </c>
-      <c r="G97" s="87" t="s">
+      <c r="G97" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H97" s="88"/>
-      <c r="I97" s="89" t="s">
+      <c r="H97" s="76"/>
+      <c r="I97" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A98" s="81" t="s">
+    <row r="98" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A98" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B98" s="82" t="s">
+      <c r="B98" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="C98" s="83" t="s">
+      <c r="C98" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="84"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="86">
+      <c r="D98" s="73"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="68">
         <v>44622</v>
       </c>
-      <c r="G98" s="87" t="s">
+      <c r="G98" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H98" s="88"/>
-      <c r="I98" s="89" t="s">
+      <c r="H98" s="76"/>
+      <c r="I98" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="81" t="s">
+    <row r="99" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A99" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B99" s="82" t="s">
+      <c r="B99" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="C99" s="83" t="s">
+      <c r="C99" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="84"/>
-      <c r="E99" s="85"/>
-      <c r="F99" s="86">
+      <c r="D99" s="73"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="68">
         <v>44622</v>
       </c>
-      <c r="G99" s="87" t="s">
+      <c r="G99" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H99" s="88"/>
-      <c r="I99" s="89" t="s">
+      <c r="H99" s="76"/>
+      <c r="I99" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="81" t="s">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="65" t="s">
         <v>193</v>
       </c>
-      <c r="B100" s="82" t="s">
+      <c r="B100" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="C100" s="83" t="s">
+      <c r="C100" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D100" s="84"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="86">
+      <c r="D100" s="73"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="68">
         <v>44622</v>
       </c>
-      <c r="G100" s="87" t="s">
+      <c r="G100" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H100" s="88"/>
-      <c r="I100" s="89" t="s">
+      <c r="H100" s="76"/>
+      <c r="I100" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="81" t="s">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="65" t="s">
         <v>194</v>
       </c>
-      <c r="B101" s="82" t="s">
+      <c r="B101" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="C101" s="83" t="s">
+      <c r="C101" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D101" s="84" t="s">
+      <c r="D101" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="E101" s="85"/>
-      <c r="F101" s="86">
+      <c r="E101" s="74"/>
+      <c r="F101" s="68">
         <v>44631</v>
       </c>
-      <c r="G101" s="87" t="s">
+      <c r="G101" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H101" s="88"/>
-      <c r="I101" s="89" t="s">
+      <c r="H101" s="76"/>
+      <c r="I101" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="81" t="s">
+    <row r="102" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A102" s="65" t="s">
         <v>195</v>
       </c>
-      <c r="B102" s="82" t="s">
+      <c r="B102" s="66" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="83" t="s">
+      <c r="C102" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="84"/>
-      <c r="E102" s="85"/>
-      <c r="F102" s="86">
+      <c r="D102" s="73"/>
+      <c r="E102" s="74"/>
+      <c r="F102" s="68">
         <v>44622</v>
       </c>
-      <c r="G102" s="87" t="s">
+      <c r="G102" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H102" s="88"/>
-      <c r="I102" s="89" t="s">
+      <c r="H102" s="76"/>
+      <c r="I102" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="81" t="s">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="B103" s="90" t="s">
+      <c r="B103" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C103" s="83"/>
-      <c r="D103" s="84"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="86"/>
-      <c r="G103" s="87"/>
-      <c r="H103" s="88"/>
-      <c r="I103" s="89"/>
-    </row>
-    <row r="104" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A104" s="81" t="s">
+      <c r="C103" s="67"/>
+      <c r="D103" s="73"/>
+      <c r="E103" s="74"/>
+      <c r="F103" s="68"/>
+      <c r="G103" s="75"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="69"/>
+    </row>
+    <row r="104" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A104" s="65" t="s">
         <v>197</v>
       </c>
-      <c r="B104" s="82" t="s">
+      <c r="B104" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="C104" s="83" t="s">
+      <c r="C104" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="84"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="86"/>
-      <c r="G104" s="87"/>
-      <c r="H104" s="88"/>
-      <c r="I104" s="89"/>
-    </row>
-    <row r="105" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="81" t="s">
+      <c r="D104" s="73"/>
+      <c r="E104" s="74"/>
+      <c r="F104" s="68"/>
+      <c r="G104" s="75"/>
+      <c r="H104" s="76"/>
+      <c r="I104" s="69"/>
+    </row>
+    <row r="105" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A105" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="B105" s="82" t="s">
+      <c r="B105" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C105" s="83" t="s">
+      <c r="C105" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="84"/>
-      <c r="E105" s="85"/>
-      <c r="F105" s="86"/>
-      <c r="G105" s="87"/>
-      <c r="H105" s="88"/>
-      <c r="I105" s="89"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="81" t="s">
+      <c r="D105" s="73"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="75"/>
+      <c r="H105" s="76"/>
+      <c r="I105" s="69"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="65" t="s">
         <v>199</v>
       </c>
-      <c r="B106" s="82" t="s">
+      <c r="B106" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C106" s="83" t="s">
+      <c r="C106" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D106" s="84"/>
-      <c r="E106" s="85"/>
-      <c r="F106" s="86"/>
-      <c r="G106" s="87"/>
-      <c r="H106" s="88"/>
-      <c r="I106" s="89"/>
-    </row>
-    <row r="107" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="81" t="s">
+      <c r="D106" s="73"/>
+      <c r="E106" s="74"/>
+      <c r="F106" s="68"/>
+      <c r="G106" s="75"/>
+      <c r="H106" s="76"/>
+      <c r="I106" s="69"/>
+    </row>
+    <row r="107" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A107" s="65" t="s">
         <v>200</v>
       </c>
-      <c r="B107" s="82" t="s">
+      <c r="B107" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C107" s="83" t="s">
+      <c r="C107" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D107" s="84"/>
-      <c r="E107" s="85"/>
-      <c r="F107" s="86"/>
-      <c r="G107" s="87"/>
-      <c r="H107" s="88"/>
-      <c r="I107" s="89"/>
-    </row>
-    <row r="108" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A108" s="81" t="s">
+      <c r="D107" s="73"/>
+      <c r="E107" s="74"/>
+      <c r="F107" s="68"/>
+      <c r="G107" s="75"/>
+      <c r="H107" s="76"/>
+      <c r="I107" s="69"/>
+    </row>
+    <row r="108" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A108" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="B108" s="82" t="s">
+      <c r="B108" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C108" s="83" t="s">
+      <c r="C108" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="84"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="86"/>
-      <c r="G108" s="87"/>
-      <c r="H108" s="88"/>
-      <c r="I108" s="89"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="81" t="s">
+      <c r="D108" s="73"/>
+      <c r="E108" s="74"/>
+      <c r="F108" s="68"/>
+      <c r="G108" s="75"/>
+      <c r="H108" s="76"/>
+      <c r="I108" s="69"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="65" t="s">
         <v>202</v>
       </c>
-      <c r="B109" s="82" t="s">
+      <c r="B109" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="83" t="s">
+      <c r="C109" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D109" s="84"/>
-      <c r="E109" s="85"/>
-      <c r="F109" s="86"/>
-      <c r="G109" s="87"/>
-      <c r="H109" s="88"/>
-      <c r="I109" s="89"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="81" t="s">
+      <c r="D109" s="73"/>
+      <c r="E109" s="74"/>
+      <c r="F109" s="68"/>
+      <c r="G109" s="75"/>
+      <c r="H109" s="76"/>
+      <c r="I109" s="69"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" s="65" t="s">
         <v>203</v>
       </c>
-      <c r="B110" s="90" t="s">
+      <c r="B110" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="C110" s="83"/>
-      <c r="D110" s="84"/>
-      <c r="E110" s="85"/>
-      <c r="F110" s="86"/>
-      <c r="G110" s="87"/>
-      <c r="H110" s="88"/>
-      <c r="I110" s="89"/>
-    </row>
-    <row r="111" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="81" t="s">
+      <c r="C110" s="67"/>
+      <c r="D110" s="73"/>
+      <c r="E110" s="74"/>
+      <c r="F110" s="68"/>
+      <c r="G110" s="75"/>
+      <c r="H110" s="76"/>
+      <c r="I110" s="69"/>
+    </row>
+    <row r="111" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A111" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B111" s="82" t="s">
+      <c r="B111" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="C111" s="83" t="s">
+      <c r="C111" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D111" s="84" t="s">
+      <c r="D111" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="E111" s="85"/>
-      <c r="F111" s="86">
+      <c r="E111" s="74"/>
+      <c r="F111" s="68">
         <v>44631</v>
       </c>
-      <c r="G111" s="87" t="s">
+      <c r="G111" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H111" s="88"/>
-      <c r="I111" s="89" t="s">
+      <c r="H111" s="76"/>
+      <c r="I111" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="81" t="s">
+    <row r="112" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A112" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="B112" s="82" t="s">
+      <c r="B112" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="C112" s="83" t="s">
+      <c r="C112" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D112" s="84" t="s">
+      <c r="D112" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="E112" s="85"/>
-      <c r="F112" s="86">
+      <c r="E112" s="74"/>
+      <c r="F112" s="68">
         <v>44631</v>
       </c>
-      <c r="G112" s="87" t="s">
+      <c r="G112" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H112" s="88"/>
-      <c r="I112" s="89" t="s">
+      <c r="H112" s="76"/>
+      <c r="I112" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="81" t="s">
+    <row r="113" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A113" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B113" s="82" t="s">
+      <c r="B113" s="66" t="s">
         <v>84</v>
       </c>
-      <c r="C113" s="83" t="s">
+      <c r="C113" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D113" s="84" t="s">
+      <c r="D113" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="E113" s="85"/>
-      <c r="F113" s="86">
+      <c r="E113" s="74"/>
+      <c r="F113" s="68">
         <v>44631</v>
       </c>
-      <c r="G113" s="87" t="s">
+      <c r="G113" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H113" s="88"/>
-      <c r="I113" s="89" t="s">
+      <c r="H113" s="76"/>
+      <c r="I113" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="81" t="s">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="65" t="s">
         <v>206</v>
       </c>
-      <c r="B114" s="90" t="s">
+      <c r="B114" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C114" s="83"/>
-      <c r="D114" s="84"/>
-      <c r="E114" s="85"/>
-      <c r="F114" s="86"/>
-      <c r="G114" s="87"/>
-      <c r="H114" s="88"/>
-      <c r="I114" s="89"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="81" t="s">
+      <c r="C114" s="67"/>
+      <c r="D114" s="73"/>
+      <c r="E114" s="74"/>
+      <c r="F114" s="68"/>
+      <c r="G114" s="75"/>
+      <c r="H114" s="76"/>
+      <c r="I114" s="69"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" s="65" t="s">
         <v>204</v>
       </c>
-      <c r="B115" s="82" t="s">
+      <c r="B115" s="66" t="s">
         <v>85</v>
       </c>
-      <c r="C115" s="83" t="s">
+      <c r="C115" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D115" s="84" t="s">
+      <c r="D115" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="E115" s="85"/>
-      <c r="F115" s="86">
+      <c r="E115" s="74"/>
+      <c r="F115" s="68">
         <v>44622</v>
       </c>
-      <c r="G115" s="87" t="s">
+      <c r="G115" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H115" s="88"/>
-      <c r="I115" s="89" t="s">
+      <c r="H115" s="76"/>
+      <c r="I115" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="81" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="65" t="s">
         <v>205</v>
       </c>
-      <c r="B116" s="82" t="s">
+      <c r="B116" s="66" t="s">
         <v>86</v>
       </c>
-      <c r="C116" s="83" t="s">
+      <c r="C116" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D116" s="84"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="86">
+      <c r="D116" s="73"/>
+      <c r="E116" s="74"/>
+      <c r="F116" s="68">
         <v>44622</v>
       </c>
-      <c r="G116" s="87" t="s">
+      <c r="G116" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H116" s="88"/>
-      <c r="I116" s="89" t="s">
+      <c r="H116" s="76"/>
+      <c r="I116" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="81" t="s">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" s="65" t="s">
         <v>207</v>
       </c>
-      <c r="B117" s="90" t="s">
+      <c r="B117" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="C117" s="83"/>
-      <c r="D117" s="84"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="86"/>
-      <c r="G117" s="87"/>
-      <c r="H117" s="88"/>
-      <c r="I117" s="89"/>
-    </row>
-    <row r="118" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="81" t="s">
+      <c r="C117" s="67"/>
+      <c r="D117" s="73"/>
+      <c r="E117" s="74"/>
+      <c r="F117" s="68"/>
+      <c r="G117" s="75"/>
+      <c r="H117" s="76"/>
+      <c r="I117" s="69"/>
+    </row>
+    <row r="118" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A118" s="65" t="s">
         <v>79</v>
       </c>
-      <c r="B118" s="82" t="s">
+      <c r="B118" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="C118" s="83" t="s">
+      <c r="C118" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D118" s="84"/>
-      <c r="E118" s="85"/>
-      <c r="F118" s="86">
+      <c r="D118" s="73"/>
+      <c r="E118" s="74"/>
+      <c r="F118" s="68">
         <v>44623</v>
       </c>
-      <c r="G118" s="87" t="s">
+      <c r="G118" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H118" s="88"/>
-      <c r="I118" s="89" t="s">
+      <c r="H118" s="76"/>
+      <c r="I118" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="81" t="s">
+    <row r="119" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A119" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B119" s="82" t="s">
+      <c r="B119" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="C119" s="83" t="s">
+      <c r="C119" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D119" s="84"/>
-      <c r="E119" s="85"/>
-      <c r="F119" s="86">
+      <c r="D119" s="73"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="68">
         <v>44623</v>
       </c>
-      <c r="G119" s="87" t="s">
+      <c r="G119" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H119" s="88"/>
-      <c r="I119" s="89" t="s">
+      <c r="H119" s="76"/>
+      <c r="I119" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="81" t="s">
+    <row r="120" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A120" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B120" s="82" t="s">
+      <c r="B120" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C120" s="83" t="s">
+      <c r="C120" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D120" s="84" t="s">
+      <c r="D120" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="E120" s="85"/>
-      <c r="F120" s="86">
+      <c r="E120" s="74"/>
+      <c r="F120" s="68">
         <v>44623</v>
       </c>
-      <c r="G120" s="87" t="s">
+      <c r="G120" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H120" s="88"/>
-      <c r="I120" s="89" t="s">
+      <c r="H120" s="76"/>
+      <c r="I120" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="81" t="s">
+    <row r="121" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A121" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="B121" s="82" t="s">
+      <c r="B121" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C121" s="83" t="s">
+      <c r="C121" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="84"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="86">
+      <c r="D121" s="73"/>
+      <c r="E121" s="74"/>
+      <c r="F121" s="68">
         <v>44623</v>
       </c>
-      <c r="G121" s="87" t="s">
+      <c r="G121" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H121" s="88"/>
-      <c r="I121" s="89" t="s">
+      <c r="H121" s="76"/>
+      <c r="I121" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="81" t="s">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" s="65" t="s">
         <v>209</v>
       </c>
-      <c r="B122" s="82" t="s">
+      <c r="B122" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="C122" s="83" t="s">
+      <c r="C122" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="84"/>
-      <c r="E122" s="85"/>
-      <c r="F122" s="86">
+      <c r="D122" s="73"/>
+      <c r="E122" s="74"/>
+      <c r="F122" s="68">
         <v>44623</v>
       </c>
-      <c r="G122" s="87" t="s">
+      <c r="G122" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H122" s="88"/>
-      <c r="I122" s="89" t="s">
+      <c r="H122" s="76"/>
+      <c r="I122" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="81" t="s">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" s="65" t="s">
         <v>210</v>
       </c>
-      <c r="B123" s="82" t="s">
+      <c r="B123" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C123" s="83" t="s">
+      <c r="C123" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D123" s="84"/>
-      <c r="E123" s="85"/>
-      <c r="F123" s="86">
+      <c r="D123" s="73"/>
+      <c r="E123" s="74"/>
+      <c r="F123" s="68">
         <v>44623</v>
       </c>
-      <c r="G123" s="87" t="s">
+      <c r="G123" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H123" s="88"/>
-      <c r="I123" s="89" t="s">
+      <c r="H123" s="76"/>
+      <c r="I123" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="81" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" s="65" t="s">
         <v>211</v>
       </c>
-      <c r="B124" s="82" t="s">
+      <c r="B124" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="C124" s="83" t="s">
+      <c r="C124" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D124" s="84"/>
-      <c r="E124" s="85"/>
-      <c r="F124" s="86">
+      <c r="D124" s="73"/>
+      <c r="E124" s="74"/>
+      <c r="F124" s="68">
         <v>44623</v>
       </c>
-      <c r="G124" s="87" t="s">
+      <c r="G124" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H124" s="88"/>
-      <c r="I124" s="89" t="s">
+      <c r="H124" s="76"/>
+      <c r="I124" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="81" t="s">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" s="65" t="s">
         <v>212</v>
       </c>
-      <c r="B125" s="82" t="s">
+      <c r="B125" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C125" s="83" t="s">
+      <c r="C125" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D125" s="84"/>
-      <c r="E125" s="85"/>
-      <c r="F125" s="86">
+      <c r="D125" s="73"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="68">
         <v>44623</v>
       </c>
-      <c r="G125" s="87" t="s">
+      <c r="G125" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H125" s="88"/>
-      <c r="I125" s="89" t="s">
+      <c r="H125" s="76"/>
+      <c r="I125" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="81" t="s">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" s="65" t="s">
         <v>213</v>
       </c>
-      <c r="B126" s="82" t="s">
+      <c r="B126" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="C126" s="83" t="s">
+      <c r="C126" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D126" s="84"/>
-      <c r="E126" s="85"/>
-      <c r="F126" s="86">
+      <c r="D126" s="73"/>
+      <c r="E126" s="74"/>
+      <c r="F126" s="68">
         <v>44623</v>
       </c>
-      <c r="G126" s="87" t="s">
+      <c r="G126" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H126" s="88"/>
-      <c r="I126" s="89" t="s">
+      <c r="H126" s="76"/>
+      <c r="I126" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="81" t="s">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" s="65" t="s">
         <v>214</v>
       </c>
-      <c r="B127" s="82" t="s">
+      <c r="B127" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C127" s="83" t="s">
+      <c r="C127" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D127" s="84" t="s">
+      <c r="D127" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="E127" s="85"/>
-      <c r="F127" s="86">
+      <c r="E127" s="74"/>
+      <c r="F127" s="68">
         <v>44623</v>
       </c>
-      <c r="G127" s="87" t="s">
+      <c r="G127" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H127" s="88"/>
-      <c r="I127" s="89" t="s">
+      <c r="H127" s="76"/>
+      <c r="I127" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="81" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="65" t="s">
         <v>215</v>
       </c>
-      <c r="B128" s="90" t="s">
+      <c r="B128" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="C128" s="83"/>
-      <c r="D128" s="84"/>
-      <c r="E128" s="85"/>
-      <c r="F128" s="86"/>
-      <c r="G128" s="87"/>
-      <c r="H128" s="88"/>
-      <c r="I128" s="89"/>
-    </row>
-    <row r="129" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A129" s="81" t="s">
+      <c r="C128" s="67"/>
+      <c r="D128" s="73"/>
+      <c r="E128" s="74"/>
+      <c r="F128" s="68"/>
+      <c r="G128" s="75"/>
+      <c r="H128" s="76"/>
+      <c r="I128" s="69"/>
+    </row>
+    <row r="129" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A129" s="65" t="s">
         <v>216</v>
       </c>
-      <c r="B129" s="82" t="s">
+      <c r="B129" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="C129" s="83" t="s">
+      <c r="C129" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D129" s="84"/>
-      <c r="E129" s="85"/>
-      <c r="F129" s="86">
+      <c r="D129" s="73"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="68">
         <v>44650</v>
       </c>
-      <c r="G129" s="87" t="s">
+      <c r="G129" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H129" s="88"/>
-      <c r="I129" s="89" t="s">
+      <c r="H129" s="76"/>
+      <c r="I129" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A130" s="81" t="s">
+    <row r="130" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A130" s="65" t="s">
         <v>217</v>
       </c>
-      <c r="B130" s="82" t="s">
+      <c r="B130" s="66" t="s">
         <v>267</v>
       </c>
-      <c r="C130" s="83" t="s">
+      <c r="C130" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D130" s="84"/>
-      <c r="E130" s="85"/>
-      <c r="F130" s="86">
+      <c r="D130" s="73"/>
+      <c r="E130" s="74"/>
+      <c r="F130" s="68">
         <v>44650</v>
       </c>
-      <c r="G130" s="87" t="s">
+      <c r="G130" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H130" s="88"/>
-      <c r="I130" s="89" t="s">
+      <c r="H130" s="76"/>
+      <c r="I130" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="81" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" s="65" t="s">
         <v>218</v>
       </c>
-      <c r="B131" s="82" t="s">
+      <c r="B131" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="C131" s="83" t="s">
+      <c r="C131" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D131" s="84"/>
-      <c r="E131" s="85"/>
-      <c r="F131" s="86">
+      <c r="D131" s="73"/>
+      <c r="E131" s="74"/>
+      <c r="F131" s="68">
         <v>44650</v>
       </c>
-      <c r="G131" s="87" t="s">
+      <c r="G131" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H131" s="88"/>
-      <c r="I131" s="89" t="s">
+      <c r="H131" s="76"/>
+      <c r="I131" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="81" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="B132" s="90" t="s">
+      <c r="B132" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C132" s="83"/>
-      <c r="D132" s="84"/>
-      <c r="E132" s="85"/>
-      <c r="F132" s="86"/>
-      <c r="G132" s="87"/>
-      <c r="H132" s="88"/>
-      <c r="I132" s="89"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="81" t="s">
+      <c r="C132" s="67"/>
+      <c r="D132" s="73"/>
+      <c r="E132" s="74"/>
+      <c r="F132" s="68"/>
+      <c r="G132" s="75"/>
+      <c r="H132" s="76"/>
+      <c r="I132" s="69"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="65" t="s">
         <v>220</v>
       </c>
-      <c r="B133" s="82" t="s">
+      <c r="B133" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C133" s="83" t="s">
+      <c r="C133" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D133" s="84" t="s">
+      <c r="D133" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="E133" s="85"/>
-      <c r="F133" s="86">
+      <c r="E133" s="74"/>
+      <c r="F133" s="68">
         <v>44631</v>
       </c>
-      <c r="G133" s="87" t="s">
+      <c r="G133" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H133" s="88"/>
-      <c r="I133" s="89" t="s">
+      <c r="H133" s="76"/>
+      <c r="I133" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="81" t="s">
+    <row r="134" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="65" t="s">
         <v>221</v>
       </c>
-      <c r="B134" s="82" t="s">
+      <c r="B134" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="C134" s="83" t="s">
+      <c r="C134" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D134" s="84" t="s">
+      <c r="D134" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="E134" s="85"/>
-      <c r="F134" s="86">
+      <c r="E134" s="74"/>
+      <c r="F134" s="68">
         <v>44631</v>
       </c>
-      <c r="G134" s="87" t="s">
+      <c r="G134" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H134" s="88"/>
-      <c r="I134" s="89" t="s">
+      <c r="H134" s="76"/>
+      <c r="I134" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="81" t="s">
+    <row r="135" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="B135" s="82" t="s">
+      <c r="B135" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="C135" s="83" t="s">
+      <c r="C135" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="D135" s="84" t="s">
+      <c r="D135" s="73" t="s">
         <v>116</v>
       </c>
-      <c r="E135" s="85"/>
-      <c r="F135" s="86">
+      <c r="E135" s="74"/>
+      <c r="F135" s="68">
         <v>44631</v>
       </c>
-      <c r="G135" s="87" t="s">
+      <c r="G135" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H135" s="88"/>
-      <c r="I135" s="89" t="s">
+      <c r="H135" s="76"/>
+      <c r="I135" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="81" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="B136" s="90" t="s">
+      <c r="B136" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="C136" s="83"/>
-      <c r="D136" s="84"/>
-      <c r="E136" s="85"/>
-      <c r="F136" s="86"/>
-      <c r="G136" s="87"/>
-      <c r="H136" s="88"/>
-      <c r="I136" s="89"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="81" t="s">
+      <c r="C136" s="67"/>
+      <c r="D136" s="73"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="75"/>
+      <c r="H136" s="76"/>
+      <c r="I136" s="69"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="65" t="s">
         <v>224</v>
       </c>
-      <c r="B137" s="82" t="s">
+      <c r="B137" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="C137" s="83" t="s">
+      <c r="C137" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D137" s="84"/>
-      <c r="E137" s="85"/>
-      <c r="F137" s="86">
+      <c r="D137" s="73"/>
+      <c r="E137" s="74"/>
+      <c r="F137" s="68">
         <v>44623</v>
       </c>
-      <c r="G137" s="87" t="s">
+      <c r="G137" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H137" s="88"/>
-      <c r="I137" s="89" t="s">
+      <c r="H137" s="76"/>
+      <c r="I137" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="81" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" s="65" t="s">
         <v>225</v>
       </c>
-      <c r="B138" s="82" t="s">
+      <c r="B138" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="C138" s="83" t="s">
+      <c r="C138" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D138" s="84"/>
-      <c r="E138" s="85"/>
-      <c r="F138" s="86">
+      <c r="D138" s="73"/>
+      <c r="E138" s="74"/>
+      <c r="F138" s="68">
         <v>44623</v>
       </c>
-      <c r="G138" s="87" t="s">
+      <c r="G138" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H138" s="88"/>
-      <c r="I138" s="89" t="s">
+      <c r="H138" s="76"/>
+      <c r="I138" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A139" s="81" t="s">
+    <row r="139" spans="1:9" ht="70" x14ac:dyDescent="0.3">
+      <c r="A139" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="B139" s="82" t="s">
+      <c r="B139" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="C139" s="83" t="s">
+      <c r="C139" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D139" s="84"/>
-      <c r="E139" s="85"/>
-      <c r="F139" s="86">
+      <c r="D139" s="73"/>
+      <c r="E139" s="74"/>
+      <c r="F139" s="68">
         <v>44623</v>
       </c>
-      <c r="G139" s="87" t="s">
+      <c r="G139" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H139" s="88"/>
-      <c r="I139" s="89" t="s">
+      <c r="H139" s="76"/>
+      <c r="I139" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="81" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="B140" s="82" t="s">
+      <c r="B140" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="C140" s="83" t="s">
+      <c r="C140" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D140" s="84"/>
-      <c r="E140" s="85"/>
-      <c r="F140" s="86">
+      <c r="D140" s="73"/>
+      <c r="E140" s="74"/>
+      <c r="F140" s="68">
         <v>44623</v>
       </c>
-      <c r="G140" s="87" t="s">
+      <c r="G140" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="H140" s="88"/>
-      <c r="I140" s="89" t="s">
+      <c r="H140" s="76"/>
+      <c r="I140" s="69" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="81" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" s="65" t="s">
         <v>228</v>
       </c>
-      <c r="B141" s="90" t="s">
+      <c r="B141" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C141" s="83"/>
-      <c r="D141" s="84"/>
-      <c r="E141" s="85"/>
-      <c r="F141" s="86"/>
-      <c r="G141" s="87"/>
-      <c r="H141" s="88"/>
-      <c r="I141" s="89"/>
-    </row>
-    <row r="142" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="81" t="s">
+      <c r="C141" s="67"/>
+      <c r="D141" s="73"/>
+      <c r="E141" s="74"/>
+      <c r="F141" s="68"/>
+      <c r="G141" s="75"/>
+      <c r="H141" s="76"/>
+      <c r="I141" s="69"/>
+    </row>
+    <row r="142" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A142" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="B142" s="82" t="s">
+      <c r="B142" s="66" t="s">
         <v>266</v>
       </c>
-      <c r="C142" s="83" t="s">
+      <c r="C142" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D142" s="84"/>
-      <c r="E142" s="85"/>
-      <c r="F142" s="86">
+      <c r="D142" s="73"/>
+      <c r="E142" s="74"/>
+      <c r="F142" s="68">
         <v>44649</v>
       </c>
-      <c r="G142" s="87" t="s">
+      <c r="G142" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H142" s="88"/>
-      <c r="I142" s="89" t="s">
+      <c r="H142" s="76"/>
+      <c r="I142" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="81" t="s">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="B143" s="82" t="s">
+      <c r="B143" s="66" t="s">
         <v>265</v>
       </c>
-      <c r="C143" s="83" t="s">
+      <c r="C143" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="84"/>
-      <c r="E143" s="85"/>
-      <c r="F143" s="86">
+      <c r="D143" s="73"/>
+      <c r="E143" s="74"/>
+      <c r="F143" s="68">
         <v>44649</v>
       </c>
-      <c r="G143" s="87" t="s">
+      <c r="G143" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H143" s="88"/>
-      <c r="I143" s="89" t="s">
+      <c r="H143" s="76"/>
+      <c r="I143" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="81" t="s">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" s="65" t="s">
         <v>231</v>
       </c>
-      <c r="B144" s="82"/>
-      <c r="C144" s="83"/>
-      <c r="D144" s="82"/>
-      <c r="E144" s="91"/>
-      <c r="F144" s="86"/>
-      <c r="G144" s="83"/>
-      <c r="H144" s="92"/>
-      <c r="I144" s="89"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="81" t="s">
+      <c r="B144" s="66"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="66"/>
+      <c r="E144" s="71"/>
+      <c r="F144" s="68"/>
+      <c r="G144" s="67"/>
+      <c r="H144" s="72"/>
+      <c r="I144" s="69"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="B145" s="82" t="s">
+      <c r="B145" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C145" s="83" t="s">
+      <c r="C145" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D145" s="84"/>
-      <c r="E145" s="85"/>
-      <c r="F145" s="86">
+      <c r="D145" s="73"/>
+      <c r="E145" s="74"/>
+      <c r="F145" s="68">
         <v>44649</v>
       </c>
-      <c r="G145" s="87" t="s">
+      <c r="G145" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H145" s="88"/>
-      <c r="I145" s="89" t="s">
+      <c r="H145" s="76"/>
+      <c r="I145" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="81" t="s">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" s="65" t="s">
         <v>232</v>
       </c>
-      <c r="B146" s="90" t="s">
+      <c r="B146" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C146" s="83"/>
-      <c r="D146" s="84"/>
-      <c r="E146" s="85"/>
-      <c r="F146" s="86"/>
-      <c r="G146" s="87"/>
-      <c r="H146" s="88"/>
-      <c r="I146" s="89"/>
-    </row>
-    <row r="147" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="81" t="s">
+      <c r="C146" s="67"/>
+      <c r="D146" s="73"/>
+      <c r="E146" s="74"/>
+      <c r="F146" s="68"/>
+      <c r="G146" s="75"/>
+      <c r="H146" s="76"/>
+      <c r="I146" s="69"/>
+    </row>
+    <row r="147" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A147" s="65" t="s">
         <v>233</v>
       </c>
-      <c r="B147" s="82" t="s">
+      <c r="B147" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="C147" s="83" t="s">
+      <c r="C147" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D147" s="84"/>
-      <c r="E147" s="85"/>
-      <c r="F147" s="86">
+      <c r="D147" s="73"/>
+      <c r="E147" s="74"/>
+      <c r="F147" s="68">
         <v>44649</v>
       </c>
-      <c r="G147" s="87" t="s">
+      <c r="G147" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H147" s="88"/>
-      <c r="I147" s="89" t="s">
+      <c r="H147" s="76"/>
+      <c r="I147" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="81" t="s">
+    <row r="148" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A148" s="65" t="s">
         <v>234</v>
       </c>
-      <c r="B148" s="82" t="s">
+      <c r="B148" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="C148" s="83" t="s">
+      <c r="C148" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D148" s="84"/>
-      <c r="E148" s="85"/>
-      <c r="F148" s="86">
+      <c r="D148" s="73"/>
+      <c r="E148" s="74"/>
+      <c r="F148" s="68">
         <v>44649</v>
       </c>
-      <c r="G148" s="87" t="s">
+      <c r="G148" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H148" s="88"/>
-      <c r="I148" s="89" t="s">
+      <c r="H148" s="76"/>
+      <c r="I148" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="81" t="s">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" s="65" t="s">
         <v>235</v>
       </c>
-      <c r="B149" s="82" t="s">
+      <c r="B149" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C149" s="83" t="s">
+      <c r="C149" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D149" s="84"/>
-      <c r="E149" s="85"/>
-      <c r="F149" s="86">
+      <c r="D149" s="73"/>
+      <c r="E149" s="74"/>
+      <c r="F149" s="68">
         <v>44649</v>
       </c>
-      <c r="G149" s="87" t="s">
+      <c r="G149" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H149" s="88"/>
-      <c r="I149" s="89" t="s">
+      <c r="H149" s="76"/>
+      <c r="I149" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="81" t="s">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="B150" s="90" t="s">
+      <c r="B150" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="C150" s="83"/>
-      <c r="D150" s="84"/>
-      <c r="E150" s="85"/>
-      <c r="F150" s="86"/>
-      <c r="G150" s="87"/>
-      <c r="H150" s="88"/>
-      <c r="I150" s="89"/>
-    </row>
-    <row r="151" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="81" t="s">
+      <c r="C150" s="67"/>
+      <c r="D150" s="73"/>
+      <c r="E150" s="74"/>
+      <c r="F150" s="68"/>
+      <c r="G150" s="75"/>
+      <c r="H150" s="76"/>
+      <c r="I150" s="69"/>
+    </row>
+    <row r="151" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A151" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="B151" s="82" t="s">
+      <c r="B151" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="C151" s="83" t="s">
+      <c r="C151" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D151" s="84"/>
-      <c r="E151" s="85"/>
-      <c r="F151" s="86">
+      <c r="D151" s="73"/>
+      <c r="E151" s="74"/>
+      <c r="F151" s="68">
         <v>44636</v>
       </c>
-      <c r="G151" s="87" t="s">
+      <c r="G151" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H151" s="88"/>
-      <c r="I151" s="89" t="s">
+      <c r="H151" s="76"/>
+      <c r="I151" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" s="81" t="s">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="B152" s="82" t="s">
+      <c r="B152" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="C152" s="83" t="s">
+      <c r="C152" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D152" s="84"/>
-      <c r="E152" s="85"/>
-      <c r="F152" s="86">
+      <c r="D152" s="73"/>
+      <c r="E152" s="74"/>
+      <c r="F152" s="68">
         <v>44636</v>
       </c>
-      <c r="G152" s="87" t="s">
+      <c r="G152" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H152" s="88"/>
-      <c r="I152" s="89" t="s">
+      <c r="H152" s="76"/>
+      <c r="I152" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="81" t="s">
+    <row r="153" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A153" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="B153" s="82" t="s">
+      <c r="B153" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="C153" s="83" t="s">
+      <c r="C153" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D153" s="84"/>
-      <c r="E153" s="85"/>
-      <c r="F153" s="86">
+      <c r="D153" s="73"/>
+      <c r="E153" s="74"/>
+      <c r="F153" s="68">
         <v>44636</v>
       </c>
-      <c r="G153" s="87" t="s">
+      <c r="G153" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H153" s="88"/>
-      <c r="I153" s="89" t="s">
+      <c r="H153" s="76"/>
+      <c r="I153" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="81" t="s">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="65" t="s">
         <v>249</v>
       </c>
-      <c r="B154" s="82" t="s">
+      <c r="B154" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="C154" s="83" t="s">
+      <c r="C154" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="D154" s="84"/>
-      <c r="E154" s="85"/>
-      <c r="F154" s="86">
+      <c r="D154" s="73"/>
+      <c r="E154" s="74"/>
+      <c r="F154" s="68">
         <v>44636</v>
       </c>
-      <c r="G154" s="87" t="s">
+      <c r="G154" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="H154" s="88"/>
-      <c r="I154" s="89" t="s">
+      <c r="H154" s="76"/>
+      <c r="I154" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="81" t="s">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="B155" s="90" t="s">
+      <c r="B155" s="104" t="s">
         <v>103</v>
       </c>
-      <c r="C155" s="83"/>
-      <c r="D155" s="84"/>
-      <c r="E155" s="85"/>
-      <c r="F155" s="86"/>
-      <c r="G155" s="87"/>
-      <c r="H155" s="88"/>
-      <c r="I155" s="89"/>
-    </row>
-    <row r="156" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="81" t="s">
+      <c r="C155" s="105"/>
+      <c r="D155" s="106"/>
+      <c r="E155" s="107"/>
+      <c r="F155" s="108"/>
+      <c r="G155" s="109"/>
+      <c r="H155" s="110"/>
+      <c r="I155" s="111"/>
+    </row>
+    <row r="156" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A156" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="B156" s="82" t="s">
+      <c r="B156" s="94" t="s">
         <v>262</v>
       </c>
-      <c r="C156" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="84"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="86">
-        <v>44635</v>
-      </c>
-      <c r="G156" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="H156" s="88"/>
-      <c r="I156" s="89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="81" t="s">
+      <c r="C156" s="95"/>
+      <c r="D156" s="96"/>
+      <c r="E156" s="97"/>
+      <c r="F156" s="98"/>
+      <c r="G156" s="99"/>
+      <c r="H156" s="100"/>
+      <c r="I156" s="101"/>
+    </row>
+    <row r="157" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A157" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="B157" s="82" t="s">
+      <c r="B157" s="94" t="s">
         <v>246</v>
       </c>
-      <c r="C157" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="82"/>
-      <c r="E157" s="91"/>
-      <c r="F157" s="86">
-        <v>44635</v>
-      </c>
-      <c r="G157" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="H157" s="88"/>
-      <c r="I157" s="89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A158" s="81" t="s">
+      <c r="C157" s="95"/>
+      <c r="D157" s="94"/>
+      <c r="E157" s="102"/>
+      <c r="F157" s="98"/>
+      <c r="G157" s="99"/>
+      <c r="H157" s="100"/>
+      <c r="I157" s="101"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="93" t="s">
         <v>242</v>
       </c>
-      <c r="B158" s="82" t="s">
+      <c r="B158" s="94" t="s">
         <v>247</v>
       </c>
-      <c r="C158" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="84"/>
-      <c r="E158" s="85"/>
-      <c r="F158" s="86">
-        <v>44635</v>
-      </c>
-      <c r="G158" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="H158" s="88"/>
-      <c r="I158" s="89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159" s="81" t="s">
+      <c r="C158" s="95"/>
+      <c r="D158" s="96"/>
+      <c r="E158" s="97"/>
+      <c r="F158" s="98"/>
+      <c r="G158" s="99"/>
+      <c r="H158" s="100"/>
+      <c r="I158" s="101"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="B159" s="82" t="s">
+      <c r="B159" s="94" t="s">
         <v>129</v>
       </c>
-      <c r="C159" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="84"/>
-      <c r="E159" s="85"/>
-      <c r="F159" s="86">
-        <v>44635</v>
-      </c>
-      <c r="G159" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="H159" s="88"/>
-      <c r="I159" s="89" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" s="81" t="s">
+      <c r="C159" s="95"/>
+      <c r="D159" s="96"/>
+      <c r="E159" s="97"/>
+      <c r="F159" s="98"/>
+      <c r="G159" s="99"/>
+      <c r="H159" s="100"/>
+      <c r="I159" s="101"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" s="93" t="s">
         <v>244</v>
       </c>
-      <c r="B160" s="82" t="s">
+      <c r="B160" s="94" t="s">
         <v>245</v>
       </c>
-      <c r="C160" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="84"/>
-      <c r="E160" s="85"/>
-      <c r="F160" s="86">
-        <v>44635</v>
-      </c>
-      <c r="G160" s="87" t="s">
-        <v>130</v>
-      </c>
-      <c r="H160" s="88"/>
-      <c r="I160" s="89" t="s">
-        <v>14</v>
-      </c>
+      <c r="C160" s="95"/>
+      <c r="D160" s="96"/>
+      <c r="E160" s="97"/>
+      <c r="F160" s="98"/>
+      <c r="G160" s="99"/>
+      <c r="H160" s="100"/>
+      <c r="I160" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="285">
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="D40:E40"/>
@@ -5495,55 +5694,46 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="G75:H75"/>
     <mergeCell ref="D86:E86"/>
     <mergeCell ref="G86:H86"/>
     <mergeCell ref="D87:E87"/>
@@ -5552,172 +5742,6 @@
     <mergeCell ref="G88:H88"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="G83:H83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="G154:H154"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="C89:C91 C93 C75:C79 C104:C109 C49:C54 C63:C73 C81:C85 C87 C99:C102 C111:C113 C41:C42 C45 C157 C14:C18 C21:C24 C38:C39 C30:C34 C56:C61">
@@ -6051,7 +6075,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C115:C116 C133:C135 C118:C127 C137:C140 C147:C160 C129:C131 C142:C145 C13:C113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C115:C116 C133:C135 C118:C127 C137:C140 C147:C160 C129:C131 C142:C145 C13:C113" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6062,7 +6086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6072,21 +6096,21 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="8" width="6.625" customWidth="1"/>
-    <col min="9" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="6.625" customWidth="1"/>
-    <col min="14" max="15" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" customWidth="1"/>
+    <col min="2" max="8" width="6.58203125" customWidth="1"/>
+    <col min="9" max="12" width="12.58203125" customWidth="1"/>
+    <col min="13" max="13" width="6.58203125" customWidth="1"/>
+    <col min="14" max="15" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="23" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -6119,18 +6143,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -6157,7 +6181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -6184,7 +6208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6201,7 +6225,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6218,18 +6242,18 @@
       <c r="N9" s="5"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -6260,7 +6284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>1</v>
       </c>
@@ -6276,10 +6300,10 @@
       <c r="I13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="66"/>
+      <c r="K13" s="84"/>
       <c r="L13" s="27">
         <v>44317</v>
       </c>
@@ -6291,7 +6315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -6307,10 +6331,10 @@
       <c r="I14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="66"/>
+      <c r="K14" s="84"/>
       <c r="L14" s="27">
         <v>44317</v>
       </c>
@@ -6322,7 +6346,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -6338,10 +6362,10 @@
       <c r="I15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="65" t="s">
+      <c r="J15" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="66"/>
+      <c r="K15" s="84"/>
       <c r="L15" s="27">
         <v>44317</v>
       </c>
@@ -6353,7 +6377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>4</v>
       </c>
@@ -6382,7 +6406,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -6399,7 +6423,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="28"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
@@ -6416,7 +6440,7 @@
       <c r="N18" s="25"/>
       <c r="O18" s="28"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
@@ -6433,7 +6457,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="28"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
@@ -6450,7 +6474,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
@@ -6467,7 +6491,7 @@
       <c r="N21" s="25"/>
       <c r="O21" s="28"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -6484,7 +6508,7 @@
       <c r="N22" s="25"/>
       <c r="O22" s="28"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -6501,7 +6525,7 @@
       <c r="N23" s="25"/>
       <c r="O23" s="28"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -6518,7 +6542,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="28"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -6535,7 +6559,7 @@
       <c r="N25" s="25"/>
       <c r="O25" s="28"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
@@ -6552,7 +6576,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="28"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
@@ -6569,7 +6593,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="28"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -6586,7 +6610,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="28"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
@@ -6603,7 +6627,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="28"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
@@ -6620,7 +6644,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="28"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
@@ -6637,7 +6661,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="28"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
@@ -6654,7 +6678,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="28"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
@@ -6671,7 +6695,7 @@
       <c r="N33" s="25"/>
       <c r="O33" s="28"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -6688,7 +6712,7 @@
       <c r="N34" s="25"/>
       <c r="O34" s="28"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
@@ -6705,7 +6729,7 @@
       <c r="N35" s="25"/>
       <c r="O35" s="28"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
@@ -6722,7 +6746,7 @@
       <c r="N36" s="25"/>
       <c r="O36" s="28"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -6739,7 +6763,7 @@
       <c r="N37" s="25"/>
       <c r="O37" s="28"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -6756,7 +6780,7 @@
       <c r="N38" s="25"/>
       <c r="O38" s="28"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
@@ -6773,7 +6797,7 @@
       <c r="N39" s="25"/>
       <c r="O39" s="28"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -6797,7 +6821,7 @@
     <mergeCell ref="J15:K15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I40" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>

--- a/BN/wwwroot/Database/HRGIS_TRAINING_TestCase_MTP_rev01.xlsx
+++ b/BN/wwwroot/Database/HRGIS_TRAINING_TestCase_MTP_rev01.xlsx
@@ -5,20 +5,24 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cptfile01\div\2200\★All Pictures CPD★\Ms.Wanpen [Try]\HRGIS\TEST\REV01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cptfile01\Div\2200\★All Pictures CPD★\Ms.Wanpen [Try]\HRGIS\TEST\REV01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Page1" sheetId="3" r:id="rId1"/>
-    <sheet name="Page1 (sample)" sheetId="5" r:id="rId2"/>
+    <sheet name="Page1" sheetId="1" r:id="rId1"/>
+    <sheet name="Page1 (sample)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Page1!$12:$12</definedName>
+    <definedName name="Z_49FC3580_D803_4F15_9B66_67158C68A06A_.wvu.PrintTitles" localSheetId="0" hidden="1">Page1!$12:$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <customWorkbookViews>
+    <customWorkbookView name="Kanchana Saipanus - Personal View" guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1272" yWindow="-14" windowWidth="1296" windowHeight="1000" activeSheetId="1"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="325">
   <si>
     <t>Project Test Cases</t>
   </si>
@@ -170,9 +174,6 @@
     <t>Signature sheet</t>
   </si>
   <si>
-    <t>Export ข้อมูลและประวัติการสอนของเทรนเนอร์ได้</t>
-  </si>
-  <si>
     <t>สามารถ export ออกมาเป็นไฟล์ excel ได้</t>
   </si>
   <si>
@@ -857,9 +858,6 @@
     <t>หากเพิ่ม Internal trainer จะใช้เพียงรหัสพนักงานเท่านั้น และข้อมูลของพนักงานสามารถแสดงได้อย่างถูกต้อง</t>
   </si>
   <si>
-    <t>แก้ไขข้อมูลของ external trainer ในสังกัดของตัวเองได้อย่างถูกต้อง</t>
-  </si>
-  <si>
     <t>Internal trainer ไม่สามารถแก้ไขข้อมูลได้</t>
   </si>
   <si>
@@ -872,9 +870,6 @@
     <t>3.9</t>
   </si>
   <si>
-    <t>สามารถดูประวัติการสอนของเทรนเนอร์ได้</t>
-  </si>
-  <si>
     <t>ฟังก์ชัน Filter สามารถกรองข้อมูลได้อย่างถูกต้อง</t>
   </si>
   <si>
@@ -983,9 +978,6 @@
     <t>สามารถดูประวัติการสอนของเทรนเนอร์แต่ละคนได้</t>
   </si>
   <si>
-    <t>หากเป็น External trainer สามารถแก้ไขข้อมูลได้</t>
-  </si>
-  <si>
     <t>ผู้ใช้งานทั่วไป สามารถมองเห็นได้ทุกคอร์สทั้งหมดของ CPT แต่ไม่สามารถเพิ่ม ลบ แก้ไขข้อมูลคอร์สได้ ข้อมูลแสดงผลได้อย่างถูกต้องตั้งแต่ (1)รายละเอียดของตัวคอร์ส (2)Required course และ (3)Band</t>
   </si>
   <si>
@@ -1002,6 +994,24 @@
   </si>
   <si>
     <t>สามารถแก้ไขข้อมูลคอร์สได้อย่างถูกต้อง ตั้งแต่รายละเอียดคอร์ส การเปิดลงทะเบียน แบนด์ที่อนุญาต และเทรนเนอร์ คอร์สที่แก้ไขได้ จะต้องเป็นคอร์สที่สิ้นสุดไปแล้วเกิน 5 วัน หากเกินจากนี้ จะไม่สามารถแก้ไขได้</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>สามารถดาวน์โหลดได้เฉพาะรายชื่อ หรือ ดาวน์โหลดประวัติการสอนก็ได้</t>
+  </si>
+  <si>
+    <t>ไฟล์รายชื่อเทรนเนอร์ตรงตามรูปแบบที่ต้องการ</t>
+  </si>
+  <si>
+    <t>ประวัติการสอนตรงตามรูปแบบที่ต้องการ</t>
+  </si>
+  <si>
+    <t>หากเป็น External trainer สามารถแก้ไขข้อมูลได้ และแก้ไขข้อมูลของ external trainer ในสังกัดของตัวเองได้อย่างถูกต้อง</t>
+  </si>
+  <si>
+    <t>Export ข้อมูลและประวัติการสอนของเทรนเนอร์ได้ตรงตามรูปแบบที่ต้องการ</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1399,6 +1409,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1411,17 +1433,47 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1429,62 +1481,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="69">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="67">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2168,6 +2176,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5D75E29A-F425-40D0-A2E4-F23F3C26D131}" diskRevisions="1" revisionId="2" version="3">
+  <header guid="{FFA0B0A2-1B26-4432-AB72-A3E800E83522}" dateTime="2022-04-27T13:48:02" maxSheetId="3" userName="Kanchana Saipanus" r:id="rId1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{2759701F-13A6-4E42-86D9-6390AB4224DB}" dateTime="2022-04-27T13:48:07" maxSheetId="3" userName="Kanchana Saipanus" r:id="rId2">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{5D75E29A-F425-40D0-A2E4-F23F3C26D131}" dateTime="2022-04-27T17:09:11" maxSheetId="3" userName="Kanchana Saipanus" r:id="rId3">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_49FC3580_D803_4F15_9B66_67158C68A06A_.wvu.PrintTitles" hidden="1" oldHidden="1">
+    <formula>Page1!$12:$12</formula>
+    <oldFormula>Page1!$12:$12</oldFormula>
+  </rdn>
+  <rcv guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_49FC3580_D803_4F15_9B66_67158C68A06A_.wvu.PrintTitles" hidden="1" oldHidden="1">
+    <formula>Page1!$12:$12</formula>
+    <oldFormula>Page1!$12:$12</oldFormula>
+  </rdn>
+  <rcv guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2434,11 +2495,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J163"/>
+  <dimension ref="A1:J164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J75" sqref="J75"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2471,10 +2532,10 @@
       <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="89"/>
+      <c r="G3" s="85"/>
       <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
@@ -2518,53 +2579,53 @@
       <c r="A7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91"/>
       <c r="E7" s="49">
         <v>44621</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8" s="93" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
+        <v>262</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="90"/>
+      <c r="D8" s="91"/>
       <c r="E8" s="22">
         <v>44639</v>
       </c>
-      <c r="F8" s="90" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" s="91"/>
-      <c r="H8" s="92"/>
+      <c r="F8" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="87"/>
+      <c r="H8" s="88"/>
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="92"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="88"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2608,70 +2669,70 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C13" s="41"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="95"/>
       <c r="F13" s="37"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="93"/>
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C14" s="34"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="97"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C15" s="56"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="97"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
       <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C16" s="34"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="87"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="85"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="64"/>
@@ -2683,10 +2744,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="64"/>
@@ -2698,47 +2759,47 @@
     </row>
     <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C19" s="34"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="87"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="97"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="85"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
       <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C20" s="66"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="87"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="97"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="85"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
       <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C21" s="34"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="87"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="97"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="85"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99"/>
       <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2749,619 +2810,619 @@
         <v>41</v>
       </c>
       <c r="C22" s="41"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="93"/>
       <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C23" s="56"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="87"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="97"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="85"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="99"/>
       <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C24" s="56"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="87"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="99"/>
       <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C25" s="34"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="87"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="97"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="85"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="99"/>
       <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C26" s="34"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="87"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="97"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="85"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="99"/>
       <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C27" s="66"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="87"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="97"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="85"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="99"/>
       <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B28" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="B28" s="55" t="s">
-        <v>254</v>
-      </c>
       <c r="C28" s="34"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="87"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="97"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="85"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="99"/>
       <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C29" s="54"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="87"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="97"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="85"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="99"/>
       <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C30" s="48"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="87"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="97"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="99"/>
       <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C31" s="66"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="87"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="97"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="85"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="99"/>
       <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C32" s="56"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="87"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="97"/>
       <c r="F32" s="27"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="85"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="99"/>
       <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C33" s="66"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="87"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="97"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="85"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="99"/>
       <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C34" s="56"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="87"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="97"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="85"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="99"/>
       <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="36"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="81"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="95"/>
       <c r="F35" s="37"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="83"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="93"/>
       <c r="I35" s="38"/>
     </row>
     <row r="36" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C36" s="32"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="87"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="97"/>
       <c r="F36" s="27"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="85"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="99"/>
       <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C37" s="34"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="87"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="97"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="85"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="99"/>
       <c r="I37" s="28"/>
     </row>
     <row r="38" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="78" t="s">
+        <v>320</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="28"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="39" t="s">
-        <v>272</v>
-      </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="28"/>
-    </row>
-    <row r="39" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>273</v>
-      </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="87"/>
+      <c r="B39" s="78" t="s">
+        <v>321</v>
+      </c>
+      <c r="C39" s="76"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="79"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="85"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="77"/>
       <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="C40" s="76"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="28"/>
+    </row>
+    <row r="41" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="58" t="s">
-        <v>316</v>
-      </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="28"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B41" s="64" t="s">
-        <v>315</v>
-      </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="52"/>
-      <c r="E41" s="53"/>
+      <c r="B41" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="97"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="85"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="99"/>
       <c r="I41" s="28"/>
     </row>
-    <row r="42" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="B42" s="58" t="s">
         <v>274</v>
       </c>
+      <c r="B42" s="39" t="s">
+        <v>272</v>
+      </c>
       <c r="C42" s="59"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="53"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="97"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="85"/>
+      <c r="G42" s="98"/>
+      <c r="H42" s="99"/>
       <c r="I42" s="28"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="B43" s="58" t="s">
         <v>275</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="53"/>
+      <c r="B43" s="78" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" s="76"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="101"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="85"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="77"/>
       <c r="I43" s="28"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>279</v>
+        <v>276</v>
+      </c>
+      <c r="B44" s="58" t="s">
+        <v>323</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="52"/>
       <c r="E44" s="53"/>
       <c r="F44" s="27"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="85"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="99"/>
       <c r="I44" s="28"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="59"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="87"/>
+        <v>278</v>
+      </c>
+      <c r="B45" s="64" t="s">
+        <v>312</v>
+      </c>
+      <c r="C45" s="66"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="85"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="99"/>
       <c r="I45" s="28"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="35" t="s">
+    <row r="46" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="33" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>324</v>
+      </c>
+      <c r="C46" s="59"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="99"/>
+      <c r="I46" s="28"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="38"/>
+    </row>
+    <row r="48" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A48" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>282</v>
-      </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="82"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="38"/>
-    </row>
-    <row r="47" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A47" s="33" t="s">
+      <c r="B48" s="60" t="s">
+        <v>313</v>
+      </c>
+      <c r="C48" s="45"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="98"/>
+      <c r="H48" s="99"/>
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B47" s="60" t="s">
-        <v>317</v>
-      </c>
-      <c r="C47" s="45"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="28"/>
-    </row>
-    <row r="48" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="33" t="s">
+      <c r="B49" s="60" t="s">
+        <v>285</v>
+      </c>
+      <c r="C49" s="62"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="28"/>
+    </row>
+    <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="60" t="s">
-        <v>288</v>
-      </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="28"/>
-    </row>
-    <row r="49" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="33" t="s">
+      <c r="B50" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="51"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="98"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="28"/>
+    </row>
+    <row r="51" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="44" t="s">
+      <c r="B51" s="44" t="s">
         <v>125</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="28"/>
-    </row>
-    <row r="50" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="51"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="28"/>
-    </row>
-    <row r="51" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>318</v>
-      </c>
       <c r="C51" s="51"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="87"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="97"/>
       <c r="F51" s="27"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="85"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="99"/>
       <c r="I51" s="28"/>
     </row>
     <row r="52" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="99"/>
+      <c r="I52" s="28"/>
+    </row>
+    <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C53" s="51"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="28"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="35" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="44" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="51"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="28"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
+      <c r="B54" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="C54" s="41"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="95"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="93"/>
+      <c r="I54" s="38"/>
+    </row>
+    <row r="55" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="B53" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="38"/>
-    </row>
-    <row r="54" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" s="60" t="s">
-        <v>290</v>
-      </c>
-      <c r="C54" s="34"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="28"/>
-    </row>
-    <row r="55" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B55" s="39" t="s">
-        <v>291</v>
+      <c r="B55" s="60" t="s">
+        <v>287</v>
       </c>
       <c r="C55" s="34"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="87"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="97"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="85"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="99"/>
       <c r="I55" s="28"/>
     </row>
     <row r="56" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="C56" s="34"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="99"/>
+      <c r="I56" s="28"/>
+    </row>
+    <row r="57" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B57" s="60" t="s">
+        <v>289</v>
+      </c>
+      <c r="C57" s="34"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="99"/>
+      <c r="I57" s="28"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="C56" s="34"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="87"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="28"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="33" t="s">
+      <c r="B58" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="C58" s="34"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="99"/>
+      <c r="I58" s="28"/>
+    </row>
+    <row r="59" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="C57" s="34"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="28"/>
-    </row>
-    <row r="58" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="33" t="s">
+      <c r="B59" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="C59" s="34"/>
+      <c r="D59" s="96"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="99"/>
+      <c r="I59" s="28"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B58" s="39" t="s">
-        <v>294</v>
-      </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="28"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" s="64" t="s">
-        <v>319</v>
-      </c>
-      <c r="C59" s="66"/>
-      <c r="D59" s="64"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="28"/>
-    </row>
-    <row r="60" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="B60" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="C60" s="43"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="87"/>
+      <c r="B60" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="C60" s="66"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
       <c r="F60" s="27"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="85"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="67"/>
       <c r="I60" s="28"/>
     </row>
     <row r="61" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A61" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>317</v>
+      </c>
+      <c r="C61" s="43"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="98"/>
+      <c r="H61" s="99"/>
+      <c r="I61" s="28"/>
+    </row>
+    <row r="62" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="C62" s="43"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="28"/>
+    </row>
+    <row r="63" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="39" t="s">
-        <v>295</v>
-      </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="28"/>
-    </row>
-    <row r="62" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="B62" s="60" t="s">
-        <v>322</v>
-      </c>
-      <c r="C62" s="62"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="28"/>
-    </row>
-    <row r="63" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="33" t="s">
-        <v>296</v>
-      </c>
       <c r="B63" s="60" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="C63" s="62"/>
       <c r="D63" s="60"/>
@@ -3371,1797 +3432,1789 @@
       <c r="H63" s="63"/>
       <c r="I63" s="28"/>
     </row>
-    <row r="64" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="33" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="B64" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="87"/>
+        <v>286</v>
+      </c>
+      <c r="C64" s="62"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="61"/>
       <c r="F64" s="27"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="85"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="63"/>
       <c r="I64" s="28"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="35" t="s">
+    <row r="65" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="B65" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="43"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="98"/>
+      <c r="H65" s="99"/>
+      <c r="I65" s="28"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="C66" s="41"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="95"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="93"/>
+      <c r="I66" s="38"/>
+    </row>
+    <row r="67" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="B65" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="C65" s="41"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="81"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="38"/>
-    </row>
-    <row r="66" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="68" t="s">
-        <v>155</v>
-      </c>
-      <c r="B66" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="76"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="71">
-        <v>44631</v>
-      </c>
-      <c r="G66" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="H66" s="79"/>
-      <c r="I66" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="68" t="s">
-        <v>156</v>
-      </c>
       <c r="B67" s="69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C67" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="76"/>
-      <c r="E67" s="77"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="81"/>
       <c r="F67" s="71">
-        <v>44622</v>
-      </c>
-      <c r="G67" s="78" t="s">
+        <v>44631</v>
+      </c>
+      <c r="G67" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H67" s="83"/>
+      <c r="I67" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H67" s="79"/>
-      <c r="I67" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B68" s="69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C68" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="76"/>
-      <c r="E68" s="77"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="81"/>
       <c r="F68" s="71">
-        <v>44623</v>
-      </c>
-      <c r="G68" s="78" t="s">
+        <v>44622</v>
+      </c>
+      <c r="G68" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H68" s="83"/>
+      <c r="I68" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H68" s="79"/>
-      <c r="I68" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="68" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B69" s="69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C69" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="76"/>
-      <c r="E69" s="77"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="81"/>
       <c r="F69" s="71">
-        <v>44622</v>
-      </c>
-      <c r="G69" s="78" t="s">
+        <v>44623</v>
+      </c>
+      <c r="G69" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" s="83"/>
+      <c r="I69" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H69" s="79"/>
-      <c r="I69" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="68" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B70" s="69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C70" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="E70" s="77"/>
+        <v>12</v>
+      </c>
+      <c r="D70" s="80"/>
+      <c r="E70" s="81"/>
       <c r="F70" s="71">
         <v>44622</v>
       </c>
-      <c r="G70" s="78" t="s">
+      <c r="G70" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H70" s="83"/>
+      <c r="I70" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H70" s="79"/>
-      <c r="I70" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="68" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B71" s="69" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C71" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="76"/>
-      <c r="E71" s="77"/>
+        <v>13</v>
+      </c>
+      <c r="D71" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="81"/>
       <c r="F71" s="71">
         <v>44622</v>
       </c>
-      <c r="G71" s="78" t="s">
+      <c r="G71" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H71" s="83"/>
+      <c r="I71" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H71" s="79"/>
-      <c r="I71" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="68" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B72" s="69" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C72" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="76"/>
-      <c r="E72" s="77"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="81"/>
       <c r="F72" s="71">
         <v>44622</v>
       </c>
-      <c r="G72" s="78" t="s">
+      <c r="G72" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H72" s="83"/>
+      <c r="I72" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H72" s="79"/>
-      <c r="I72" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B73" s="69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C73" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="76"/>
-      <c r="E73" s="77"/>
+      <c r="D73" s="80"/>
+      <c r="E73" s="81"/>
       <c r="F73" s="71">
         <v>44622</v>
       </c>
-      <c r="G73" s="78" t="s">
+      <c r="G73" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H73" s="83"/>
+      <c r="I73" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H73" s="79"/>
-      <c r="I73" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="68" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B74" s="69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C74" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="76"/>
-      <c r="E74" s="77"/>
+      <c r="D74" s="80"/>
+      <c r="E74" s="81"/>
       <c r="F74" s="71">
         <v>44622</v>
       </c>
-      <c r="G74" s="78" t="s">
+      <c r="G74" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H74" s="83"/>
+      <c r="I74" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H74" s="79"/>
-      <c r="I74" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B75" s="69" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C75" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="E75" s="77"/>
+        <v>12</v>
+      </c>
+      <c r="D75" s="80"/>
+      <c r="E75" s="81"/>
       <c r="F75" s="71">
         <v>44622</v>
       </c>
-      <c r="G75" s="78" t="s">
+      <c r="G75" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H75" s="83"/>
+      <c r="I75" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H75" s="79"/>
-      <c r="I75" s="72" t="s">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="B76" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C76" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="80" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="68" t="s">
-        <v>165</v>
-      </c>
-      <c r="B76" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="76"/>
-      <c r="E76" s="77"/>
+      <c r="E76" s="81"/>
       <c r="F76" s="71">
         <v>44622</v>
       </c>
-      <c r="G76" s="78" t="s">
+      <c r="G76" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="83"/>
+      <c r="I76" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H76" s="79"/>
-      <c r="I76" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B77" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="C77" s="41"/>
+    </row>
+    <row r="77" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="B77" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="70" t="s">
+        <v>12</v>
+      </c>
       <c r="D77" s="80"/>
       <c r="E77" s="81"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="82"/>
+      <c r="F77" s="71">
+        <v>44622</v>
+      </c>
+      <c r="G77" s="82" t="s">
+        <v>103</v>
+      </c>
       <c r="H77" s="83"/>
-      <c r="I77" s="38"/>
-    </row>
-    <row r="78" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="68" t="s">
-        <v>167</v>
-      </c>
-      <c r="B78" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="76"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="71">
-        <v>44622</v>
-      </c>
-      <c r="G78" s="78" t="s">
+      <c r="I77" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H78" s="79"/>
-      <c r="I78" s="72" t="s">
-        <v>105</v>
-      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" s="41"/>
+      <c r="D78" s="94"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="93"/>
+      <c r="I78" s="38"/>
     </row>
     <row r="79" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="68" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B79" s="69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C79" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="76"/>
-      <c r="E79" s="77"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="81"/>
       <c r="F79" s="71">
         <v>44622</v>
       </c>
-      <c r="G79" s="78" t="s">
+      <c r="G79" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H79" s="83"/>
+      <c r="I79" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H79" s="79"/>
-      <c r="I79" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="68" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B80" s="69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C80" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="76"/>
-      <c r="E80" s="77"/>
+      <c r="D80" s="80"/>
+      <c r="E80" s="81"/>
       <c r="F80" s="71">
-        <v>44631</v>
-      </c>
-      <c r="G80" s="78" t="s">
+        <v>44622</v>
+      </c>
+      <c r="G80" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H80" s="83"/>
+      <c r="I80" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H80" s="79"/>
-      <c r="I80" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="68" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B81" s="69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C81" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="76"/>
-      <c r="E81" s="77"/>
+      <c r="D81" s="80"/>
+      <c r="E81" s="81"/>
       <c r="F81" s="71">
-        <v>44622</v>
-      </c>
-      <c r="G81" s="78" t="s">
+        <v>44631</v>
+      </c>
+      <c r="G81" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H81" s="83"/>
+      <c r="I81" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H81" s="79"/>
-      <c r="I81" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="68" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B82" s="69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C82" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="E82" s="77"/>
+        <v>12</v>
+      </c>
+      <c r="D82" s="80"/>
+      <c r="E82" s="81"/>
       <c r="F82" s="71">
         <v>44622</v>
       </c>
-      <c r="G82" s="78" t="s">
+      <c r="G82" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H82" s="83"/>
+      <c r="I82" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H82" s="79"/>
-      <c r="I82" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B83" s="69" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C83" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="76"/>
-      <c r="E83" s="77"/>
+        <v>13</v>
+      </c>
+      <c r="D83" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E83" s="81"/>
       <c r="F83" s="71">
         <v>44622</v>
       </c>
-      <c r="G83" s="78" t="s">
+      <c r="G83" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H83" s="83"/>
+      <c r="I83" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H83" s="79"/>
-      <c r="I83" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A84" s="68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B84" s="69" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C84" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="76"/>
-      <c r="E84" s="77"/>
+      <c r="D84" s="80"/>
+      <c r="E84" s="81"/>
       <c r="F84" s="71">
         <v>44622</v>
       </c>
-      <c r="G84" s="78" t="s">
+      <c r="G84" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H84" s="83"/>
+      <c r="I84" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H84" s="79"/>
-      <c r="I84" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="68" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B85" s="69" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C85" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="76"/>
-      <c r="E85" s="77"/>
+      <c r="D85" s="80"/>
+      <c r="E85" s="81"/>
       <c r="F85" s="71">
         <v>44622</v>
       </c>
-      <c r="G85" s="78" t="s">
+      <c r="G85" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H85" s="83"/>
+      <c r="I85" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H85" s="79"/>
-      <c r="I85" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B86" s="69" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C86" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="76"/>
-      <c r="E86" s="77"/>
+      <c r="D86" s="80"/>
+      <c r="E86" s="81"/>
       <c r="F86" s="71">
         <v>44622</v>
       </c>
-      <c r="G86" s="78" t="s">
+      <c r="G86" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H86" s="83"/>
+      <c r="I86" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H86" s="79"/>
-      <c r="I86" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="68" t="s">
-        <v>48</v>
+        <v>174</v>
       </c>
       <c r="B87" s="69" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C87" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="76"/>
-      <c r="E87" s="77"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="81"/>
       <c r="F87" s="71">
-        <v>44631</v>
-      </c>
-      <c r="G87" s="78" t="s">
+        <v>44622</v>
+      </c>
+      <c r="G87" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H87" s="83"/>
+      <c r="I87" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H87" s="79"/>
-      <c r="I87" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A88" s="68" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="B88" s="69" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C88" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="76"/>
-      <c r="E88" s="77"/>
+      <c r="D88" s="80"/>
+      <c r="E88" s="81"/>
       <c r="F88" s="71">
-        <v>44622</v>
-      </c>
-      <c r="G88" s="78" t="s">
+        <v>44631</v>
+      </c>
+      <c r="G88" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H88" s="83"/>
+      <c r="I88" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H88" s="79"/>
-      <c r="I88" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="68" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B89" s="69" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C89" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="E89" s="77"/>
+        <v>12</v>
+      </c>
+      <c r="D89" s="80"/>
+      <c r="E89" s="81"/>
       <c r="F89" s="71">
         <v>44622</v>
       </c>
-      <c r="G89" s="78" t="s">
+      <c r="G89" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H89" s="83"/>
+      <c r="I89" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H89" s="79"/>
-      <c r="I89" s="72" t="s">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="68" t="s">
+        <v>176</v>
+      </c>
+      <c r="B90" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="C90" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="80" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="57" x14ac:dyDescent="0.2">
-      <c r="A90" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="B90" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C90" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="76"/>
-      <c r="E90" s="77"/>
+      <c r="E90" s="81"/>
       <c r="F90" s="71">
         <v>44622</v>
       </c>
-      <c r="G90" s="78" t="s">
+      <c r="G90" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H90" s="83"/>
+      <c r="I90" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H90" s="79"/>
-      <c r="I90" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A91" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B91" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="80"/>
+      <c r="E91" s="81"/>
+      <c r="F91" s="71">
+        <v>44622</v>
+      </c>
+      <c r="G91" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H91" s="83"/>
+      <c r="I91" s="72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="B92" s="73" t="s">
+        <v>284</v>
+      </c>
+      <c r="C92" s="70"/>
+      <c r="D92" s="80"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="71"/>
+      <c r="G92" s="82"/>
+      <c r="H92" s="83"/>
+      <c r="I92" s="72"/>
+    </row>
+    <row r="93" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="B91" s="73" t="s">
-        <v>287</v>
-      </c>
-      <c r="C91" s="70"/>
-      <c r="D91" s="76"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="71"/>
-      <c r="G91" s="78"/>
-      <c r="H91" s="79"/>
-      <c r="I91" s="72"/>
-    </row>
-    <row r="92" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="68" t="s">
-        <v>180</v>
-      </c>
-      <c r="B92" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="C92" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D92" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="E92" s="77"/>
-      <c r="F92" s="71">
-        <v>44631</v>
-      </c>
-      <c r="G92" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="H92" s="79"/>
-      <c r="I92" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="68" t="s">
-        <v>181</v>
-      </c>
       <c r="B93" s="69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C93" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="76" t="s">
-        <v>111</v>
-      </c>
-      <c r="E93" s="77"/>
+      <c r="D93" s="80" t="s">
+        <v>114</v>
+      </c>
+      <c r="E93" s="81"/>
       <c r="F93" s="71">
-        <v>44622</v>
-      </c>
-      <c r="G93" s="78" t="s">
+        <v>44631</v>
+      </c>
+      <c r="G93" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H93" s="83"/>
+      <c r="I93" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H93" s="79"/>
-      <c r="I93" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A94" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B94" s="69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C94" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="76"/>
-      <c r="E94" s="77"/>
+        <v>13</v>
+      </c>
+      <c r="D94" s="80" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" s="81"/>
       <c r="F94" s="71">
         <v>44622</v>
       </c>
-      <c r="G94" s="78" t="s">
+      <c r="G94" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H94" s="83"/>
+      <c r="I94" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H94" s="79"/>
-      <c r="I94" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A95" s="68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B95" s="69" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C95" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="76"/>
-      <c r="E95" s="77"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="81"/>
       <c r="F95" s="71">
         <v>44622</v>
       </c>
-      <c r="G95" s="78" t="s">
+      <c r="G95" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H95" s="83"/>
+      <c r="I95" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H95" s="79"/>
-      <c r="I95" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B96" s="69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C96" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="E96" s="77"/>
+        <v>12</v>
+      </c>
+      <c r="D96" s="80"/>
+      <c r="E96" s="81"/>
       <c r="F96" s="71">
         <v>44622</v>
       </c>
-      <c r="G96" s="78" t="s">
+      <c r="G96" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H96" s="83"/>
+      <c r="I96" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H96" s="79"/>
-      <c r="I96" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="68" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B97" s="69" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C97" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="76"/>
-      <c r="E97" s="77"/>
+        <v>13</v>
+      </c>
+      <c r="D97" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="E97" s="81"/>
       <c r="F97" s="71">
         <v>44622</v>
       </c>
-      <c r="G97" s="78" t="s">
+      <c r="G97" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H97" s="83"/>
+      <c r="I97" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H97" s="79"/>
-      <c r="I97" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A98" s="68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B98" s="69" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C98" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="76"/>
-      <c r="E98" s="77"/>
+      <c r="D98" s="80"/>
+      <c r="E98" s="81"/>
       <c r="F98" s="71">
         <v>44622</v>
       </c>
-      <c r="G98" s="78" t="s">
+      <c r="G98" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H98" s="83"/>
+      <c r="I98" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H98" s="79"/>
-      <c r="I98" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B99" s="69" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C99" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="76"/>
-      <c r="E99" s="77"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="81"/>
       <c r="F99" s="71">
         <v>44622</v>
       </c>
-      <c r="G99" s="78" t="s">
+      <c r="G99" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H99" s="83"/>
+      <c r="I99" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H99" s="79"/>
-      <c r="I99" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B100" s="69" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C100" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D100" s="76"/>
-      <c r="E100" s="77"/>
+      <c r="D100" s="80"/>
+      <c r="E100" s="81"/>
       <c r="F100" s="71">
         <v>44622</v>
       </c>
-      <c r="G100" s="78" t="s">
+      <c r="G100" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H100" s="83"/>
+      <c r="I100" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H100" s="79"/>
-      <c r="I100" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="68" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="B101" s="69" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C101" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="76"/>
-      <c r="E101" s="77"/>
+      <c r="D101" s="80"/>
+      <c r="E101" s="81"/>
       <c r="F101" s="71">
         <v>44622</v>
       </c>
-      <c r="G101" s="78" t="s">
+      <c r="G101" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H101" s="83"/>
+      <c r="I101" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H101" s="79"/>
-      <c r="I101" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A102" s="68" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B102" s="69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C102" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="76"/>
-      <c r="E102" s="77"/>
+      <c r="D102" s="80"/>
+      <c r="E102" s="81"/>
       <c r="F102" s="71">
         <v>44622</v>
       </c>
-      <c r="G102" s="78" t="s">
+      <c r="G102" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H102" s="83"/>
+      <c r="I102" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H102" s="79"/>
-      <c r="I102" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="68" t="s">
-        <v>189</v>
+        <v>59</v>
       </c>
       <c r="B103" s="69" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C103" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="76"/>
-      <c r="E103" s="77"/>
+      <c r="D103" s="80"/>
+      <c r="E103" s="81"/>
       <c r="F103" s="71">
         <v>44622</v>
       </c>
-      <c r="G103" s="78" t="s">
+      <c r="G103" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H103" s="83"/>
+      <c r="I103" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H103" s="79"/>
-      <c r="I103" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="68" t="s">
+        <v>188</v>
+      </c>
+      <c r="B104" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C104" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="80"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="71">
+        <v>44622</v>
+      </c>
+      <c r="G104" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H104" s="83"/>
+      <c r="I104" s="72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="68" t="s">
+        <v>189</v>
+      </c>
+      <c r="B105" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E105" s="81"/>
+      <c r="F105" s="71">
+        <v>44631</v>
+      </c>
+      <c r="G105" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H105" s="83"/>
+      <c r="I105" s="72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A106" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="B104" s="69" t="s">
+      <c r="B106" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C104" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="76" t="s">
-        <v>117</v>
-      </c>
-      <c r="E104" s="77"/>
-      <c r="F104" s="71">
-        <v>44631</v>
-      </c>
-      <c r="G104" s="78" t="s">
+      <c r="C106" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="80"/>
+      <c r="E106" s="81"/>
+      <c r="F106" s="71">
+        <v>44622</v>
+      </c>
+      <c r="G106" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H106" s="83"/>
+      <c r="I106" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H104" s="79"/>
-      <c r="I104" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="68" t="s">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="B105" s="69" t="s">
+      <c r="B107" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="70"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="81"/>
+      <c r="F107" s="71"/>
+      <c r="G107" s="82"/>
+      <c r="H107" s="83"/>
+      <c r="I107" s="72"/>
+    </row>
+    <row r="108" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A108" s="68" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" s="69" t="s">
         <v>71</v>
-      </c>
-      <c r="C105" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="76"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="71">
-        <v>44622</v>
-      </c>
-      <c r="G105" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="H105" s="79"/>
-      <c r="I105" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="68" t="s">
-        <v>192</v>
-      </c>
-      <c r="B106" s="73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C106" s="70"/>
-      <c r="D106" s="76"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="78"/>
-      <c r="H106" s="79"/>
-      <c r="I106" s="72"/>
-    </row>
-    <row r="107" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="68" t="s">
-        <v>193</v>
-      </c>
-      <c r="B107" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C107" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="76"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="71"/>
-      <c r="G107" s="78"/>
-      <c r="H107" s="79"/>
-      <c r="I107" s="72"/>
-    </row>
-    <row r="108" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="68" t="s">
-        <v>194</v>
-      </c>
-      <c r="B108" s="69" t="s">
-        <v>73</v>
       </c>
       <c r="C108" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="76"/>
-      <c r="E108" s="77"/>
+      <c r="D108" s="80"/>
+      <c r="E108" s="81"/>
       <c r="F108" s="71"/>
-      <c r="G108" s="78"/>
-      <c r="H108" s="79"/>
+      <c r="G108" s="82"/>
+      <c r="H108" s="83"/>
       <c r="I108" s="72"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="68" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B109" s="69" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C109" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D109" s="76"/>
-      <c r="E109" s="77"/>
+      <c r="D109" s="80"/>
+      <c r="E109" s="81"/>
       <c r="F109" s="71"/>
-      <c r="G109" s="78"/>
-      <c r="H109" s="79"/>
+      <c r="G109" s="82"/>
+      <c r="H109" s="83"/>
       <c r="I109" s="72"/>
     </row>
-    <row r="110" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="68" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B110" s="69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C110" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D110" s="76"/>
-      <c r="E110" s="77"/>
+      <c r="D110" s="80"/>
+      <c r="E110" s="81"/>
       <c r="F110" s="71"/>
-      <c r="G110" s="78"/>
-      <c r="H110" s="79"/>
+      <c r="G110" s="82"/>
+      <c r="H110" s="83"/>
       <c r="I110" s="72"/>
     </row>
     <row r="111" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A111" s="68" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B111" s="69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C111" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D111" s="76"/>
-      <c r="E111" s="77"/>
+      <c r="D111" s="80"/>
+      <c r="E111" s="81"/>
       <c r="F111" s="71"/>
-      <c r="G111" s="78"/>
-      <c r="H111" s="79"/>
+      <c r="G111" s="82"/>
+      <c r="H111" s="83"/>
       <c r="I111" s="72"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A112" s="68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B112" s="69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C112" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" s="76"/>
-      <c r="E112" s="77"/>
+        <v>12</v>
+      </c>
+      <c r="D112" s="80"/>
+      <c r="E112" s="81"/>
       <c r="F112" s="71"/>
-      <c r="G112" s="78"/>
-      <c r="H112" s="79"/>
+      <c r="G112" s="82"/>
+      <c r="H112" s="83"/>
       <c r="I112" s="72"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="B113" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="C113" s="70"/>
-      <c r="D113" s="76"/>
-      <c r="E113" s="77"/>
+        <v>197</v>
+      </c>
+      <c r="B113" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="80"/>
+      <c r="E113" s="81"/>
       <c r="F113" s="71"/>
-      <c r="G113" s="78"/>
-      <c r="H113" s="79"/>
+      <c r="G113" s="82"/>
+      <c r="H113" s="83"/>
       <c r="I113" s="72"/>
     </row>
-    <row r="114" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="B114" s="69" t="s">
-        <v>80</v>
-      </c>
-      <c r="C114" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D114" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="E114" s="77"/>
-      <c r="F114" s="71">
-        <v>44631</v>
-      </c>
-      <c r="G114" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="H114" s="79"/>
-      <c r="I114" s="72" t="s">
-        <v>105</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B114" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C114" s="70"/>
+      <c r="D114" s="80"/>
+      <c r="E114" s="81"/>
+      <c r="F114" s="71"/>
+      <c r="G114" s="82"/>
+      <c r="H114" s="83"/>
+      <c r="I114" s="72"/>
     </row>
     <row r="115" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A115" s="68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B115" s="69" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C115" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D115" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="E115" s="77"/>
+      <c r="D115" s="80" t="s">
+        <v>111</v>
+      </c>
+      <c r="E115" s="81"/>
       <c r="F115" s="71">
         <v>44631</v>
       </c>
-      <c r="G115" s="78" t="s">
+      <c r="G115" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H115" s="83"/>
+      <c r="I115" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H115" s="79"/>
-      <c r="I115" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B116" s="69" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C116" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D116" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="E116" s="77"/>
+      <c r="D116" s="80" t="s">
+        <v>112</v>
+      </c>
+      <c r="E116" s="81"/>
       <c r="F116" s="71">
         <v>44631</v>
       </c>
-      <c r="G116" s="78" t="s">
+      <c r="G116" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H116" s="83"/>
+      <c r="I116" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H116" s="79"/>
-      <c r="I116" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A117" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="B117" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="C117" s="70"/>
-      <c r="D117" s="76"/>
-      <c r="E117" s="77"/>
-      <c r="F117" s="71"/>
-      <c r="G117" s="78"/>
-      <c r="H117" s="79"/>
-      <c r="I117" s="72"/>
+        <v>65</v>
+      </c>
+      <c r="B117" s="69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C117" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="E117" s="81"/>
+      <c r="F117" s="71">
+        <v>44631</v>
+      </c>
+      <c r="G117" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H117" s="83"/>
+      <c r="I117" s="72" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="B118" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C118" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="E118" s="77"/>
-      <c r="F118" s="71">
-        <v>44622</v>
-      </c>
-      <c r="G118" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="H118" s="79"/>
-      <c r="I118" s="72" t="s">
-        <v>105</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B118" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="C118" s="70"/>
+      <c r="D118" s="80"/>
+      <c r="E118" s="81"/>
+      <c r="F118" s="71"/>
+      <c r="G118" s="82"/>
+      <c r="H118" s="83"/>
+      <c r="I118" s="72"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="68" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B119" s="69" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C119" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="76"/>
-      <c r="E119" s="77"/>
+        <v>13</v>
+      </c>
+      <c r="D119" s="80" t="s">
+        <v>109</v>
+      </c>
+      <c r="E119" s="81"/>
       <c r="F119" s="71">
         <v>44622</v>
       </c>
-      <c r="G119" s="78" t="s">
+      <c r="G119" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H119" s="83"/>
+      <c r="I119" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H119" s="79"/>
-      <c r="I119" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="B120" s="73" t="s">
+        <v>200</v>
+      </c>
+      <c r="B120" s="69" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="80"/>
+      <c r="E120" s="81"/>
+      <c r="F120" s="71">
+        <v>44622</v>
+      </c>
+      <c r="G120" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H120" s="83"/>
+      <c r="I120" s="72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="B121" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C120" s="70"/>
-      <c r="D120" s="76"/>
-      <c r="E120" s="77"/>
-      <c r="F120" s="71"/>
-      <c r="G120" s="78"/>
-      <c r="H120" s="79"/>
-      <c r="I120" s="72"/>
-    </row>
-    <row r="121" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A121" s="68" t="s">
-        <v>79</v>
-      </c>
-      <c r="B121" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="C121" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="76"/>
-      <c r="E121" s="77"/>
-      <c r="F121" s="71">
-        <v>44623</v>
-      </c>
-      <c r="G121" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="H121" s="79"/>
-      <c r="I121" s="72" t="s">
-        <v>105</v>
-      </c>
+      <c r="C121" s="70"/>
+      <c r="D121" s="80"/>
+      <c r="E121" s="81"/>
+      <c r="F121" s="71"/>
+      <c r="G121" s="82"/>
+      <c r="H121" s="83"/>
+      <c r="I121" s="72"/>
     </row>
     <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A122" s="68" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B122" s="69" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C122" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="76"/>
-      <c r="E122" s="77"/>
+      <c r="D122" s="80"/>
+      <c r="E122" s="81"/>
       <c r="F122" s="71">
         <v>44623</v>
       </c>
-      <c r="G122" s="78" t="s">
+      <c r="G122" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H122" s="83"/>
+      <c r="I122" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H122" s="79"/>
-      <c r="I122" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A123" s="68" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B123" s="69" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C123" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="76" t="s">
-        <v>109</v>
-      </c>
-      <c r="E123" s="77"/>
+        <v>12</v>
+      </c>
+      <c r="D123" s="80"/>
+      <c r="E123" s="81"/>
       <c r="F123" s="71">
         <v>44623</v>
       </c>
-      <c r="G123" s="78" t="s">
+      <c r="G123" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H123" s="83"/>
+      <c r="I123" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H123" s="79"/>
-      <c r="I123" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A124" s="68" t="s">
-        <v>204</v>
+        <v>82</v>
       </c>
       <c r="B124" s="69" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C124" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D124" s="76"/>
-      <c r="E124" s="77"/>
+        <v>13</v>
+      </c>
+      <c r="D124" s="80" t="s">
+        <v>108</v>
+      </c>
+      <c r="E124" s="81"/>
       <c r="F124" s="71">
         <v>44623</v>
       </c>
-      <c r="G124" s="78" t="s">
+      <c r="G124" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H124" s="83"/>
+      <c r="I124" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H124" s="79"/>
-      <c r="I124" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="68" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B125" s="69" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C125" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D125" s="76"/>
-      <c r="E125" s="77"/>
+      <c r="D125" s="80"/>
+      <c r="E125" s="81"/>
       <c r="F125" s="71">
         <v>44623</v>
       </c>
-      <c r="G125" s="78" t="s">
+      <c r="G125" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H125" s="83"/>
+      <c r="I125" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H125" s="79"/>
-      <c r="I125" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="68" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B126" s="69" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C126" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D126" s="76"/>
-      <c r="E126" s="77"/>
+      <c r="D126" s="80"/>
+      <c r="E126" s="81"/>
       <c r="F126" s="71">
         <v>44623</v>
       </c>
-      <c r="G126" s="78" t="s">
+      <c r="G126" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H126" s="83"/>
+      <c r="I126" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H126" s="79"/>
-      <c r="I126" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B127" s="69" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C127" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D127" s="76"/>
-      <c r="E127" s="77"/>
+      <c r="D127" s="80"/>
+      <c r="E127" s="81"/>
       <c r="F127" s="71">
         <v>44623</v>
       </c>
-      <c r="G127" s="78" t="s">
+      <c r="G127" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H127" s="83"/>
+      <c r="I127" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H127" s="79"/>
-      <c r="I127" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="68" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B128" s="69" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="C128" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D128" s="76"/>
-      <c r="E128" s="77"/>
+      <c r="D128" s="80"/>
+      <c r="E128" s="81"/>
       <c r="F128" s="71">
         <v>44623</v>
       </c>
-      <c r="G128" s="78" t="s">
+      <c r="G128" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H128" s="83"/>
+      <c r="I128" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H128" s="79"/>
-      <c r="I128" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="68" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B129" s="69" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="C129" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D129" s="76"/>
-      <c r="E129" s="77"/>
+      <c r="D129" s="80"/>
+      <c r="E129" s="81"/>
       <c r="F129" s="71">
         <v>44623</v>
       </c>
-      <c r="G129" s="78" t="s">
+      <c r="G129" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H129" s="83"/>
+      <c r="I129" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H129" s="79"/>
-      <c r="I129" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="68" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B130" s="69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C130" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="76" t="s">
-        <v>108</v>
-      </c>
-      <c r="E130" s="77"/>
+        <v>12</v>
+      </c>
+      <c r="D130" s="80"/>
+      <c r="E130" s="81"/>
       <c r="F130" s="71">
         <v>44623</v>
       </c>
-      <c r="G130" s="78" t="s">
+      <c r="G130" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H130" s="83"/>
+      <c r="I130" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H130" s="79"/>
-      <c r="I130" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="B131" s="69" t="s">
+        <v>92</v>
+      </c>
+      <c r="C131" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="E131" s="81"/>
+      <c r="F131" s="71">
+        <v>44623</v>
+      </c>
+      <c r="G131" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H131" s="83"/>
+      <c r="I131" s="72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="B132" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" s="70"/>
+      <c r="D132" s="80"/>
+      <c r="E132" s="81"/>
+      <c r="F132" s="71"/>
+      <c r="G132" s="82"/>
+      <c r="H132" s="83"/>
+      <c r="I132" s="72"/>
+    </row>
+    <row r="133" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A133" s="68" t="s">
         <v>211</v>
       </c>
-      <c r="B131" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C131" s="70"/>
-      <c r="D131" s="76"/>
-      <c r="E131" s="77"/>
-      <c r="F131" s="71"/>
-      <c r="G131" s="78"/>
-      <c r="H131" s="79"/>
-      <c r="I131" s="72"/>
-    </row>
-    <row r="132" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="68" t="s">
-        <v>212</v>
-      </c>
-      <c r="B132" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="C132" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D132" s="76"/>
-      <c r="E132" s="77"/>
-      <c r="F132" s="71">
-        <v>44650</v>
-      </c>
-      <c r="G132" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H132" s="79"/>
-      <c r="I132" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A133" s="68" t="s">
-        <v>213</v>
-      </c>
       <c r="B133" s="69" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C133" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="76"/>
-      <c r="E133" s="77"/>
+      <c r="D133" s="80"/>
+      <c r="E133" s="81"/>
       <c r="F133" s="71">
         <v>44650</v>
       </c>
-      <c r="G133" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H133" s="79"/>
+      <c r="G133" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H133" s="83"/>
       <c r="I133" s="72" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="68" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B134" s="69" t="s">
-        <v>95</v>
+        <v>261</v>
       </c>
       <c r="C134" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="76"/>
-      <c r="E134" s="77"/>
+      <c r="D134" s="80"/>
+      <c r="E134" s="81"/>
       <c r="F134" s="71">
         <v>44650</v>
       </c>
-      <c r="G134" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H134" s="79"/>
+      <c r="G134" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H134" s="83"/>
       <c r="I134" s="72" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="B135" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="C135" s="70"/>
-      <c r="D135" s="76"/>
-      <c r="E135" s="77"/>
-      <c r="F135" s="71"/>
-      <c r="G135" s="78"/>
-      <c r="H135" s="79"/>
-      <c r="I135" s="72"/>
+        <v>213</v>
+      </c>
+      <c r="B135" s="69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C135" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="80"/>
+      <c r="E135" s="81"/>
+      <c r="F135" s="71">
+        <v>44650</v>
+      </c>
+      <c r="G135" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H135" s="83"/>
+      <c r="I135" s="72" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="B136" s="69" t="s">
-        <v>94</v>
-      </c>
-      <c r="C136" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D136" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="E136" s="77"/>
-      <c r="F136" s="71">
-        <v>44631</v>
-      </c>
-      <c r="G136" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="H136" s="79"/>
-      <c r="I136" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="B136" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C136" s="70"/>
+      <c r="D136" s="80"/>
+      <c r="E136" s="81"/>
+      <c r="F136" s="71"/>
+      <c r="G136" s="82"/>
+      <c r="H136" s="83"/>
+      <c r="I136" s="72"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="68" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B137" s="69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C137" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D137" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="E137" s="77"/>
+      <c r="D137" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="E137" s="81"/>
       <c r="F137" s="71">
         <v>44631</v>
       </c>
-      <c r="G137" s="78" t="s">
+      <c r="G137" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H137" s="83"/>
+      <c r="I137" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H137" s="79"/>
-      <c r="I137" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="68" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B138" s="69" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C138" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D138" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="E138" s="77"/>
+      <c r="D138" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="E138" s="81"/>
       <c r="F138" s="71">
         <v>44631</v>
       </c>
-      <c r="G138" s="78" t="s">
+      <c r="G138" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H138" s="83"/>
+      <c r="I138" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H138" s="79"/>
-      <c r="I138" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="B139" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="C139" s="70"/>
-      <c r="D139" s="76"/>
-      <c r="E139" s="77"/>
-      <c r="F139" s="71"/>
-      <c r="G139" s="78"/>
-      <c r="H139" s="79"/>
-      <c r="I139" s="72"/>
+        <v>217</v>
+      </c>
+      <c r="B139" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C139" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="80" t="s">
+        <v>115</v>
+      </c>
+      <c r="E139" s="81"/>
+      <c r="F139" s="71">
+        <v>44631</v>
+      </c>
+      <c r="G139" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H139" s="83"/>
+      <c r="I139" s="72" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="B140" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C140" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="76"/>
-      <c r="E140" s="77"/>
-      <c r="F140" s="71">
-        <v>44623</v>
-      </c>
-      <c r="G140" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="H140" s="79"/>
-      <c r="I140" s="72" t="s">
-        <v>105</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B140" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140" s="70"/>
+      <c r="D140" s="80"/>
+      <c r="E140" s="81"/>
+      <c r="F140" s="71"/>
+      <c r="G140" s="82"/>
+      <c r="H140" s="83"/>
+      <c r="I140" s="72"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="68" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B141" s="69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C141" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D141" s="76"/>
-      <c r="E141" s="77"/>
+      <c r="D141" s="80"/>
+      <c r="E141" s="81"/>
       <c r="F141" s="71">
         <v>44623</v>
       </c>
-      <c r="G141" s="78" t="s">
+      <c r="G141" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H141" s="83"/>
+      <c r="I141" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H141" s="79"/>
-      <c r="I141" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B142" s="69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C142" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D142" s="76"/>
-      <c r="E142" s="77"/>
+      <c r="D142" s="80"/>
+      <c r="E142" s="81"/>
       <c r="F142" s="71">
         <v>44623</v>
       </c>
-      <c r="G142" s="78" t="s">
+      <c r="G142" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H142" s="83"/>
+      <c r="I142" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="H142" s="79"/>
-      <c r="I142" s="72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A143" s="68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B143" s="69" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C143" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="76"/>
-      <c r="E143" s="77"/>
+      <c r="D143" s="80"/>
+      <c r="E143" s="81"/>
       <c r="F143" s="71">
         <v>44623</v>
       </c>
-      <c r="G143" s="78" t="s">
+      <c r="G143" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H143" s="83"/>
+      <c r="I143" s="72" t="s">
         <v>104</v>
-      </c>
-      <c r="H143" s="79"/>
-      <c r="I143" s="72" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="B144" s="69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C144" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="80"/>
+      <c r="E144" s="81"/>
+      <c r="F144" s="71">
+        <v>44623</v>
+      </c>
+      <c r="G144" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="H144" s="83"/>
+      <c r="I144" s="72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="B145" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C145" s="70"/>
+      <c r="D145" s="80"/>
+      <c r="E145" s="81"/>
+      <c r="F145" s="71"/>
+      <c r="G145" s="82"/>
+      <c r="H145" s="83"/>
+      <c r="I145" s="72"/>
+    </row>
+    <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="68" t="s">
         <v>224</v>
-      </c>
-      <c r="B144" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="C144" s="70"/>
-      <c r="D144" s="76"/>
-      <c r="E144" s="77"/>
-      <c r="F144" s="71"/>
-      <c r="G144" s="78"/>
-      <c r="H144" s="79"/>
-      <c r="I144" s="72"/>
-    </row>
-    <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="B145" s="69" t="s">
-        <v>261</v>
-      </c>
-      <c r="C145" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="76"/>
-      <c r="E145" s="77"/>
-      <c r="F145" s="71">
-        <v>44649</v>
-      </c>
-      <c r="G145" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H145" s="79"/>
-      <c r="I145" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="68" t="s">
-        <v>226</v>
       </c>
       <c r="B146" s="69" t="s">
         <v>260</v>
@@ -5169,583 +5222,481 @@
       <c r="C146" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D146" s="76"/>
-      <c r="E146" s="77"/>
+      <c r="D146" s="80"/>
+      <c r="E146" s="81"/>
       <c r="F146" s="71">
         <v>44649</v>
       </c>
-      <c r="G146" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H146" s="79"/>
+      <c r="G146" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H146" s="83"/>
       <c r="I146" s="72" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="B147" s="69"/>
-      <c r="C147" s="70"/>
-      <c r="D147" s="69"/>
-      <c r="E147" s="74"/>
-      <c r="F147" s="71"/>
-      <c r="G147" s="70"/>
-      <c r="H147" s="75"/>
-      <c r="I147" s="72"/>
+        <v>225</v>
+      </c>
+      <c r="B147" s="69" t="s">
+        <v>259</v>
+      </c>
+      <c r="C147" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="80"/>
+      <c r="E147" s="81"/>
+      <c r="F147" s="71">
+        <v>44649</v>
+      </c>
+      <c r="G147" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H147" s="83"/>
+      <c r="I147" s="72" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="68" t="s">
-        <v>258</v>
-      </c>
-      <c r="B148" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="C148" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D148" s="76"/>
-      <c r="E148" s="77"/>
-      <c r="F148" s="71">
-        <v>44649</v>
-      </c>
-      <c r="G148" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H148" s="79"/>
-      <c r="I148" s="72" t="s">
-        <v>14</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="B148" s="69"/>
+      <c r="C148" s="70"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="74"/>
+      <c r="F148" s="71"/>
+      <c r="G148" s="70"/>
+      <c r="H148" s="75"/>
+      <c r="I148" s="72"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="B149" s="73" t="s">
+        <v>257</v>
+      </c>
+      <c r="B149" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C149" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="80"/>
+      <c r="E149" s="81"/>
+      <c r="F149" s="71">
+        <v>44649</v>
+      </c>
+      <c r="G149" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H149" s="83"/>
+      <c r="I149" s="72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="68" t="s">
+        <v>227</v>
+      </c>
+      <c r="B150" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="C149" s="70"/>
-      <c r="D149" s="76"/>
-      <c r="E149" s="77"/>
-      <c r="F149" s="71"/>
-      <c r="G149" s="78"/>
-      <c r="H149" s="79"/>
-      <c r="I149" s="72"/>
-    </row>
-    <row r="150" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="B150" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="C150" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D150" s="76"/>
-      <c r="E150" s="77"/>
-      <c r="F150" s="71">
-        <v>44649</v>
-      </c>
-      <c r="G150" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H150" s="79"/>
-      <c r="I150" s="72" t="s">
-        <v>14</v>
-      </c>
+      <c r="C150" s="70"/>
+      <c r="D150" s="80"/>
+      <c r="E150" s="81"/>
+      <c r="F150" s="71"/>
+      <c r="G150" s="82"/>
+      <c r="H150" s="83"/>
+      <c r="I150" s="72"/>
     </row>
     <row r="151" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A151" s="68" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B151" s="69" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C151" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D151" s="76"/>
-      <c r="E151" s="77"/>
+      <c r="D151" s="80"/>
+      <c r="E151" s="81"/>
       <c r="F151" s="71">
         <v>44649</v>
       </c>
-      <c r="G151" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H151" s="79"/>
+      <c r="G151" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H151" s="83"/>
       <c r="I151" s="72" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A152" s="68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B152" s="69" t="s">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="C152" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D152" s="76"/>
-      <c r="E152" s="77"/>
+      <c r="D152" s="80"/>
+      <c r="E152" s="81"/>
       <c r="F152" s="71">
         <v>44649</v>
       </c>
-      <c r="G152" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H152" s="79"/>
+      <c r="G152" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H152" s="83"/>
       <c r="I152" s="72" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="68" t="s">
+        <v>230</v>
+      </c>
+      <c r="B153" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C153" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D153" s="80"/>
+      <c r="E153" s="81"/>
+      <c r="F153" s="71">
+        <v>44649</v>
+      </c>
+      <c r="G153" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H153" s="83"/>
+      <c r="I153" s="72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="68" t="s">
+        <v>231</v>
+      </c>
+      <c r="B154" s="73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C154" s="70"/>
+      <c r="D154" s="80"/>
+      <c r="E154" s="81"/>
+      <c r="F154" s="71"/>
+      <c r="G154" s="82"/>
+      <c r="H154" s="83"/>
+      <c r="I154" s="72"/>
+    </row>
+    <row r="155" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A155" s="68" t="s">
         <v>232</v>
       </c>
-      <c r="B153" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="C153" s="70"/>
-      <c r="D153" s="76"/>
-      <c r="E153" s="77"/>
-      <c r="F153" s="71"/>
-      <c r="G153" s="78"/>
-      <c r="H153" s="79"/>
-      <c r="I153" s="72"/>
-    </row>
-    <row r="154" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="68" t="s">
-        <v>233</v>
-      </c>
-      <c r="B154" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="C154" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D154" s="76"/>
-      <c r="E154" s="77"/>
-      <c r="F154" s="71">
-        <v>44636</v>
-      </c>
-      <c r="G154" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H154" s="79"/>
-      <c r="I154" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="68" t="s">
-        <v>234</v>
-      </c>
       <c r="B155" s="69" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C155" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D155" s="76"/>
-      <c r="E155" s="77"/>
+      <c r="D155" s="80"/>
+      <c r="E155" s="81"/>
       <c r="F155" s="71">
         <v>44636</v>
       </c>
-      <c r="G155" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H155" s="79"/>
+      <c r="G155" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H155" s="83"/>
       <c r="I155" s="72" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="68" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B156" s="69" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="C156" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D156" s="76"/>
-      <c r="E156" s="77"/>
+      <c r="D156" s="80"/>
+      <c r="E156" s="81"/>
       <c r="F156" s="71">
         <v>44636</v>
       </c>
-      <c r="G156" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H156" s="79"/>
+      <c r="G156" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H156" s="83"/>
       <c r="I156" s="72" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A157" s="68" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B157" s="69" t="s">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="C157" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D157" s="76"/>
-      <c r="E157" s="77"/>
+      <c r="D157" s="80"/>
+      <c r="E157" s="81"/>
       <c r="F157" s="71">
         <v>44636</v>
       </c>
-      <c r="G157" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H157" s="79"/>
+      <c r="G157" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H157" s="83"/>
       <c r="I157" s="72" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="B158" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="C158" s="70"/>
-      <c r="D158" s="76"/>
-      <c r="E158" s="77"/>
-      <c r="F158" s="71"/>
-      <c r="G158" s="78"/>
-      <c r="H158" s="79"/>
-      <c r="I158" s="72"/>
-    </row>
-    <row r="159" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>244</v>
+      </c>
+      <c r="B158" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C158" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="80"/>
+      <c r="E158" s="81"/>
+      <c r="F158" s="71">
+        <v>44636</v>
+      </c>
+      <c r="G158" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H158" s="83"/>
+      <c r="I158" s="72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="B159" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="C159" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D159" s="76"/>
-      <c r="E159" s="77"/>
-      <c r="F159" s="71">
-        <v>44635</v>
-      </c>
-      <c r="G159" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H159" s="79"/>
-      <c r="I159" s="72" t="s">
-        <v>14</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B159" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C159" s="70"/>
+      <c r="D159" s="80"/>
+      <c r="E159" s="81"/>
+      <c r="F159" s="71"/>
+      <c r="G159" s="82"/>
+      <c r="H159" s="83"/>
+      <c r="I159" s="72"/>
     </row>
     <row r="160" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A160" s="68" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B160" s="69" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C160" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D160" s="69"/>
-      <c r="E160" s="74"/>
+      <c r="D160" s="80"/>
+      <c r="E160" s="81"/>
       <c r="F160" s="71">
         <v>44635</v>
       </c>
-      <c r="G160" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H160" s="79"/>
+      <c r="G160" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H160" s="83"/>
       <c r="I160" s="72" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A161" s="68" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B161" s="69" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C161" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D161" s="76"/>
-      <c r="E161" s="77"/>
+      <c r="D161" s="69"/>
+      <c r="E161" s="74"/>
       <c r="F161" s="71">
         <v>44635</v>
       </c>
-      <c r="G161" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H161" s="79"/>
+      <c r="G161" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H161" s="83"/>
       <c r="I161" s="72" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="68" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B162" s="69" t="s">
-        <v>128</v>
+        <v>242</v>
       </c>
       <c r="C162" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D162" s="76"/>
-      <c r="E162" s="77"/>
+      <c r="D162" s="80"/>
+      <c r="E162" s="81"/>
       <c r="F162" s="71">
         <v>44635</v>
       </c>
-      <c r="G162" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H162" s="79"/>
+      <c r="G162" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H162" s="83"/>
       <c r="I162" s="72" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="68" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B163" s="69" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
       <c r="C163" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D163" s="76"/>
-      <c r="E163" s="77"/>
+      <c r="D163" s="80"/>
+      <c r="E163" s="81"/>
       <c r="F163" s="71">
         <v>44635</v>
       </c>
-      <c r="G163" s="78" t="s">
-        <v>129</v>
-      </c>
-      <c r="H163" s="79"/>
+      <c r="G163" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H163" s="83"/>
       <c r="I163" s="72" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="68" t="s">
+        <v>239</v>
+      </c>
+      <c r="B164" s="69" t="s">
+        <v>240</v>
+      </c>
+      <c r="C164" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" s="80"/>
+      <c r="E164" s="81"/>
+      <c r="F164" s="71">
+        <v>44635</v>
+      </c>
+      <c r="G164" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="H164" s="83"/>
+      <c r="I164" s="72" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="289">
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="G100:H100"/>
+  <customSheetViews>
+    <customSheetView guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" scale="85" showGridLines="0" fitToPage="1">
+      <pane ySplit="12" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+      <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <mergeCells count="286">
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G76:H76"/>
     <mergeCell ref="D79:E79"/>
     <mergeCell ref="G79:H79"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="G91:H91"/>
     <mergeCell ref="D92:E92"/>
     <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="G94:H94"/>
     <mergeCell ref="D87:E87"/>
     <mergeCell ref="G87:H87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="G65:H65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G50:H50"/>
     <mergeCell ref="G51:H51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G43:H43"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="D23:E23"/>
@@ -5760,395 +5711,516 @@
     <mergeCell ref="G31:H31"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="G52:H52"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="G53:H53"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="G145:H145"/>
     <mergeCell ref="D146:E146"/>
     <mergeCell ref="G146:H146"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="G158:H158"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="C92:C94 C96 C78:C82 C107:C112 C66:C76 C84:C88 C90 C102:C105 C114:C116 C47:C48 C50 C160 C14:C19 C24:C26 C44:C45 C21 C28 C36:C39 C54:C64">
-    <cfRule type="cellIs" dxfId="68" priority="86" operator="equal">
+  <conditionalFormatting sqref="C93:C95 C97 C79:C83 C108:C113 C67:C77 C85:C89 C91 C103:C106 C115:C117 C48:C49 C51 C161 C14:C19 C24:C26 C21 C28 C36:C43 C55:C65 C46">
+    <cfRule type="cellIs" dxfId="66" priority="86" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="cellIs" dxfId="67" priority="85" operator="equal">
+  <conditionalFormatting sqref="C92">
+    <cfRule type="cellIs" dxfId="65" priority="85" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="cellIs" dxfId="64" priority="72" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="cellIs" dxfId="63" priority="80" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="cellIs" dxfId="62" priority="79" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="cellIs" dxfId="61" priority="77" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="cellIs" dxfId="60" priority="76" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="cellIs" dxfId="59" priority="75" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="cellIs" dxfId="58" priority="74" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="cellIs" dxfId="57" priority="73" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="cellIs" dxfId="56" priority="71" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145">
+    <cfRule type="cellIs" dxfId="55" priority="70" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="cellIs" dxfId="54" priority="69" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="cellIs" dxfId="53" priority="65" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90">
+    <cfRule type="cellIs" dxfId="51" priority="62" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C102">
+    <cfRule type="cellIs" dxfId="50" priority="61" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="49" priority="60" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="cellIs" dxfId="47" priority="56" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="cellIs" dxfId="46" priority="55" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="cellIs" dxfId="44" priority="53" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142">
+    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="cellIs" dxfId="37" priority="46" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C144">
+    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146">
+    <cfRule type="cellIs" dxfId="35" priority="44" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
+    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="cellIs" dxfId="66" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="cellIs" dxfId="65" priority="80" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="cellIs" dxfId="64" priority="79" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="cellIs" dxfId="63" priority="77" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C113">
-    <cfRule type="cellIs" dxfId="62" priority="76" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
-    <cfRule type="cellIs" dxfId="61" priority="75" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="cellIs" dxfId="60" priority="74" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="59" priority="73" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
-    <cfRule type="cellIs" dxfId="58" priority="71" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="cellIs" dxfId="57" priority="70" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="cellIs" dxfId="56" priority="69" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
-    <cfRule type="cellIs" dxfId="55" priority="65" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="cellIs" dxfId="54" priority="64" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C89">
-    <cfRule type="cellIs" dxfId="53" priority="62" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97:C101">
-    <cfRule type="cellIs" dxfId="52" priority="61" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="cellIs" dxfId="51" priority="60" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="50" priority="58" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="48" priority="55" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="cellIs" dxfId="47" priority="54" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="cellIs" dxfId="45" priority="52" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="cellIs" dxfId="44" priority="51" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="cellIs" dxfId="41" priority="48" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="cellIs" dxfId="40" priority="47" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="cellIs" dxfId="39" priority="46" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="cellIs" dxfId="38" priority="45" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
-    <cfRule type="cellIs" dxfId="37" priority="44" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
-    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
-    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="34" priority="40" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="33" priority="39" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
-    <cfRule type="cellIs" dxfId="32" priority="38" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
-    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="29" priority="35" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+  <conditionalFormatting sqref="C53">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="26" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C51">
-    <cfRule type="cellIs" dxfId="25" priority="31" operator="equal">
+  <conditionalFormatting sqref="C164">
+    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+  <conditionalFormatting sqref="C160">
+    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158">
-    <cfRule type="cellIs" dxfId="22" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="cellIs" dxfId="21" priority="26" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146:C147">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+  <conditionalFormatting sqref="C147:C148">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="C44">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6172,19 +6244,19 @@
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
+  <conditionalFormatting sqref="C45">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C118:C119 C136:C138 C121:C130 C140:C143 C150:C163 C132:C134 C145:C148 C13:C116">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C119:C120 C137:C139 C122:C131 C141:C144 C151:C164 C133:C135 C146:C149 C13:C117">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6403,10 +6475,10 @@
       <c r="I13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="86" t="s">
+      <c r="J13" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="87"/>
+      <c r="K13" s="97"/>
       <c r="L13" s="27">
         <v>44317</v>
       </c>
@@ -6434,10 +6506,10 @@
       <c r="I14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="86" t="s">
+      <c r="J14" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="87"/>
+      <c r="K14" s="97"/>
       <c r="L14" s="27">
         <v>44317</v>
       </c>
@@ -6465,10 +6537,10 @@
       <c r="I15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="86" t="s">
+      <c r="J15" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="87"/>
+      <c r="K15" s="97"/>
       <c r="L15" s="27">
         <v>44317</v>
       </c>
@@ -6918,6 +6990,14 @@
       <c r="O40" s="28"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" scale="85" showGridLines="0" fitToPage="1">
+      <selection activeCell="E28" sqref="E28"/>
+      <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
+      <printOptions horizontalCentered="1"/>
+      <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="3">
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="J14:K14"/>
@@ -6930,6 +7010,6 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId2"/>
 </worksheet>
 </file>
--- a/BN/wwwroot/Database/HRGIS_TRAINING_TestCase_MTP_rev01.xlsx
+++ b/BN/wwwroot/Database/HRGIS_TRAINING_TestCase_MTP_rev01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cptfile01\Div\2200\★All Pictures CPD★\Ms.Wanpen [Try]\HRGIS\TEST\REV01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HRGIS\BN\wwwroot\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="311">
   <si>
     <t>Project Test Cases</t>
   </si>
@@ -327,21 +327,6 @@
     <t>1 Page มีได้ 25 คน, ถ้าเกิน 25 คน ให้ขึ้นหน้าใหม่ให้มี header ด้วย</t>
   </si>
   <si>
-    <t>ถ้าไม่ใช่ course เดียวกัน ให้ขึ้นหน้าละ course</t>
-  </si>
-  <si>
-    <t>ดูข้อมูลได้ตามสิทธิ์ organization (dept.)</t>
-  </si>
-  <si>
-    <t>สามารถเลือกพนักงานได้มากกว่า 1 คน</t>
-  </si>
-  <si>
-    <t>เข้ามาครั้งแรก หากเป็นพนักงานทั่วไป คนจะโชว์ข้อมูลทั้งหมดในระดับ Department  แต่หากเป็น committee จะเห็นข้อมูลในระดับที่ตัวเองดูแล หากเป็น Manager จะโชว์ข้อมูลในระดับที่ตัวเองมีสิทธิดูเท่านั้น ตามหน้า Stakeholder management</t>
-  </si>
-  <si>
-    <t>Export excel ได้</t>
-  </si>
-  <si>
     <t>Target group of course</t>
   </si>
   <si>
@@ -366,9 +351,6 @@
     <t>ไม่อยากให้ดักว่าต้องกรอกทุกช่อง เพราะMTP มีแต่ Post test ไม่มี Pre test</t>
   </si>
   <si>
-    <t>ถ้าไม่มีรายชื่อ ไม่อยากให้แสดงคอร์สใกล้เคียง เพราะกลัวเข้าใจผิดคิดว่าเป็นคอร์สเดียวกัน</t>
-  </si>
-  <si>
     <t>ไม่สามารถ register รหัสพนักงานต่างแผนกเข้าหลักสูตรตนเอกได้</t>
   </si>
   <si>
@@ -384,9 +366,6 @@
     <t>คอร์สที่หนูสร้างใหม่มันไม่ขึ้น มันขึ้นแต่ของ Acc</t>
   </si>
   <si>
-    <t>วันที่ 3 เล่นได้ วันที่ 11 เล่นไม่ได้แล้ว ไม่แสดงผลอะไรเลย</t>
-  </si>
-  <si>
     <t>กราฟยังไม่เสร็จค่ะ</t>
   </si>
   <si>
@@ -669,18 +648,6 @@
     <t>12.10</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>13.1</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
@@ -690,9 +657,6 @@
     <t>14.2</t>
   </si>
   <si>
-    <t>14.3</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -702,12 +666,6 @@
     <t>15.2</t>
   </si>
   <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>15.4</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -810,18 +768,9 @@
     <t>ใช้ Course no. 9 หลัก เป็น parameter  โดยไม่จำกัดสิทธิในการมองเห็นข้อมูล</t>
   </si>
   <si>
-    <t>16.4</t>
-  </si>
-  <si>
     <t>แสดงรายชื่อพนักงานที่เข้าเรียน master course นั้น โดยจัดกลุ่มตาม course no. 6 หลัก</t>
   </si>
   <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>ใช้ employee no. เป็น parameter  โดยไม่จำกัดสิทธิในการมองเห็นข้อมูล</t>
-  </si>
-  <si>
     <t>แสดงรายรายละเอียดของคอร์สแบบคร่าวๆ พร้อมนับจำนวนคนที่เข้าเรียน master course นั้น ได้อย่างถูกร้อง เรียงดับจากวันที่เริ่มคอร์สจากปจจุบันไปอดีต</t>
   </si>
   <si>
@@ -1012,6 +961,15 @@
   </si>
   <si>
     <t>Export ข้อมูลและประวัติการสอนของเทรนเนอร์ได้ตรงตามรูปแบบที่ต้องการ</t>
+  </si>
+  <si>
+    <t>ตัวกรองข้อมูลถูกต้อง</t>
+  </si>
+  <si>
+    <t>รีพอร์ทแสดงผลได้ถูกต้อง</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เมื่อเริ่มเลขคอร์สใหม่ รีพอร์ทจะทำการขึ้นหน้าใหม่ให้ </t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1039,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1103,6 +1061,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,7 +1158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1403,13 +1367,130 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1419,72 +1500,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1492,27 +1507,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="67">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="65">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2176,59 +2171,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{5D75E29A-F425-40D0-A2E4-F23F3C26D131}" diskRevisions="1" revisionId="2" version="3">
-  <header guid="{FFA0B0A2-1B26-4432-AB72-A3E800E83522}" dateTime="2022-04-27T13:48:02" maxSheetId="3" userName="Kanchana Saipanus" r:id="rId1">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{2759701F-13A6-4E42-86D9-6390AB4224DB}" dateTime="2022-04-27T13:48:07" maxSheetId="3" userName="Kanchana Saipanus" r:id="rId2">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{5D75E29A-F425-40D0-A2E4-F23F3C26D131}" dateTime="2022-04-27T17:09:11" maxSheetId="3" userName="Kanchana Saipanus" r:id="rId3">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-</headers>
-</file>
-
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_49FC3580_D803_4F15_9B66_67158C68A06A_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>Page1!$12:$12</formula>
-    <oldFormula>Page1!$12:$12</oldFormula>
-  </rdn>
-  <rcv guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rcv guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" action="delete"/>
-  <rdn rId="0" localSheetId="1" customView="1" name="Z_49FC3580_D803_4F15_9B66_67158C68A06A_.wvu.PrintTitles" hidden="1" oldHidden="1">
-    <formula>Page1!$12:$12</formula>
-    <oldFormula>Page1!$12:$12</oldFormula>
-  </rdn>
-  <rcv guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2495,11 +2437,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J164"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2532,10 +2473,10 @@
       <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="85"/>
+      <c r="G3" s="104"/>
       <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
@@ -2579,53 +2520,53 @@
       <c r="A7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="91"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
       <c r="E7" s="49">
         <v>44621</v>
       </c>
-      <c r="F7" s="86" t="s">
+      <c r="F7" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="B8" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="91"/>
+        <v>245</v>
+      </c>
+      <c r="B8" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="109"/>
+      <c r="D8" s="110"/>
       <c r="E8" s="22">
         <v>44639</v>
       </c>
-      <c r="F8" s="86" t="s">
-        <v>128</v>
-      </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="88"/>
+      <c r="F8" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" s="106"/>
+      <c r="H8" s="107"/>
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="91"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="107"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2669,70 +2610,70 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C13" s="41"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="95"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
       <c r="F13" s="37"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="93"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="112"/>
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C14" s="34"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
       <c r="F14" s="27"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="99"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="116"/>
       <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C15" s="56"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="99"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="116"/>
       <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C16" s="34"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="97"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="99"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="116"/>
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B17" s="64" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C17" s="66"/>
       <c r="D17" s="64"/>
@@ -2744,10 +2685,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C18" s="66"/>
       <c r="D18" s="64"/>
@@ -2759,47 +2700,47 @@
     </row>
     <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="C19" s="34"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="97"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="99"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="116"/>
       <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="C20" s="66"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="99"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="116"/>
       <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C21" s="34"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="97"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="99"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="116"/>
       <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2810,409 +2751,409 @@
         <v>41</v>
       </c>
       <c r="C22" s="41"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="93"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="112"/>
       <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C23" s="56"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="97"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="118"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="99"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="116"/>
       <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C24" s="56"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="97"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="118"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="99"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="116"/>
       <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C25" s="34"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="97"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="118"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="99"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="116"/>
       <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B26" s="50" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C26" s="34"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="97"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="118"/>
       <c r="F26" s="27"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="99"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="116"/>
       <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B27" s="64" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C27" s="66"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="118"/>
       <c r="F27" s="27"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="116"/>
       <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B28" s="55" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C28" s="34"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="97"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="118"/>
       <c r="F28" s="27"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="116"/>
       <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C29" s="54"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="97"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="118"/>
       <c r="F29" s="27"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="116"/>
       <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="C30" s="48"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="97"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="118"/>
       <c r="F30" s="27"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="116"/>
       <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C31" s="66"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="118"/>
       <c r="F31" s="27"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="99"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="116"/>
       <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C32" s="56"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="97"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="118"/>
       <c r="F32" s="27"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="99"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="116"/>
       <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="C33" s="66"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="97"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="118"/>
       <c r="F33" s="27"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="99"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="116"/>
       <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C34" s="56"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="97"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="118"/>
       <c r="F34" s="27"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="99"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="116"/>
       <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="36"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="95"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="114"/>
       <c r="F35" s="37"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="93"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="112"/>
       <c r="I35" s="38"/>
     </row>
     <row r="36" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="C36" s="32"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="97"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="118"/>
       <c r="F36" s="27"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="99"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="116"/>
       <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="C37" s="34"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="97"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="118"/>
       <c r="F37" s="27"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="99"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="116"/>
       <c r="I37" s="28"/>
     </row>
     <row r="38" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="78" t="s">
-        <v>320</v>
-      </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="78"/>
-      <c r="E38" s="79"/>
+        <v>113</v>
+      </c>
+      <c r="B38" s="76" t="s">
+        <v>303</v>
+      </c>
+      <c r="C38" s="74"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="77"/>
       <c r="F38" s="27"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="77"/>
+      <c r="G38" s="74"/>
+      <c r="H38" s="75"/>
       <c r="I38" s="28"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="78" t="s">
-        <v>321</v>
-      </c>
-      <c r="C39" s="76"/>
-      <c r="D39" s="78"/>
-      <c r="E39" s="79"/>
+        <v>114</v>
+      </c>
+      <c r="B39" s="76" t="s">
+        <v>304</v>
+      </c>
+      <c r="C39" s="74"/>
+      <c r="D39" s="76"/>
+      <c r="E39" s="77"/>
       <c r="F39" s="27"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="77"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="78" t="s">
-        <v>322</v>
-      </c>
-      <c r="C40" s="76"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="79"/>
+        <v>115</v>
+      </c>
+      <c r="B40" s="76" t="s">
+        <v>305</v>
+      </c>
+      <c r="C40" s="74"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="77"/>
       <c r="F40" s="27"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="77"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="75"/>
       <c r="I40" s="28"/>
     </row>
     <row r="41" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C41" s="34"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="97"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="118"/>
       <c r="F41" s="27"/>
-      <c r="G41" s="98"/>
-      <c r="H41" s="99"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="116"/>
       <c r="I41" s="28"/>
     </row>
     <row r="42" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="C42" s="59"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="97"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="118"/>
       <c r="F42" s="27"/>
-      <c r="G42" s="98"/>
-      <c r="H42" s="99"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="116"/>
       <c r="I42" s="28"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="B43" s="78" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="76"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="101"/>
+        <v>258</v>
+      </c>
+      <c r="B43" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" s="74"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="79"/>
       <c r="F43" s="27"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="77"/>
+      <c r="G43" s="74"/>
+      <c r="H43" s="75"/>
       <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="33" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="B44" s="58" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C44" s="59"/>
       <c r="D44" s="52"/>
       <c r="E44" s="53"/>
       <c r="F44" s="27"/>
-      <c r="G44" s="98"/>
-      <c r="H44" s="99"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="116"/>
       <c r="I44" s="28"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="B45" s="64" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="C45" s="66"/>
       <c r="D45" s="52"/>
       <c r="E45" s="53"/>
       <c r="F45" s="27"/>
-      <c r="G45" s="98"/>
-      <c r="H45" s="99"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="116"/>
       <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="33" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C46" s="59"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="97"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="118"/>
       <c r="F46" s="27"/>
-      <c r="G46" s="98"/>
-      <c r="H46" s="99"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="116"/>
       <c r="I46" s="28"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="35" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="C47" s="46"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="95"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="114"/>
       <c r="F47" s="37"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="93"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="112"/>
       <c r="I47" s="38"/>
     </row>
     <row r="48" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="C48" s="45"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="97"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="118"/>
       <c r="F48" s="27"/>
-      <c r="G48" s="98"/>
-      <c r="H48" s="99"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="116"/>
       <c r="I48" s="28"/>
     </row>
     <row r="49" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B49" s="60" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C49" s="62"/>
       <c r="D49" s="60"/>
@@ -3224,160 +3165,160 @@
     </row>
     <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A50" s="33" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C50" s="51"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="97"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="118"/>
       <c r="F50" s="27"/>
-      <c r="G50" s="98"/>
-      <c r="H50" s="99"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="116"/>
       <c r="I50" s="28"/>
     </row>
     <row r="51" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="33" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C51" s="51"/>
-      <c r="D51" s="96"/>
-      <c r="E51" s="97"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="118"/>
       <c r="F51" s="27"/>
-      <c r="G51" s="98"/>
-      <c r="H51" s="99"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="116"/>
       <c r="I51" s="28"/>
     </row>
     <row r="52" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="C52" s="51"/>
-      <c r="D52" s="96"/>
-      <c r="E52" s="97"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="118"/>
       <c r="F52" s="27"/>
-      <c r="G52" s="98"/>
-      <c r="H52" s="99"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="116"/>
       <c r="I52" s="28"/>
     </row>
     <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="33" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C53" s="51"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="97"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="118"/>
       <c r="F53" s="27"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="99"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="116"/>
       <c r="I53" s="28"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="35" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C54" s="41"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="95"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="114"/>
       <c r="F54" s="37"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="93"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="112"/>
       <c r="I54" s="38"/>
     </row>
     <row r="55" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B55" s="60" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C55" s="34"/>
-      <c r="D55" s="96"/>
-      <c r="E55" s="97"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="118"/>
       <c r="F55" s="27"/>
-      <c r="G55" s="98"/>
-      <c r="H55" s="99"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="116"/>
       <c r="I55" s="28"/>
     </row>
     <row r="56" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="33" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="C56" s="34"/>
-      <c r="D56" s="96"/>
-      <c r="E56" s="97"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="118"/>
       <c r="F56" s="27"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="99"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="116"/>
       <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B57" s="60" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C57" s="34"/>
-      <c r="D57" s="96"/>
-      <c r="E57" s="97"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="118"/>
       <c r="F57" s="27"/>
-      <c r="G57" s="98"/>
-      <c r="H57" s="99"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="116"/>
       <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C58" s="34"/>
-      <c r="D58" s="96"/>
-      <c r="E58" s="97"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="118"/>
       <c r="F58" s="27"/>
-      <c r="G58" s="98"/>
-      <c r="H58" s="99"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="116"/>
       <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="33" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C59" s="34"/>
-      <c r="D59" s="96"/>
-      <c r="E59" s="97"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="118"/>
       <c r="F59" s="27"/>
-      <c r="G59" s="98"/>
-      <c r="H59" s="99"/>
+      <c r="G59" s="115"/>
+      <c r="H59" s="116"/>
       <c r="I59" s="28"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="33" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B60" s="64" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="C60" s="66"/>
       <c r="D60" s="64"/>
@@ -3389,40 +3330,40 @@
     </row>
     <row r="61" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A61" s="33" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>317</v>
+        <v>300</v>
       </c>
       <c r="C61" s="43"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="97"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="118"/>
       <c r="F61" s="27"/>
-      <c r="G61" s="98"/>
-      <c r="H61" s="99"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="116"/>
       <c r="I61" s="28"/>
     </row>
     <row r="62" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A62" s="33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C62" s="43"/>
-      <c r="D62" s="96"/>
-      <c r="E62" s="97"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="118"/>
       <c r="F62" s="27"/>
-      <c r="G62" s="98"/>
-      <c r="H62" s="99"/>
+      <c r="G62" s="115"/>
+      <c r="H62" s="116"/>
       <c r="I62" s="28"/>
     </row>
     <row r="63" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A63" s="33" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B63" s="60" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="C63" s="62"/>
       <c r="D63" s="60"/>
@@ -3434,10 +3375,10 @@
     </row>
     <row r="64" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="33" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B64" s="60" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="C64" s="62"/>
       <c r="D64" s="60"/>
@@ -3449,37 +3390,37 @@
     </row>
     <row r="65" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="33" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="B65" s="60" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C65" s="43"/>
-      <c r="D65" s="96"/>
-      <c r="E65" s="97"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="118"/>
       <c r="F65" s="27"/>
-      <c r="G65" s="98"/>
-      <c r="H65" s="99"/>
+      <c r="G65" s="115"/>
+      <c r="H65" s="116"/>
       <c r="I65" s="28"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="35" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="C66" s="41"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="95"/>
+      <c r="D66" s="113"/>
+      <c r="E66" s="114"/>
       <c r="F66" s="37"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="93"/>
+      <c r="G66" s="111"/>
+      <c r="H66" s="112"/>
       <c r="I66" s="38"/>
     </row>
     <row r="67" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="68" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B67" s="69" t="s">
         <v>48</v>
@@ -3487,22 +3428,22 @@
       <c r="C67" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="80"/>
-      <c r="E67" s="81"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="100"/>
       <c r="F67" s="71">
         <v>44631</v>
       </c>
-      <c r="G67" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H67" s="83"/>
+      <c r="G67" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H67" s="102"/>
       <c r="I67" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="68" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B68" s="69" t="s">
         <v>49</v>
@@ -3510,22 +3451,22 @@
       <c r="C68" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="80"/>
-      <c r="E68" s="81"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="100"/>
       <c r="F68" s="71">
         <v>44622</v>
       </c>
-      <c r="G68" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H68" s="83"/>
+      <c r="G68" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H68" s="102"/>
       <c r="I68" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="68" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B69" s="69" t="s">
         <v>50</v>
@@ -3533,22 +3474,22 @@
       <c r="C69" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="80"/>
-      <c r="E69" s="81"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="100"/>
       <c r="F69" s="71">
         <v>44623</v>
       </c>
-      <c r="G69" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H69" s="83"/>
+      <c r="G69" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H69" s="102"/>
       <c r="I69" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="68" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B70" s="69" t="s">
         <v>51</v>
@@ -3556,22 +3497,22 @@
       <c r="C70" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="80"/>
-      <c r="E70" s="81"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="100"/>
       <c r="F70" s="71">
         <v>44622</v>
       </c>
-      <c r="G70" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H70" s="83"/>
+      <c r="G70" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H70" s="102"/>
       <c r="I70" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="68" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B71" s="69" t="s">
         <v>52</v>
@@ -3579,24 +3520,24 @@
       <c r="C71" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" s="81"/>
+      <c r="D71" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="E71" s="100"/>
       <c r="F71" s="71">
         <v>44622</v>
       </c>
-      <c r="G71" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H71" s="83"/>
+      <c r="G71" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H71" s="102"/>
       <c r="I71" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="68" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B72" s="69" t="s">
         <v>53</v>
@@ -3604,22 +3545,22 @@
       <c r="C72" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="80"/>
-      <c r="E72" s="81"/>
+      <c r="D72" s="99"/>
+      <c r="E72" s="100"/>
       <c r="F72" s="71">
         <v>44622</v>
       </c>
-      <c r="G72" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H72" s="83"/>
+      <c r="G72" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H72" s="102"/>
       <c r="I72" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="68" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B73" s="69" t="s">
         <v>54</v>
@@ -3627,22 +3568,22 @@
       <c r="C73" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="80"/>
-      <c r="E73" s="81"/>
+      <c r="D73" s="99"/>
+      <c r="E73" s="100"/>
       <c r="F73" s="71">
         <v>44622</v>
       </c>
-      <c r="G73" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H73" s="83"/>
+      <c r="G73" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H73" s="102"/>
       <c r="I73" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" s="68" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B74" s="69" t="s">
         <v>55</v>
@@ -3650,22 +3591,22 @@
       <c r="C74" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="80"/>
-      <c r="E74" s="81"/>
+      <c r="D74" s="99"/>
+      <c r="E74" s="100"/>
       <c r="F74" s="71">
         <v>44622</v>
       </c>
-      <c r="G74" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H74" s="83"/>
+      <c r="G74" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H74" s="102"/>
       <c r="I74" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" s="68" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B75" s="69" t="s">
         <v>56</v>
@@ -3673,22 +3614,22 @@
       <c r="C75" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="80"/>
-      <c r="E75" s="81"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="100"/>
       <c r="F75" s="71">
         <v>44622</v>
       </c>
-      <c r="G75" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H75" s="83"/>
+      <c r="G75" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H75" s="102"/>
       <c r="I75" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="68" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B76" s="69" t="s">
         <v>58</v>
@@ -3696,24 +3637,24 @@
       <c r="C76" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="E76" s="81"/>
+      <c r="D76" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="100"/>
       <c r="F76" s="71">
         <v>44622</v>
       </c>
-      <c r="G76" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H76" s="83"/>
+      <c r="G76" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H76" s="102"/>
       <c r="I76" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="68" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B77" s="69" t="s">
         <v>60</v>
@@ -3721,37 +3662,37 @@
       <c r="C77" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D77" s="80"/>
-      <c r="E77" s="81"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="100"/>
       <c r="F77" s="71">
         <v>44622</v>
       </c>
-      <c r="G77" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H77" s="83"/>
+      <c r="G77" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H77" s="102"/>
       <c r="I77" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" s="35" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B78" s="40" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="C78" s="41"/>
-      <c r="D78" s="94"/>
-      <c r="E78" s="95"/>
+      <c r="D78" s="113"/>
+      <c r="E78" s="114"/>
       <c r="F78" s="37"/>
-      <c r="G78" s="92"/>
-      <c r="H78" s="93"/>
+      <c r="G78" s="111"/>
+      <c r="H78" s="112"/>
       <c r="I78" s="38"/>
     </row>
     <row r="79" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="68" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B79" s="69" t="s">
         <v>48</v>
@@ -3759,22 +3700,22 @@
       <c r="C79" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D79" s="80"/>
-      <c r="E79" s="81"/>
+      <c r="D79" s="99"/>
+      <c r="E79" s="100"/>
       <c r="F79" s="71">
         <v>44622</v>
       </c>
-      <c r="G79" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H79" s="83"/>
+      <c r="G79" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H79" s="102"/>
       <c r="I79" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="68" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B80" s="69" t="s">
         <v>49</v>
@@ -3782,22 +3723,22 @@
       <c r="C80" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="80"/>
-      <c r="E80" s="81"/>
+      <c r="D80" s="99"/>
+      <c r="E80" s="100"/>
       <c r="F80" s="71">
         <v>44622</v>
       </c>
-      <c r="G80" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H80" s="83"/>
+      <c r="G80" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H80" s="102"/>
       <c r="I80" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="68" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B81" s="69" t="s">
         <v>50</v>
@@ -3805,22 +3746,22 @@
       <c r="C81" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="80"/>
-      <c r="E81" s="81"/>
+      <c r="D81" s="99"/>
+      <c r="E81" s="100"/>
       <c r="F81" s="71">
         <v>44631</v>
       </c>
-      <c r="G81" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H81" s="83"/>
+      <c r="G81" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H81" s="102"/>
       <c r="I81" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="68" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B82" s="69" t="s">
         <v>51</v>
@@ -3828,22 +3769,22 @@
       <c r="C82" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D82" s="80"/>
-      <c r="E82" s="81"/>
+      <c r="D82" s="99"/>
+      <c r="E82" s="100"/>
       <c r="F82" s="71">
         <v>44622</v>
       </c>
-      <c r="G82" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H82" s="83"/>
+      <c r="G82" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H82" s="102"/>
       <c r="I82" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="68" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B83" s="69" t="s">
         <v>52</v>
@@ -3851,24 +3792,24 @@
       <c r="C83" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D83" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E83" s="81"/>
+      <c r="D83" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="E83" s="100"/>
       <c r="F83" s="71">
         <v>44622</v>
       </c>
-      <c r="G83" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H83" s="83"/>
+      <c r="G83" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H83" s="102"/>
       <c r="I83" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A84" s="68" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B84" s="69" t="s">
         <v>53</v>
@@ -3876,22 +3817,22 @@
       <c r="C84" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="80"/>
-      <c r="E84" s="81"/>
+      <c r="D84" s="99"/>
+      <c r="E84" s="100"/>
       <c r="F84" s="71">
         <v>44622</v>
       </c>
-      <c r="G84" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H84" s="83"/>
+      <c r="G84" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H84" s="102"/>
       <c r="I84" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="68" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B85" s="69" t="s">
         <v>54</v>
@@ -3899,22 +3840,22 @@
       <c r="C85" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="80"/>
-      <c r="E85" s="81"/>
+      <c r="D85" s="99"/>
+      <c r="E85" s="100"/>
       <c r="F85" s="71">
         <v>44622</v>
       </c>
-      <c r="G85" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H85" s="83"/>
+      <c r="G85" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H85" s="102"/>
       <c r="I85" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="68" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B86" s="69" t="s">
         <v>55</v>
@@ -3922,22 +3863,22 @@
       <c r="C86" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="80"/>
-      <c r="E86" s="81"/>
+      <c r="D86" s="99"/>
+      <c r="E86" s="100"/>
       <c r="F86" s="71">
         <v>44622</v>
       </c>
-      <c r="G86" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H86" s="83"/>
+      <c r="G86" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H86" s="102"/>
       <c r="I86" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="68" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B87" s="69" t="s">
         <v>61</v>
@@ -3945,17 +3886,17 @@
       <c r="C87" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="80"/>
-      <c r="E87" s="81"/>
+      <c r="D87" s="99"/>
+      <c r="E87" s="100"/>
       <c r="F87" s="71">
         <v>44622</v>
       </c>
-      <c r="G87" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H87" s="83"/>
+      <c r="G87" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H87" s="102"/>
       <c r="I87" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -3968,22 +3909,22 @@
       <c r="C88" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="80"/>
-      <c r="E88" s="81"/>
+      <c r="D88" s="99"/>
+      <c r="E88" s="100"/>
       <c r="F88" s="71">
         <v>44631</v>
       </c>
-      <c r="G88" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H88" s="83"/>
+      <c r="G88" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H88" s="102"/>
       <c r="I88" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="68" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B89" s="69" t="s">
         <v>56</v>
@@ -3991,22 +3932,22 @@
       <c r="C89" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="80"/>
-      <c r="E89" s="81"/>
+      <c r="D89" s="99"/>
+      <c r="E89" s="100"/>
       <c r="F89" s="71">
         <v>44622</v>
       </c>
-      <c r="G89" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H89" s="83"/>
+      <c r="G89" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H89" s="102"/>
       <c r="I89" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="68" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B90" s="69" t="s">
         <v>58</v>
@@ -4014,24 +3955,24 @@
       <c r="C90" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D90" s="80" t="s">
-        <v>105</v>
-      </c>
-      <c r="E90" s="81"/>
+      <c r="D90" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="E90" s="100"/>
       <c r="F90" s="71">
         <v>44622</v>
       </c>
-      <c r="G90" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H90" s="83"/>
+      <c r="G90" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H90" s="102"/>
       <c r="I90" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A91" s="68" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B91" s="69" t="s">
         <v>60</v>
@@ -4039,37 +3980,37 @@
       <c r="C91" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="80"/>
-      <c r="E91" s="81"/>
+      <c r="D91" s="99"/>
+      <c r="E91" s="100"/>
       <c r="F91" s="71">
         <v>44622</v>
       </c>
-      <c r="G91" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H91" s="83"/>
+      <c r="G91" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H91" s="102"/>
       <c r="I91" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="68" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B92" s="73" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C92" s="70"/>
-      <c r="D92" s="80"/>
-      <c r="E92" s="81"/>
+      <c r="D92" s="99"/>
+      <c r="E92" s="100"/>
       <c r="F92" s="71"/>
-      <c r="G92" s="82"/>
-      <c r="H92" s="83"/>
+      <c r="G92" s="101"/>
+      <c r="H92" s="102"/>
       <c r="I92" s="72"/>
     </row>
     <row r="93" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="68" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B93" s="69" t="s">
         <v>48</v>
@@ -4077,24 +4018,24 @@
       <c r="C93" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="80" t="s">
-        <v>114</v>
-      </c>
-      <c r="E93" s="81"/>
+      <c r="D93" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" s="100"/>
       <c r="F93" s="71">
         <v>44631</v>
       </c>
-      <c r="G93" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H93" s="83"/>
+      <c r="G93" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H93" s="102"/>
       <c r="I93" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A94" s="68" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B94" s="69" t="s">
         <v>49</v>
@@ -4102,24 +4043,24 @@
       <c r="C94" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="80" t="s">
-        <v>110</v>
-      </c>
-      <c r="E94" s="81"/>
+      <c r="D94" s="99" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" s="100"/>
       <c r="F94" s="71">
         <v>44622</v>
       </c>
-      <c r="G94" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H94" s="83"/>
+      <c r="G94" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H94" s="102"/>
       <c r="I94" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A95" s="68" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B95" s="69" t="s">
         <v>50</v>
@@ -4127,22 +4068,22 @@
       <c r="C95" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="80"/>
-      <c r="E95" s="81"/>
+      <c r="D95" s="99"/>
+      <c r="E95" s="100"/>
       <c r="F95" s="71">
         <v>44622</v>
       </c>
-      <c r="G95" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H95" s="83"/>
+      <c r="G95" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H95" s="102"/>
       <c r="I95" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="68" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B96" s="69" t="s">
         <v>51</v>
@@ -4150,22 +4091,22 @@
       <c r="C96" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="80"/>
-      <c r="E96" s="81"/>
+      <c r="D96" s="99"/>
+      <c r="E96" s="100"/>
       <c r="F96" s="71">
         <v>44622</v>
       </c>
-      <c r="G96" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H96" s="83"/>
+      <c r="G96" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H96" s="102"/>
       <c r="I96" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="68" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B97" s="69" t="s">
         <v>52</v>
@@ -4173,24 +4114,24 @@
       <c r="C97" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D97" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="E97" s="81"/>
+      <c r="D97" s="99" t="s">
+        <v>101</v>
+      </c>
+      <c r="E97" s="100"/>
       <c r="F97" s="71">
         <v>44622</v>
       </c>
-      <c r="G97" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H97" s="83"/>
+      <c r="G97" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H97" s="102"/>
       <c r="I97" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A98" s="68" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B98" s="69" t="s">
         <v>53</v>
@@ -4198,22 +4139,22 @@
       <c r="C98" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="80"/>
-      <c r="E98" s="81"/>
+      <c r="D98" s="99"/>
+      <c r="E98" s="100"/>
       <c r="F98" s="71">
         <v>44622</v>
       </c>
-      <c r="G98" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H98" s="83"/>
+      <c r="G98" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H98" s="102"/>
       <c r="I98" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="68" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B99" s="69" t="s">
         <v>54</v>
@@ -4221,22 +4162,22 @@
       <c r="C99" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="80"/>
-      <c r="E99" s="81"/>
+      <c r="D99" s="99"/>
+      <c r="E99" s="100"/>
       <c r="F99" s="71">
         <v>44622</v>
       </c>
-      <c r="G99" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H99" s="83"/>
+      <c r="G99" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H99" s="102"/>
       <c r="I99" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="68" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B100" s="69" t="s">
         <v>46</v>
@@ -4244,22 +4185,22 @@
       <c r="C100" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D100" s="80"/>
-      <c r="E100" s="81"/>
+      <c r="D100" s="99"/>
+      <c r="E100" s="100"/>
       <c r="F100" s="71">
         <v>44622</v>
       </c>
-      <c r="G100" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H100" s="83"/>
+      <c r="G100" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H100" s="102"/>
       <c r="I100" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="68" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B101" s="69" t="s">
         <v>56</v>
@@ -4267,17 +4208,17 @@
       <c r="C101" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="80"/>
-      <c r="E101" s="81"/>
+      <c r="D101" s="99"/>
+      <c r="E101" s="100"/>
       <c r="F101" s="71">
         <v>44622</v>
       </c>
-      <c r="G101" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H101" s="83"/>
+      <c r="G101" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H101" s="102"/>
       <c r="I101" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="57" x14ac:dyDescent="0.2">
@@ -4290,17 +4231,17 @@
       <c r="C102" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="80"/>
-      <c r="E102" s="81"/>
+      <c r="D102" s="99"/>
+      <c r="E102" s="100"/>
       <c r="F102" s="71">
         <v>44622</v>
       </c>
-      <c r="G102" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H102" s="83"/>
+      <c r="G102" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H102" s="102"/>
       <c r="I102" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -4313,22 +4254,22 @@
       <c r="C103" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="80"/>
-      <c r="E103" s="81"/>
+      <c r="D103" s="99"/>
+      <c r="E103" s="100"/>
       <c r="F103" s="71">
         <v>44622</v>
       </c>
-      <c r="G103" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H103" s="83"/>
+      <c r="G103" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H103" s="102"/>
       <c r="I103" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="68" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B104" s="69" t="s">
         <v>68</v>
@@ -4336,22 +4277,22 @@
       <c r="C104" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="80"/>
-      <c r="E104" s="81"/>
+      <c r="D104" s="99"/>
+      <c r="E104" s="100"/>
       <c r="F104" s="71">
         <v>44622</v>
       </c>
-      <c r="G104" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H104" s="83"/>
+      <c r="G104" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H104" s="102"/>
       <c r="I104" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="68" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B105" s="69" t="s">
         <v>69</v>
@@ -4359,24 +4300,24 @@
       <c r="C105" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D105" s="80" t="s">
-        <v>116</v>
-      </c>
-      <c r="E105" s="81"/>
+      <c r="D105" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="E105" s="100"/>
       <c r="F105" s="71">
         <v>44631</v>
       </c>
-      <c r="G105" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H105" s="83"/>
+      <c r="G105" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H105" s="102"/>
       <c r="I105" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A106" s="68" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B106" s="69" t="s">
         <v>70</v>
@@ -4384,37 +4325,37 @@
       <c r="C106" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D106" s="80"/>
-      <c r="E106" s="81"/>
+      <c r="D106" s="99"/>
+      <c r="E106" s="100"/>
       <c r="F106" s="71">
         <v>44622</v>
       </c>
-      <c r="G106" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H106" s="83"/>
+      <c r="G106" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H106" s="102"/>
       <c r="I106" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="68" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B107" s="73" t="s">
         <v>40</v>
       </c>
       <c r="C107" s="70"/>
-      <c r="D107" s="80"/>
-      <c r="E107" s="81"/>
+      <c r="D107" s="99"/>
+      <c r="E107" s="100"/>
       <c r="F107" s="71"/>
-      <c r="G107" s="82"/>
-      <c r="H107" s="83"/>
+      <c r="G107" s="101"/>
+      <c r="H107" s="102"/>
       <c r="I107" s="72"/>
     </row>
     <row r="108" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A108" s="68" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B108" s="69" t="s">
         <v>71</v>
@@ -4422,16 +4363,16 @@
       <c r="C108" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="80"/>
-      <c r="E108" s="81"/>
+      <c r="D108" s="99"/>
+      <c r="E108" s="100"/>
       <c r="F108" s="71"/>
-      <c r="G108" s="82"/>
-      <c r="H108" s="83"/>
+      <c r="G108" s="101"/>
+      <c r="H108" s="102"/>
       <c r="I108" s="72"/>
     </row>
     <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="68" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B109" s="69" t="s">
         <v>72</v>
@@ -4439,16 +4380,16 @@
       <c r="C109" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D109" s="80"/>
-      <c r="E109" s="81"/>
+      <c r="D109" s="99"/>
+      <c r="E109" s="100"/>
       <c r="F109" s="71"/>
-      <c r="G109" s="82"/>
-      <c r="H109" s="83"/>
+      <c r="G109" s="101"/>
+      <c r="H109" s="102"/>
       <c r="I109" s="72"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="68" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B110" s="69" t="s">
         <v>73</v>
@@ -4456,16 +4397,16 @@
       <c r="C110" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D110" s="80"/>
-      <c r="E110" s="81"/>
+      <c r="D110" s="99"/>
+      <c r="E110" s="100"/>
       <c r="F110" s="71"/>
-      <c r="G110" s="82"/>
-      <c r="H110" s="83"/>
+      <c r="G110" s="101"/>
+      <c r="H110" s="102"/>
       <c r="I110" s="72"/>
     </row>
     <row r="111" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A111" s="68" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B111" s="69" t="s">
         <v>74</v>
@@ -4473,16 +4414,16 @@
       <c r="C111" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D111" s="80"/>
-      <c r="E111" s="81"/>
+      <c r="D111" s="99"/>
+      <c r="E111" s="100"/>
       <c r="F111" s="71"/>
-      <c r="G111" s="82"/>
-      <c r="H111" s="83"/>
+      <c r="G111" s="101"/>
+      <c r="H111" s="102"/>
       <c r="I111" s="72"/>
     </row>
     <row r="112" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A112" s="68" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B112" s="69" t="s">
         <v>75</v>
@@ -4490,16 +4431,16 @@
       <c r="C112" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="80"/>
-      <c r="E112" s="81"/>
+      <c r="D112" s="99"/>
+      <c r="E112" s="100"/>
       <c r="F112" s="71"/>
-      <c r="G112" s="82"/>
-      <c r="H112" s="83"/>
+      <c r="G112" s="101"/>
+      <c r="H112" s="102"/>
       <c r="I112" s="72"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="68" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B113" s="69" t="s">
         <v>76</v>
@@ -4507,26 +4448,26 @@
       <c r="C113" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D113" s="80"/>
-      <c r="E113" s="81"/>
+      <c r="D113" s="99"/>
+      <c r="E113" s="100"/>
       <c r="F113" s="71"/>
-      <c r="G113" s="82"/>
-      <c r="H113" s="83"/>
+      <c r="G113" s="101"/>
+      <c r="H113" s="102"/>
       <c r="I113" s="72"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="68" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B114" s="73" t="s">
         <v>77</v>
       </c>
       <c r="C114" s="70"/>
-      <c r="D114" s="80"/>
-      <c r="E114" s="81"/>
+      <c r="D114" s="99"/>
+      <c r="E114" s="100"/>
       <c r="F114" s="71"/>
-      <c r="G114" s="82"/>
-      <c r="H114" s="83"/>
+      <c r="G114" s="101"/>
+      <c r="H114" s="102"/>
       <c r="I114" s="72"/>
     </row>
     <row r="115" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -4539,19 +4480,19 @@
       <c r="C115" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D115" s="80" t="s">
-        <v>111</v>
-      </c>
-      <c r="E115" s="81"/>
+      <c r="D115" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="E115" s="100"/>
       <c r="F115" s="71">
         <v>44631</v>
       </c>
-      <c r="G115" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H115" s="83"/>
+      <c r="G115" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H115" s="102"/>
       <c r="I115" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -4564,19 +4505,19 @@
       <c r="C116" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D116" s="80" t="s">
-        <v>112</v>
-      </c>
-      <c r="E116" s="81"/>
+      <c r="D116" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="E116" s="100"/>
       <c r="F116" s="71">
         <v>44631</v>
       </c>
-      <c r="G116" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H116" s="83"/>
+      <c r="G116" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H116" s="102"/>
       <c r="I116" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -4589,1047 +4530,770 @@
       <c r="C117" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D117" s="80" t="s">
-        <v>113</v>
-      </c>
-      <c r="E117" s="81"/>
+      <c r="D117" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="E117" s="100"/>
       <c r="F117" s="71">
         <v>44631</v>
       </c>
-      <c r="G117" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H117" s="83"/>
+      <c r="G117" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H117" s="102"/>
       <c r="I117" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="68" t="s">
-        <v>201</v>
-      </c>
-      <c r="B118" s="73" t="s">
+      <c r="A118" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="B118" s="86" t="s">
+        <v>97</v>
+      </c>
+      <c r="C118" s="87"/>
+      <c r="D118" s="95"/>
+      <c r="E118" s="96"/>
+      <c r="F118" s="88"/>
+      <c r="G118" s="97"/>
+      <c r="H118" s="98"/>
+      <c r="I118" s="89"/>
+    </row>
+    <row r="119" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="80" t="s">
+        <v>221</v>
+      </c>
+      <c r="B119" s="81" t="s">
+        <v>242</v>
+      </c>
+      <c r="C119" s="82"/>
+      <c r="D119" s="91"/>
+      <c r="E119" s="92"/>
+      <c r="F119" s="83"/>
+      <c r="G119" s="93"/>
+      <c r="H119" s="94"/>
+      <c r="I119" s="84"/>
+    </row>
+    <row r="120" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="80" t="s">
+        <v>222</v>
+      </c>
+      <c r="B120" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="C120" s="82"/>
+      <c r="D120" s="81"/>
+      <c r="E120" s="90"/>
+      <c r="F120" s="83"/>
+      <c r="G120" s="93"/>
+      <c r="H120" s="94"/>
+      <c r="I120" s="84"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="80" t="s">
+        <v>223</v>
+      </c>
+      <c r="B121" s="81" t="s">
+        <v>228</v>
+      </c>
+      <c r="C121" s="82"/>
+      <c r="D121" s="91"/>
+      <c r="E121" s="92"/>
+      <c r="F121" s="83"/>
+      <c r="G121" s="93"/>
+      <c r="H121" s="94"/>
+      <c r="I121" s="84"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="80" t="s">
+        <v>224</v>
+      </c>
+      <c r="B122" s="81" t="s">
+        <v>120</v>
+      </c>
+      <c r="C122" s="82"/>
+      <c r="D122" s="91"/>
+      <c r="E122" s="92"/>
+      <c r="F122" s="83"/>
+      <c r="G122" s="93"/>
+      <c r="H122" s="94"/>
+      <c r="I122" s="84"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="80" t="s">
+        <v>225</v>
+      </c>
+      <c r="B123" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="C123" s="82"/>
+      <c r="D123" s="91"/>
+      <c r="E123" s="92"/>
+      <c r="F123" s="83"/>
+      <c r="G123" s="93"/>
+      <c r="H123" s="94"/>
+      <c r="I123" s="84"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="85" t="s">
+        <v>194</v>
+      </c>
+      <c r="B124" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C118" s="70"/>
-      <c r="D118" s="80"/>
-      <c r="E118" s="81"/>
-      <c r="F118" s="71"/>
-      <c r="G118" s="82"/>
-      <c r="H118" s="83"/>
-      <c r="I118" s="72"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="68" t="s">
-        <v>199</v>
-      </c>
-      <c r="B119" s="69" t="s">
+      <c r="C124" s="87"/>
+      <c r="D124" s="95"/>
+      <c r="E124" s="96"/>
+      <c r="F124" s="88"/>
+      <c r="G124" s="97"/>
+      <c r="H124" s="98"/>
+      <c r="I124" s="89"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="80" t="s">
+        <v>192</v>
+      </c>
+      <c r="B125" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C119" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D119" s="80" t="s">
-        <v>109</v>
-      </c>
-      <c r="E119" s="81"/>
-      <c r="F119" s="71">
-        <v>44622</v>
-      </c>
-      <c r="G119" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H119" s="83"/>
-      <c r="I119" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="68" t="s">
-        <v>200</v>
-      </c>
-      <c r="B120" s="69" t="s">
+      <c r="C125" s="82"/>
+      <c r="D125" s="91"/>
+      <c r="E125" s="92"/>
+      <c r="F125" s="83"/>
+      <c r="G125" s="93"/>
+      <c r="H125" s="94"/>
+      <c r="I125" s="84"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="80" t="s">
+        <v>193</v>
+      </c>
+      <c r="B126" s="81" t="s">
         <v>85</v>
       </c>
-      <c r="C120" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D120" s="80"/>
-      <c r="E120" s="81"/>
-      <c r="F120" s="71">
-        <v>44622</v>
-      </c>
-      <c r="G120" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H120" s="83"/>
-      <c r="I120" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="68" t="s">
-        <v>202</v>
-      </c>
-      <c r="B121" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C121" s="70"/>
-      <c r="D121" s="80"/>
-      <c r="E121" s="81"/>
-      <c r="F121" s="71"/>
-      <c r="G121" s="82"/>
-      <c r="H121" s="83"/>
-      <c r="I121" s="72"/>
-    </row>
-    <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B122" s="69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C122" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="80"/>
-      <c r="E122" s="81"/>
-      <c r="F122" s="71">
-        <v>44623</v>
-      </c>
-      <c r="G122" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H122" s="83"/>
-      <c r="I122" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="68" t="s">
-        <v>80</v>
-      </c>
-      <c r="B123" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="C123" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="80"/>
-      <c r="E123" s="81"/>
-      <c r="F123" s="71">
-        <v>44623</v>
-      </c>
-      <c r="G123" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H123" s="83"/>
-      <c r="I123" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="68" t="s">
-        <v>82</v>
-      </c>
-      <c r="B124" s="69" t="s">
-        <v>88</v>
-      </c>
-      <c r="C124" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="80" t="s">
-        <v>108</v>
-      </c>
-      <c r="E124" s="81"/>
-      <c r="F124" s="71">
-        <v>44623</v>
-      </c>
-      <c r="G124" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H124" s="83"/>
-      <c r="I124" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="68" t="s">
-        <v>203</v>
-      </c>
-      <c r="B125" s="69" t="s">
-        <v>89</v>
-      </c>
-      <c r="C125" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="80"/>
-      <c r="E125" s="81"/>
-      <c r="F125" s="71">
-        <v>44623</v>
-      </c>
-      <c r="G125" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H125" s="83"/>
-      <c r="I125" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="68" t="s">
-        <v>204</v>
-      </c>
-      <c r="B126" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="C126" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="80"/>
-      <c r="E126" s="81"/>
-      <c r="F126" s="71">
-        <v>44623</v>
-      </c>
-      <c r="G126" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H126" s="83"/>
-      <c r="I126" s="72" t="s">
-        <v>104</v>
-      </c>
+      <c r="C126" s="82"/>
+      <c r="D126" s="91"/>
+      <c r="E126" s="92"/>
+      <c r="F126" s="83"/>
+      <c r="G126" s="93"/>
+      <c r="H126" s="94"/>
+      <c r="I126" s="84"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="68" t="s">
-        <v>205</v>
-      </c>
-      <c r="B127" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="C127" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="80"/>
-      <c r="E127" s="81"/>
-      <c r="F127" s="71">
-        <v>44623</v>
-      </c>
-      <c r="G127" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H127" s="83"/>
-      <c r="I127" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="B127" s="73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C127" s="70"/>
+      <c r="D127" s="99"/>
+      <c r="E127" s="100"/>
+      <c r="F127" s="71"/>
+      <c r="G127" s="101"/>
+      <c r="H127" s="102"/>
+      <c r="I127" s="72"/>
+    </row>
+    <row r="128" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A128" s="68" t="s">
-        <v>206</v>
+        <v>78</v>
       </c>
       <c r="B128" s="69" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C128" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D128" s="80"/>
-      <c r="E128" s="81"/>
+      <c r="D128" s="99"/>
+      <c r="E128" s="100"/>
       <c r="F128" s="71">
         <v>44623</v>
       </c>
-      <c r="G128" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H128" s="83"/>
+      <c r="G128" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H128" s="102"/>
       <c r="I128" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A129" s="68" t="s">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="B129" s="69" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C129" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D129" s="80"/>
-      <c r="E129" s="81"/>
+      <c r="D129" s="99"/>
+      <c r="E129" s="100"/>
       <c r="F129" s="71">
         <v>44623</v>
       </c>
-      <c r="G129" s="82" t="s">
+      <c r="G129" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H129" s="102"/>
+      <c r="I129" s="72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B130" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="H129" s="83"/>
-      <c r="I129" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="68" t="s">
-        <v>208</v>
-      </c>
-      <c r="B130" s="69" t="s">
-        <v>91</v>
-      </c>
-      <c r="C130" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D130" s="80"/>
-      <c r="E130" s="81"/>
+      <c r="E130" s="100"/>
       <c r="F130" s="71">
         <v>44623</v>
       </c>
-      <c r="G130" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H130" s="83"/>
+      <c r="G130" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H130" s="102"/>
       <c r="I130" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="68" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B131" s="69" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C131" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D131" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="E131" s="81"/>
+        <v>12</v>
+      </c>
+      <c r="D131" s="99"/>
+      <c r="E131" s="100"/>
       <c r="F131" s="71">
         <v>44623</v>
       </c>
-      <c r="G131" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H131" s="83"/>
+      <c r="G131" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H131" s="102"/>
       <c r="I131" s="72" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="68" t="s">
-        <v>210</v>
-      </c>
-      <c r="B132" s="73" t="s">
-        <v>43</v>
-      </c>
-      <c r="C132" s="70"/>
-      <c r="D132" s="80"/>
-      <c r="E132" s="81"/>
-      <c r="F132" s="71"/>
-      <c r="G132" s="82"/>
-      <c r="H132" s="83"/>
-      <c r="I132" s="72"/>
-    </row>
-    <row r="133" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="B132" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="99"/>
+      <c r="E132" s="100"/>
+      <c r="F132" s="71">
+        <v>44623</v>
+      </c>
+      <c r="G132" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H132" s="102"/>
+      <c r="I132" s="72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="68" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B133" s="69" t="s">
-        <v>255</v>
+        <v>46</v>
       </c>
       <c r="C133" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="80"/>
-      <c r="E133" s="81"/>
+      <c r="D133" s="99"/>
+      <c r="E133" s="100"/>
       <c r="F133" s="71">
-        <v>44650</v>
-      </c>
-      <c r="G133" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H133" s="83"/>
+        <v>44623</v>
+      </c>
+      <c r="G133" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H133" s="102"/>
       <c r="I133" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="68" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B134" s="69" t="s">
-        <v>261</v>
+        <v>90</v>
       </c>
       <c r="C134" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="80"/>
-      <c r="E134" s="81"/>
+      <c r="D134" s="99"/>
+      <c r="E134" s="100"/>
       <c r="F134" s="71">
-        <v>44650</v>
-      </c>
-      <c r="G134" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H134" s="83"/>
+        <v>44623</v>
+      </c>
+      <c r="G134" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H134" s="102"/>
       <c r="I134" s="72" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="68" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="B135" s="69" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="C135" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="D135" s="80"/>
-      <c r="E135" s="81"/>
+      <c r="D135" s="99"/>
+      <c r="E135" s="100"/>
       <c r="F135" s="71">
-        <v>44650</v>
-      </c>
-      <c r="G135" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H135" s="83"/>
+        <v>44623</v>
+      </c>
+      <c r="G135" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H135" s="102"/>
       <c r="I135" s="72" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="68" t="s">
-        <v>214</v>
-      </c>
-      <c r="B136" s="73" t="s">
-        <v>35</v>
-      </c>
-      <c r="C136" s="70"/>
-      <c r="D136" s="80"/>
-      <c r="E136" s="81"/>
-      <c r="F136" s="71"/>
-      <c r="G136" s="82"/>
-      <c r="H136" s="83"/>
-      <c r="I136" s="72"/>
+        <v>201</v>
+      </c>
+      <c r="B136" s="69" t="s">
+        <v>91</v>
+      </c>
+      <c r="C136" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="99"/>
+      <c r="E136" s="100"/>
+      <c r="F136" s="71">
+        <v>44623</v>
+      </c>
+      <c r="G136" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H136" s="102"/>
+      <c r="I136" s="72" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="68" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="B137" s="69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C137" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="D137" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="E137" s="81"/>
+      <c r="D137" s="99" t="s">
+        <v>102</v>
+      </c>
+      <c r="E137" s="100"/>
       <c r="F137" s="71">
-        <v>44631</v>
-      </c>
-      <c r="G137" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H137" s="83"/>
+        <v>44623</v>
+      </c>
+      <c r="G137" s="101" t="s">
+        <v>98</v>
+      </c>
+      <c r="H137" s="102"/>
       <c r="I137" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B138" s="86" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138" s="87"/>
+      <c r="D138" s="95"/>
+      <c r="E138" s="96"/>
+      <c r="F138" s="88"/>
+      <c r="G138" s="97"/>
+      <c r="H138" s="98"/>
+      <c r="I138" s="89"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="80" t="s">
+        <v>204</v>
+      </c>
+      <c r="B139" s="81" t="s">
+        <v>308</v>
+      </c>
+      <c r="C139" s="82"/>
+      <c r="D139" s="91"/>
+      <c r="E139" s="92"/>
+      <c r="F139" s="83"/>
+      <c r="G139" s="93"/>
+      <c r="H139" s="94"/>
+      <c r="I139" s="84"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="B140" s="81" t="s">
+        <v>309</v>
+      </c>
+      <c r="C140" s="82"/>
+      <c r="D140" s="91"/>
+      <c r="E140" s="92"/>
+      <c r="F140" s="83"/>
+      <c r="G140" s="93"/>
+      <c r="H140" s="94"/>
+      <c r="I140" s="84"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="B141" s="86" t="s">
+        <v>38</v>
+      </c>
+      <c r="C141" s="87"/>
+      <c r="D141" s="95"/>
+      <c r="E141" s="96"/>
+      <c r="F141" s="88"/>
+      <c r="G141" s="97"/>
+      <c r="H141" s="98"/>
+      <c r="I141" s="89"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="B142" s="81" t="s">
+        <v>308</v>
+      </c>
+      <c r="C142" s="82"/>
+      <c r="D142" s="91"/>
+      <c r="E142" s="92"/>
+      <c r="F142" s="83"/>
+      <c r="G142" s="93"/>
+      <c r="H142" s="94"/>
+      <c r="I142" s="84"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="B143" s="81" t="s">
+        <v>309</v>
+      </c>
+      <c r="C143" s="82"/>
+      <c r="D143" s="91"/>
+      <c r="E143" s="92"/>
+      <c r="F143" s="83"/>
+      <c r="G143" s="93"/>
+      <c r="H143" s="94"/>
+      <c r="I143" s="84"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="B144" s="86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C144" s="87"/>
+      <c r="D144" s="95"/>
+      <c r="E144" s="96"/>
+      <c r="F144" s="88"/>
+      <c r="G144" s="97"/>
+      <c r="H144" s="98"/>
+      <c r="I144" s="89"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="B145" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="C145" s="82"/>
+      <c r="D145" s="91"/>
+      <c r="E145" s="92"/>
+      <c r="F145" s="83"/>
+      <c r="G145" s="93"/>
+      <c r="H145" s="94"/>
+      <c r="I145" s="84"/>
+    </row>
+    <row r="146" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="B146" s="81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C146" s="82"/>
+      <c r="D146" s="91"/>
+      <c r="E146" s="92"/>
+      <c r="F146" s="83"/>
+      <c r="G146" s="93"/>
+      <c r="H146" s="94"/>
+      <c r="I146" s="84"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="80" t="s">
+        <v>212</v>
+      </c>
+      <c r="B147" s="81" t="s">
+        <v>310</v>
+      </c>
+      <c r="C147" s="82"/>
+      <c r="D147" s="91"/>
+      <c r="E147" s="92"/>
+      <c r="F147" s="83"/>
+      <c r="G147" s="93"/>
+      <c r="H147" s="94"/>
+      <c r="I147" s="84"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="B148" s="86" t="s">
+        <v>36</v>
+      </c>
+      <c r="C148" s="87"/>
+      <c r="D148" s="95"/>
+      <c r="E148" s="96"/>
+      <c r="F148" s="88"/>
+      <c r="G148" s="97"/>
+      <c r="H148" s="98"/>
+      <c r="I148" s="89"/>
+    </row>
+    <row r="149" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A149" s="80" t="s">
+        <v>214</v>
+      </c>
+      <c r="B149" s="81" t="s">
+        <v>242</v>
+      </c>
+      <c r="C149" s="82"/>
+      <c r="D149" s="91"/>
+      <c r="E149" s="92"/>
+      <c r="F149" s="83"/>
+      <c r="G149" s="93"/>
+      <c r="H149" s="94"/>
+      <c r="I149" s="84"/>
+    </row>
+    <row r="150" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="80" t="s">
+        <v>215</v>
+      </c>
+      <c r="B150" s="81" t="s">
+        <v>243</v>
+      </c>
+      <c r="C150" s="82"/>
+      <c r="D150" s="91"/>
+      <c r="E150" s="92"/>
+      <c r="F150" s="83"/>
+      <c r="G150" s="93"/>
+      <c r="H150" s="94"/>
+      <c r="I150" s="84"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="80" t="s">
         <v>216</v>
       </c>
-      <c r="B138" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="C138" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="E138" s="81"/>
-      <c r="F138" s="71">
-        <v>44631</v>
-      </c>
-      <c r="G138" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H138" s="83"/>
-      <c r="I138" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="68" t="s">
+      <c r="B151" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C151" s="82"/>
+      <c r="D151" s="91"/>
+      <c r="E151" s="92"/>
+      <c r="F151" s="83"/>
+      <c r="G151" s="93"/>
+      <c r="H151" s="94"/>
+      <c r="I151" s="84"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="85" t="s">
         <v>217</v>
       </c>
-      <c r="B139" s="69" t="s">
+      <c r="B152" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="C139" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="E139" s="81"/>
-      <c r="F139" s="71">
-        <v>44631</v>
-      </c>
-      <c r="G139" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H139" s="83"/>
-      <c r="I139" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="68" t="s">
+      <c r="C152" s="87"/>
+      <c r="D152" s="95"/>
+      <c r="E152" s="96"/>
+      <c r="F152" s="88"/>
+      <c r="G152" s="97"/>
+      <c r="H152" s="98"/>
+      <c r="I152" s="89"/>
+    </row>
+    <row r="153" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A153" s="80" t="s">
         <v>218</v>
       </c>
-      <c r="B140" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="C140" s="70"/>
-      <c r="D140" s="80"/>
-      <c r="E140" s="81"/>
-      <c r="F140" s="71"/>
-      <c r="G140" s="82"/>
-      <c r="H140" s="83"/>
-      <c r="I140" s="72"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="68" t="s">
+      <c r="B153" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="C153" s="82"/>
+      <c r="D153" s="91"/>
+      <c r="E153" s="92"/>
+      <c r="F153" s="83"/>
+      <c r="G153" s="93"/>
+      <c r="H153" s="94"/>
+      <c r="I153" s="84"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="80" t="s">
         <v>219</v>
       </c>
-      <c r="B141" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="C141" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="80"/>
-      <c r="E141" s="81"/>
-      <c r="F141" s="71">
-        <v>44623</v>
-      </c>
-      <c r="G141" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H141" s="83"/>
-      <c r="I141" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="68" t="s">
+      <c r="B154" s="81" t="s">
+        <v>231</v>
+      </c>
+      <c r="C154" s="82"/>
+      <c r="D154" s="91"/>
+      <c r="E154" s="92"/>
+      <c r="F154" s="83"/>
+      <c r="G154" s="93"/>
+      <c r="H154" s="94"/>
+      <c r="I154" s="84"/>
+    </row>
+    <row r="155" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A155" s="80" t="s">
+        <v>229</v>
+      </c>
+      <c r="B155" s="81" t="s">
+        <v>240</v>
+      </c>
+      <c r="C155" s="82"/>
+      <c r="D155" s="91"/>
+      <c r="E155" s="92"/>
+      <c r="F155" s="83"/>
+      <c r="G155" s="93"/>
+      <c r="H155" s="94"/>
+      <c r="I155" s="84"/>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B156" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="C156" s="82"/>
+      <c r="D156" s="91"/>
+      <c r="E156" s="92"/>
+      <c r="F156" s="83"/>
+      <c r="G156" s="93"/>
+      <c r="H156" s="94"/>
+      <c r="I156" s="84"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="B142" s="69" t="s">
-        <v>98</v>
-      </c>
-      <c r="C142" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="80"/>
-      <c r="E142" s="81"/>
-      <c r="F142" s="71">
-        <v>44623</v>
-      </c>
-      <c r="G142" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H142" s="83"/>
-      <c r="I142" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="A143" s="68" t="s">
+      <c r="B157" s="86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C157" s="87"/>
+      <c r="D157" s="95"/>
+      <c r="E157" s="96"/>
+      <c r="F157" s="88"/>
+      <c r="G157" s="97"/>
+      <c r="H157" s="98"/>
+      <c r="I157" s="89"/>
+    </row>
+    <row r="158" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A158" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="B143" s="69" t="s">
-        <v>99</v>
-      </c>
-      <c r="C143" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D143" s="80"/>
-      <c r="E143" s="81"/>
-      <c r="F143" s="71">
-        <v>44623</v>
-      </c>
-      <c r="G143" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H143" s="83"/>
-      <c r="I143" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="68" t="s">
+      <c r="B158" s="81" t="s">
+        <v>241</v>
+      </c>
+      <c r="C158" s="82"/>
+      <c r="D158" s="91"/>
+      <c r="E158" s="92"/>
+      <c r="F158" s="83"/>
+      <c r="G158" s="93"/>
+      <c r="H158" s="94"/>
+      <c r="I158" s="84"/>
+    </row>
+    <row r="159" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A159" s="80" t="s">
         <v>222</v>
       </c>
-      <c r="B144" s="69" t="s">
-        <v>100</v>
-      </c>
-      <c r="C144" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D144" s="80"/>
-      <c r="E144" s="81"/>
-      <c r="F144" s="71">
-        <v>44623</v>
-      </c>
-      <c r="G144" s="82" t="s">
-        <v>103</v>
-      </c>
-      <c r="H144" s="83"/>
-      <c r="I144" s="72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="68" t="s">
+      <c r="B159" s="81" t="s">
+        <v>244</v>
+      </c>
+      <c r="C159" s="82"/>
+      <c r="D159" s="91"/>
+      <c r="E159" s="92"/>
+      <c r="F159" s="83"/>
+      <c r="G159" s="93"/>
+      <c r="H159" s="94"/>
+      <c r="I159" s="84"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="B145" s="73" t="s">
-        <v>38</v>
-      </c>
-      <c r="C145" s="70"/>
-      <c r="D145" s="80"/>
-      <c r="E145" s="81"/>
-      <c r="F145" s="71"/>
-      <c r="G145" s="82"/>
-      <c r="H145" s="83"/>
-      <c r="I145" s="72"/>
-    </row>
-    <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="B146" s="69" t="s">
-        <v>260</v>
-      </c>
-      <c r="C146" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D146" s="80"/>
-      <c r="E146" s="81"/>
-      <c r="F146" s="71">
-        <v>44649</v>
-      </c>
-      <c r="G146" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H146" s="83"/>
-      <c r="I146" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="B147" s="69" t="s">
-        <v>259</v>
-      </c>
-      <c r="C147" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="80"/>
-      <c r="E147" s="81"/>
-      <c r="F147" s="71">
-        <v>44649</v>
-      </c>
-      <c r="G147" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H147" s="83"/>
-      <c r="I147" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="B148" s="69"/>
-      <c r="C148" s="70"/>
-      <c r="D148" s="69"/>
-      <c r="E148" s="74"/>
-      <c r="F148" s="71"/>
-      <c r="G148" s="70"/>
-      <c r="H148" s="75"/>
-      <c r="I148" s="72"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="68" t="s">
-        <v>257</v>
-      </c>
-      <c r="B149" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="C149" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="80"/>
-      <c r="E149" s="81"/>
-      <c r="F149" s="71">
-        <v>44649</v>
-      </c>
-      <c r="G149" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H149" s="83"/>
-      <c r="I149" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="B150" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="C150" s="70"/>
-      <c r="D150" s="80"/>
-      <c r="E150" s="81"/>
-      <c r="F150" s="71"/>
-      <c r="G150" s="82"/>
-      <c r="H150" s="83"/>
-      <c r="I150" s="72"/>
-    </row>
-    <row r="151" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="68" t="s">
-        <v>228</v>
-      </c>
-      <c r="B151" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="C151" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D151" s="80"/>
-      <c r="E151" s="81"/>
-      <c r="F151" s="71">
-        <v>44649</v>
-      </c>
-      <c r="G151" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H151" s="83"/>
-      <c r="I151" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="68" t="s">
-        <v>229</v>
-      </c>
-      <c r="B152" s="69" t="s">
-        <v>258</v>
-      </c>
-      <c r="C152" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D152" s="80"/>
-      <c r="E152" s="81"/>
-      <c r="F152" s="71">
-        <v>44649</v>
-      </c>
-      <c r="G152" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H152" s="83"/>
-      <c r="I152" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="68" t="s">
-        <v>230</v>
-      </c>
-      <c r="B153" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="C153" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D153" s="80"/>
-      <c r="E153" s="81"/>
-      <c r="F153" s="71">
-        <v>44649</v>
-      </c>
-      <c r="G153" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H153" s="83"/>
-      <c r="I153" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="68" t="s">
-        <v>231</v>
-      </c>
-      <c r="B154" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="C154" s="70"/>
-      <c r="D154" s="80"/>
-      <c r="E154" s="81"/>
-      <c r="F154" s="71"/>
-      <c r="G154" s="82"/>
-      <c r="H154" s="83"/>
-      <c r="I154" s="72"/>
-    </row>
-    <row r="155" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="68" t="s">
-        <v>232</v>
-      </c>
-      <c r="B155" s="69" t="s">
-        <v>255</v>
-      </c>
-      <c r="C155" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D155" s="80"/>
-      <c r="E155" s="81"/>
-      <c r="F155" s="71">
-        <v>44636</v>
-      </c>
-      <c r="G155" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H155" s="83"/>
-      <c r="I155" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" s="68" t="s">
-        <v>233</v>
-      </c>
-      <c r="B156" s="69" t="s">
-        <v>245</v>
-      </c>
-      <c r="C156" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D156" s="80"/>
-      <c r="E156" s="81"/>
-      <c r="F156" s="71">
-        <v>44636</v>
-      </c>
-      <c r="G156" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H156" s="83"/>
-      <c r="I156" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="68" t="s">
-        <v>243</v>
-      </c>
-      <c r="B157" s="69" t="s">
-        <v>254</v>
-      </c>
-      <c r="C157" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D157" s="80"/>
-      <c r="E157" s="81"/>
-      <c r="F157" s="71">
-        <v>44636</v>
-      </c>
-      <c r="G157" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H157" s="83"/>
-      <c r="I157" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A158" s="68" t="s">
-        <v>244</v>
-      </c>
-      <c r="B158" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="C158" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D158" s="80"/>
-      <c r="E158" s="81"/>
-      <c r="F158" s="71">
-        <v>44636</v>
-      </c>
-      <c r="G158" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H158" s="83"/>
-      <c r="I158" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159" s="68" t="s">
-        <v>234</v>
-      </c>
-      <c r="B159" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="C159" s="70"/>
-      <c r="D159" s="80"/>
-      <c r="E159" s="81"/>
-      <c r="F159" s="71"/>
-      <c r="G159" s="82"/>
-      <c r="H159" s="83"/>
-      <c r="I159" s="72"/>
-    </row>
-    <row r="160" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="68" t="s">
-        <v>235</v>
-      </c>
-      <c r="B160" s="69" t="s">
-        <v>256</v>
-      </c>
-      <c r="C160" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D160" s="80"/>
-      <c r="E160" s="81"/>
-      <c r="F160" s="71">
-        <v>44635</v>
-      </c>
-      <c r="G160" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H160" s="83"/>
-      <c r="I160" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="68" t="s">
-        <v>236</v>
-      </c>
-      <c r="B161" s="69" t="s">
-        <v>241</v>
-      </c>
-      <c r="C161" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D161" s="69"/>
-      <c r="E161" s="74"/>
-      <c r="F161" s="71">
-        <v>44635</v>
-      </c>
-      <c r="G161" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H161" s="83"/>
-      <c r="I161" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" s="68" t="s">
-        <v>237</v>
-      </c>
-      <c r="B162" s="69" t="s">
-        <v>242</v>
-      </c>
-      <c r="C162" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D162" s="80"/>
-      <c r="E162" s="81"/>
-      <c r="F162" s="71">
-        <v>44635</v>
-      </c>
-      <c r="G162" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H162" s="83"/>
-      <c r="I162" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="68" t="s">
-        <v>238</v>
-      </c>
-      <c r="B163" s="69" t="s">
-        <v>127</v>
-      </c>
-      <c r="C163" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D163" s="80"/>
-      <c r="E163" s="81"/>
-      <c r="F163" s="71">
-        <v>44635</v>
-      </c>
-      <c r="G163" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H163" s="83"/>
-      <c r="I163" s="72" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="68" t="s">
-        <v>239</v>
-      </c>
-      <c r="B164" s="69" t="s">
-        <v>240</v>
-      </c>
-      <c r="C164" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D164" s="80"/>
-      <c r="E164" s="81"/>
-      <c r="F164" s="71">
-        <v>44635</v>
-      </c>
-      <c r="G164" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="H164" s="83"/>
-      <c r="I164" s="72" t="s">
-        <v>14</v>
-      </c>
+      <c r="B160" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="C160" s="82"/>
+      <c r="D160" s="91"/>
+      <c r="E160" s="92"/>
+      <c r="F160" s="83"/>
+      <c r="G160" s="93"/>
+      <c r="H160" s="94"/>
+      <c r="I160" s="84"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" scale="85" showGridLines="0" fitToPage="1">
-      <pane ySplit="12" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+    <customSheetView guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" topLeftCell="A129">
+      <selection activeCell="B145" sqref="B145"/>
       <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="286">
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G73:H73"/>
+  <mergeCells count="280">
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:H87"/>
     <mergeCell ref="D77:E77"/>
     <mergeCell ref="G77:H77"/>
     <mergeCell ref="D78:E78"/>
@@ -5640,16 +5304,6 @@
     <mergeCell ref="G75:H75"/>
     <mergeCell ref="D76:E76"/>
     <mergeCell ref="G76:H76"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:H87"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:H54"/>
@@ -5695,7 +5349,6 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="G15:H15"/>
@@ -5734,6 +5387,7 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="G84:H84"/>
     <mergeCell ref="D71:E71"/>
@@ -5754,6 +5408,20 @@
     <mergeCell ref="G82:H82"/>
     <mergeCell ref="D81:E81"/>
     <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="G97:H97"/>
     <mergeCell ref="D98:E98"/>
     <mergeCell ref="G98:H98"/>
     <mergeCell ref="D93:E93"/>
@@ -5766,18 +5434,6 @@
     <mergeCell ref="G88:H88"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="G89:H89"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="G97:H97"/>
     <mergeCell ref="D103:E103"/>
     <mergeCell ref="G103:H103"/>
     <mergeCell ref="D104:E104"/>
@@ -5823,18 +5479,6 @@
     <mergeCell ref="D113:E113"/>
     <mergeCell ref="G113:H113"/>
     <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="G123:H123"/>
     <mergeCell ref="D124:E124"/>
     <mergeCell ref="G124:H124"/>
     <mergeCell ref="D125:E125"/>
@@ -5855,6 +5499,10 @@
     <mergeCell ref="G132:H132"/>
     <mergeCell ref="D133:E133"/>
     <mergeCell ref="G133:H133"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="G139:H139"/>
     <mergeCell ref="D134:E134"/>
     <mergeCell ref="G134:H134"/>
     <mergeCell ref="D135:E135"/>
@@ -5863,394 +5511,388 @@
     <mergeCell ref="G136:H136"/>
     <mergeCell ref="D137:E137"/>
     <mergeCell ref="G137:H137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="G160:H160"/>
     <mergeCell ref="D140:E140"/>
     <mergeCell ref="G140:H140"/>
     <mergeCell ref="D141:E141"/>
     <mergeCell ref="G141:H141"/>
     <mergeCell ref="D142:E142"/>
     <mergeCell ref="G142:H142"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="G150:H150"/>
     <mergeCell ref="D143:E143"/>
     <mergeCell ref="G143:H143"/>
     <mergeCell ref="D144:E144"/>
     <mergeCell ref="G144:H144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="G145:H145"/>
     <mergeCell ref="D146:E146"/>
     <mergeCell ref="G146:H146"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="D151:E151"/>
     <mergeCell ref="D154:E154"/>
     <mergeCell ref="G154:H154"/>
     <mergeCell ref="D155:E155"/>
     <mergeCell ref="G155:H155"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="D151:E151"/>
     <mergeCell ref="G151:H151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="D153:E153"/>
     <mergeCell ref="D156:E156"/>
     <mergeCell ref="G156:H156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="G122:H122"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="C93:C95 C97 C79:C83 C108:C113 C67:C77 C85:C89 C91 C103:C106 C115:C117 C48:C49 C51 C161 C14:C19 C24:C26 C21 C28 C36:C43 C55:C65 C46">
-    <cfRule type="cellIs" dxfId="66" priority="86" operator="equal">
+  <conditionalFormatting sqref="C93:C95 C97 C79:C83 C108:C113 C67:C77 C85:C89 C91 C103:C106 C115:C117 C48:C49 C51 C14:C19 C24:C26 C21 C28 C36:C43 C55:C65 C46">
+    <cfRule type="cellIs" dxfId="64" priority="100" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="cellIs" dxfId="65" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="99" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C90">
+    <cfRule type="cellIs" dxfId="62" priority="76" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="cellIs" dxfId="61" priority="94" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="cellIs" dxfId="60" priority="93" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="cellIs" dxfId="59" priority="91" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="cellIs" dxfId="58" priority="90" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="cellIs" dxfId="57" priority="89" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="cellIs" dxfId="56" priority="88" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
+    <cfRule type="cellIs" dxfId="55" priority="85" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="cellIs" dxfId="54" priority="84" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="cellIs" dxfId="53" priority="83" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="cellIs" dxfId="52" priority="79" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="cellIs" dxfId="51" priority="78" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98:C102">
+    <cfRule type="cellIs" dxfId="50" priority="75" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="cellIs" dxfId="49" priority="74" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="cellIs" dxfId="48" priority="72" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="cellIs" dxfId="47" priority="70" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="cellIs" dxfId="46" priority="69" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="45" priority="68" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="cellIs" dxfId="44" priority="67" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="cellIs" dxfId="43" priority="66" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="cellIs" dxfId="42" priority="65" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136">
-    <cfRule type="cellIs" dxfId="64" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="64" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="cellIs" dxfId="63" priority="80" operator="equal">
+  <conditionalFormatting sqref="C133">
+    <cfRule type="cellIs" dxfId="40" priority="63" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="cellIs" dxfId="62" priority="79" operator="equal">
+  <conditionalFormatting sqref="C139">
+    <cfRule type="cellIs" dxfId="39" priority="62" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="cellIs" dxfId="61" priority="77" operator="equal">
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="38" priority="53" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="60" priority="76" operator="equal">
+  <conditionalFormatting sqref="C53">
+    <cfRule type="cellIs" dxfId="37" priority="46" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="cellIs" dxfId="36" priority="59" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142">
+    <cfRule type="cellIs" dxfId="35" priority="58" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="cellIs" dxfId="33" priority="55" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="cellIs" dxfId="32" priority="54" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="cellIs" dxfId="31" priority="45" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="cellIs" dxfId="27" priority="32" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C144">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118">
-    <cfRule type="cellIs" dxfId="59" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="58" priority="74" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="57" priority="73" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="cellIs" dxfId="56" priority="71" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
-    <cfRule type="cellIs" dxfId="55" priority="70" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
-    <cfRule type="cellIs" dxfId="54" priority="69" operator="equal">
+  <conditionalFormatting sqref="C122">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119">
-    <cfRule type="cellIs" dxfId="53" priority="65" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="cellIs" dxfId="52" priority="64" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C90">
-    <cfRule type="cellIs" dxfId="51" priority="62" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C102">
-    <cfRule type="cellIs" dxfId="50" priority="61" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="49" priority="60" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="cellIs" dxfId="47" priority="56" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="cellIs" dxfId="46" priority="55" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="cellIs" dxfId="45" priority="54" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="cellIs" dxfId="44" priority="53" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="cellIs" dxfId="43" priority="52" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="cellIs" dxfId="42" priority="51" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="cellIs" dxfId="41" priority="50" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="cellIs" dxfId="40" priority="49" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="cellIs" dxfId="39" priority="48" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="cellIs" dxfId="38" priority="47" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="cellIs" dxfId="37" priority="46" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="cellIs" dxfId="36" priority="45" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="cellIs" dxfId="35" priority="44" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="cellIs" dxfId="34" priority="42" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="33" priority="41" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="32" priority="40" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="cellIs" dxfId="31" priority="39" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
-    <cfRule type="cellIs" dxfId="29" priority="37" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
-    <cfRule type="cellIs" dxfId="28" priority="36" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="cellIs" dxfId="27" priority="35" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="cellIs" dxfId="19" priority="26" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="cellIs" dxfId="18" priority="25" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="cellIs" dxfId="17" priority="24" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="15" priority="22" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="cellIs" dxfId="14" priority="19" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147:C148">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C44">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C119:C120 C137:C139 C122:C131 C141:C144 C151:C164 C133:C135 C146:C149 C13:C117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C125:C126 C128:C137 C145:C147 C158:C160 C139:C140 C142:C143 C149:C156 C13:C123">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6475,10 +6117,10 @@
       <c r="I13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="96" t="s">
+      <c r="J13" s="117" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="97"/>
+      <c r="K13" s="118"/>
       <c r="L13" s="27">
         <v>44317</v>
       </c>
@@ -6506,10 +6148,10 @@
       <c r="I14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="96" t="s">
+      <c r="J14" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="97"/>
+      <c r="K14" s="118"/>
       <c r="L14" s="27">
         <v>44317</v>
       </c>
@@ -6537,10 +6179,10 @@
       <c r="I15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="96" t="s">
+      <c r="J15" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="97"/>
+      <c r="K15" s="118"/>
       <c r="L15" s="27">
         <v>44317</v>
       </c>

--- a/BN/wwwroot/Database/HRGIS_TRAINING_TestCase_MTP_rev01.xlsx
+++ b/BN/wwwroot/Database/HRGIS_TRAINING_TestCase_MTP_rev01.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="356">
   <si>
     <t>Project Test Cases</t>
   </si>
@@ -197,48 +197,15 @@
     <t>10.3</t>
   </si>
   <si>
-    <t>กรอก course no. แสดงข้อมูล auto (e.name, t.name, training from - to, time in, time out, course qty, group, place)</t>
-  </si>
-  <si>
-    <t>กรอก emp no. : form - to (รหัสพนักงานเริ่มต้น - รหัสพนักงานสุดท้าย)</t>
-  </si>
-  <si>
-    <t>กรอก pre-test score, post-test score (auto grade)</t>
-  </si>
-  <si>
-    <t>ช่อง total คำนวน auto โดยนับจาก รหัสพนักงานเริ่มต้น - รหัสพนักงานสุดท้าย (ถ้าเกินกับ course qty ให้ validate "……….")</t>
-  </si>
-  <si>
-    <t>ปุ่ม save : ถ้า total &gt; course qty จะสามารถบันทึกข้อมูลนักเรียนได้ ตามที่กรอก, ไม่ต้องแจ้ง หรือดักว่าเกิน ไม่ให้ save</t>
-  </si>
-  <si>
-    <t>สามารถ delete ข้อมูลได้</t>
-  </si>
-  <si>
     <t>Confirmation sheet</t>
   </si>
   <si>
     <t>12.1</t>
   </si>
   <si>
-    <t>กรอก Course no. เพื่อแสดง PDF บอกคอร์สและแสดงผู้ลงทะเบียน</t>
-  </si>
-  <si>
     <t>12.2</t>
   </si>
   <si>
-    <t>กดปุ่ม Trainee email เพื่อแสดงอีเมลของผู้ลงทะเบียน และผู้จัดการคนไทยของผู้ลงทะเบียน</t>
-  </si>
-  <si>
-    <t>สามารถ copy email เพื่อวางใน outlook ช่วยในการส่งอีเมลได้</t>
-  </si>
-  <si>
-    <t>Parameter course no.</t>
-  </si>
-  <si>
-    <t>Make PDF report</t>
-  </si>
-  <si>
     <t>กรอก course no. แสดงข้อมูล auto (course name, group, from - to)</t>
   </si>
   <si>
@@ -285,15 +252,6 @@
   </si>
   <si>
     <t>ไม่อยากให้ดักว่าต้องกรอกทุกช่อง เพราะMTP มีแต่ Post test ไม่มี Pre test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ที่ดาวน์โหลดรายชื่อ มีแต่ Ver. Excel ที่ภาษาไม่เพี้ยน </t>
-  </si>
-  <si>
-    <t>Course no in your own organization.</t>
-  </si>
-  <si>
-    <t>ยังไปไม่ถึงฟังก์ชันนี้ เพราะ Course no in your own organization.</t>
   </si>
   <si>
     <t>3</t>
@@ -1076,6 +1034,84 @@
   </si>
   <si>
     <t>ถ้าผู้เรียนไม่ถูก Approved ถือว่าไม่ผ่านการอบรม ไม่ควรมีประวัติ</t>
+  </si>
+  <si>
+    <t>ขอแก้เป็น 10 วันตาม ระเบียบ ISO</t>
+  </si>
+  <si>
+    <t>ถ้าไม่กรอกชื่อผู้สอน ห้ามอนุญาติให้ Safe</t>
+  </si>
+  <si>
+    <t>แก้แล้ว</t>
+  </si>
+  <si>
+    <t>แก้แล้ว แต่งงว่า Band ต้องทำด้วยไหม</t>
+  </si>
+  <si>
+    <t>มีแจ้งเตือนอยู่แล้ว</t>
+  </si>
+  <si>
+    <t>หากลงทะเบียนสำเร็จ ข้อมูลที่แสดงมีความถูกต้อง</t>
+  </si>
+  <si>
+    <t>เลือกคอร์สที่ต้องการลงทะเบียน ป้อนรหัสพนักงานที่ตัวเองต้องการตั้งแต่รหัสแรกจนถึงรหัสสุดท้าย ระบบจะสรุปจำนวนพนักงานให้ถูกต้อง ซึ่งสามารถใส่คะแนนตั้งแต่ตรงนี้ได้เลย หรือยังไม่ใส่ก็ได้</t>
+  </si>
+  <si>
+    <t>หากมีข้อผิดพลาด ระบบจะแสดงข้อความเตือน พร้อมทั้งบอก error ผ่าน .xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ผู้ใช้งานทั่วไป ไม่สามารถค้นหาคอร์สได้ </t>
+  </si>
+  <si>
+    <t>หากเป็น Committee รายชื่อคอร์สที่มีให้เลือกจะเป็นคอร์สที่ตัวเองรับผิดชอบเท่านั้น</t>
+  </si>
+  <si>
+    <t>เมื่อเลือกคอร์ส ระบบจะแสดงรายละเอียดของคอร์สนั้นขึ้นมาให้</t>
+  </si>
+  <si>
+    <t>10.4</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>10.6</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>10.8</t>
+  </si>
+  <si>
+    <t>ระบบสามารถดึงรายชื่ออีเมลทั้ง To และ CC และเนื้อหาในการส่งอีเมลได้อย่างถูกต้อง</t>
+  </si>
+  <si>
+    <t>สามารถคัดลอกข้อความของแต่ละบล็อคได้</t>
+  </si>
+  <si>
+    <t>สามารถนำข้อความที่คัดลอกไปวางที่ outlook ได้</t>
+  </si>
+  <si>
+    <t>ระบบขึ้นลิงค์ไฟล์แนบให้เลือก เมื่อคลิกระบบจะพาไปที่หน้าใหม่ซึ่งเป็นรีพอร์ท</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>10.10</t>
+  </si>
+  <si>
+    <t>สามารถเลือก parameter เป็นหมายเลขคอร์สได้</t>
+  </si>
+  <si>
+    <t>ระบบแสดงรีพอร์ทได้ถูกต้อง</t>
+  </si>
+  <si>
+    <t>สามารถบันทึกรีพอร์ทเป็นไฟล์ได้ตามที่ต้องการ เพื่อเอาไปใช้เป็นไฟล์แนบได้</t>
+  </si>
+  <si>
+    <t>กำลังเพิ่มฟังก์ชันให้</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1570,6 +1606,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1660,22 +1708,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1683,7 +1737,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="64">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2583,10 +2657,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J167"/>
+  <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A142" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2619,10 +2693,10 @@
       <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="118"/>
+      <c r="G3" s="122"/>
       <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
@@ -2666,53 +2740,53 @@
       <c r="A7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="124"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="128"/>
       <c r="E7" s="48">
         <v>44621</v>
       </c>
-      <c r="F7" s="119" t="s">
+      <c r="F7" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="120"/>
-      <c r="H7" s="121"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="125"/>
       <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B8" s="122" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="123"/>
-      <c r="D8" s="124"/>
+        <v>167</v>
+      </c>
+      <c r="B8" s="126" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="127"/>
+      <c r="D8" s="128"/>
       <c r="E8" s="22">
         <v>44639</v>
       </c>
-      <c r="F8" s="119" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="120"/>
-      <c r="H8" s="121"/>
+      <c r="F8" s="123" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="124"/>
+      <c r="H8" s="125"/>
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="122"/>
-      <c r="C9" s="123"/>
-      <c r="D9" s="124"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="128"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="121"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="124"/>
+      <c r="H9" s="125"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2756,94 +2830,94 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="35" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="C13" s="41"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="98"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
       <c r="F13" s="37"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="100"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="104"/>
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B14" s="39" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="103"/>
-      <c r="E14" s="104"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="108"/>
       <c r="F14" s="27">
         <v>44695</v>
       </c>
-      <c r="G14" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H14" s="96"/>
+      <c r="G14" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H14" s="100"/>
       <c r="I14" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="33" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C15" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="103"/>
-      <c r="E15" s="104"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="108"/>
       <c r="F15" s="27">
         <v>44695</v>
       </c>
-      <c r="G15" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H15" s="96"/>
+      <c r="G15" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H15" s="100"/>
       <c r="I15" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C16" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="103"/>
-      <c r="E16" s="104"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
       <c r="F16" s="27">
         <v>44695</v>
       </c>
-      <c r="G16" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H16" s="96"/>
+      <c r="G16" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H16" s="100"/>
       <c r="I16" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C17" s="85" t="s">
         <v>12</v>
@@ -2853,20 +2927,20 @@
       <c r="F17" s="27">
         <v>44695</v>
       </c>
-      <c r="G17" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H17" s="96"/>
+      <c r="G17" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H17" s="100"/>
       <c r="I17" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C18" s="85" t="s">
         <v>12</v>
@@ -2876,81 +2950,81 @@
       <c r="F18" s="27">
         <v>44695</v>
       </c>
-      <c r="G18" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H18" s="96"/>
+      <c r="G18" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H18" s="100"/>
       <c r="I18" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="C19" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="104"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="108"/>
       <c r="F19" s="27">
         <v>44695</v>
       </c>
-      <c r="G19" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="96"/>
+      <c r="G19" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H19" s="100"/>
       <c r="I19" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="C20" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="104"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="27">
         <v>44695</v>
       </c>
-      <c r="G20" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H20" s="96"/>
+      <c r="G20" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H20" s="100"/>
       <c r="I20" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B21" s="39" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C21" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="104"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="108"/>
       <c r="F21" s="27">
         <v>44695</v>
       </c>
-      <c r="G21" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H21" s="96"/>
+      <c r="G21" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H21" s="100"/>
       <c r="I21" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -2961,360 +3035,360 @@
         <v>41</v>
       </c>
       <c r="C22" s="41"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="98"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="100"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="104"/>
       <c r="I22" s="38"/>
     </row>
     <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="C23" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="103"/>
-      <c r="E23" s="104"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="27">
         <v>44695</v>
       </c>
-      <c r="G23" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H23" s="96"/>
+      <c r="G23" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H23" s="100"/>
       <c r="I23" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C24" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="103"/>
-      <c r="E24" s="104"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
       <c r="F24" s="27">
         <v>44695</v>
       </c>
-      <c r="G24" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H24" s="96"/>
+      <c r="G24" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H24" s="100"/>
       <c r="I24" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="C25" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="104"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="108"/>
       <c r="F25" s="27">
         <v>44695</v>
       </c>
-      <c r="G25" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H25" s="96"/>
+      <c r="G25" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H25" s="100"/>
       <c r="I25" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B26" s="49" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C26" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="103"/>
-      <c r="E26" s="104"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="108"/>
       <c r="F26" s="27">
         <v>44695</v>
       </c>
-      <c r="G26" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H26" s="96"/>
+      <c r="G26" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="100"/>
       <c r="I26" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C27" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="104"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="108"/>
       <c r="F27" s="27">
         <v>44695</v>
       </c>
-      <c r="G27" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H27" s="96"/>
+      <c r="G27" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H27" s="100"/>
       <c r="I27" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="B28" s="53" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="C28" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="105" t="s">
-        <v>317</v>
-      </c>
-      <c r="E28" s="106"/>
+      <c r="D28" s="109" t="s">
+        <v>303</v>
+      </c>
+      <c r="E28" s="110"/>
       <c r="F28" s="27">
         <v>44695</v>
       </c>
-      <c r="G28" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H28" s="96"/>
+      <c r="G28" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H28" s="100"/>
       <c r="I28" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B29" s="53" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C29" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="112"/>
       <c r="F29" s="27">
         <v>44695</v>
       </c>
-      <c r="G29" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H29" s="96"/>
+      <c r="G29" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H29" s="100"/>
       <c r="I29" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C30" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="109"/>
-      <c r="E30" s="110"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="114"/>
       <c r="F30" s="27">
         <v>44695</v>
       </c>
-      <c r="G30" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H30" s="96"/>
+      <c r="G30" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H30" s="100"/>
       <c r="I30" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B31" s="59" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C31" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="103"/>
-      <c r="E31" s="104"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="108"/>
       <c r="F31" s="27">
         <v>44695</v>
       </c>
-      <c r="G31" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H31" s="96"/>
+      <c r="G31" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H31" s="100"/>
       <c r="I31" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C32" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="103"/>
-      <c r="E32" s="104"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="108"/>
       <c r="F32" s="27">
         <v>44695</v>
       </c>
-      <c r="G32" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H32" s="96"/>
+      <c r="G32" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H32" s="100"/>
       <c r="I32" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="33" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B33" s="59" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C33" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="104"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="108"/>
       <c r="F33" s="27">
         <v>44695</v>
       </c>
-      <c r="G33" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H33" s="96"/>
+      <c r="G33" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H33" s="100"/>
       <c r="I33" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="33" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B34" s="55" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C34" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="103" t="s">
-        <v>321</v>
-      </c>
-      <c r="E34" s="104"/>
+      <c r="D34" s="107" t="s">
+        <v>307</v>
+      </c>
+      <c r="E34" s="108"/>
       <c r="F34" s="27">
         <v>44695</v>
       </c>
-      <c r="G34" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H34" s="96"/>
+      <c r="G34" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H34" s="100"/>
       <c r="I34" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="35" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>42</v>
       </c>
       <c r="C35" s="36"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="98"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
       <c r="F35" s="37"/>
-      <c r="G35" s="99"/>
-      <c r="H35" s="100"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="104"/>
       <c r="I35" s="38"/>
     </row>
-    <row r="36" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C36" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="104"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="108"/>
       <c r="F36" s="27">
         <v>44695</v>
       </c>
-      <c r="G36" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H36" s="96"/>
+      <c r="G36" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H36" s="100"/>
       <c r="I36" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="33" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B37" s="59" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="C37" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="103"/>
-      <c r="E37" s="104"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="108"/>
       <c r="F37" s="27">
         <v>44695</v>
       </c>
-      <c r="G37" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H37" s="96"/>
+      <c r="G37" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H37" s="100"/>
       <c r="I37" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="33" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C38" s="86" t="s">
         <v>12</v>
@@ -3324,20 +3398,20 @@
       <c r="F38" s="27">
         <v>44695</v>
       </c>
-      <c r="G38" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H38" s="96"/>
+      <c r="G38" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H38" s="100"/>
       <c r="I38" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="33" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C39" s="86" t="s">
         <v>12</v>
@@ -3347,20 +3421,20 @@
       <c r="F39" s="27">
         <v>44695</v>
       </c>
-      <c r="G39" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H39" s="96"/>
+      <c r="G39" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H39" s="100"/>
       <c r="I39" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="33" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B40" s="67" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="C40" s="86" t="s">
         <v>12</v>
@@ -3370,66 +3444,66 @@
       <c r="F40" s="27">
         <v>44695</v>
       </c>
-      <c r="G40" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H40" s="96"/>
+      <c r="G40" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H40" s="100"/>
       <c r="I40" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A41" s="33" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B41" s="39" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C41" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="112"/>
+      <c r="D41" s="115"/>
+      <c r="E41" s="116"/>
       <c r="F41" s="27">
         <v>44695</v>
       </c>
-      <c r="G41" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H41" s="96"/>
+      <c r="G41" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H41" s="100"/>
       <c r="I41" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="33" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B42" s="39" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C42" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="103"/>
-      <c r="E42" s="104"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="108"/>
       <c r="F42" s="27">
         <v>44695</v>
       </c>
-      <c r="G42" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H42" s="96"/>
+      <c r="G42" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H42" s="100"/>
       <c r="I42" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="33" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="B43" s="67" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C43" s="86" t="s">
         <v>12</v>
@@ -3439,20 +3513,20 @@
       <c r="F43" s="27">
         <v>44695</v>
       </c>
-      <c r="G43" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H43" s="96"/>
+      <c r="G43" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H43" s="100"/>
       <c r="I43" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A44" s="33" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="C44" s="86" t="s">
         <v>12</v>
@@ -3462,20 +3536,20 @@
       <c r="F44" s="27">
         <v>44695</v>
       </c>
-      <c r="G44" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H44" s="96"/>
+      <c r="G44" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H44" s="100"/>
       <c r="I44" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="33" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B45" s="59" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C45" s="86" t="s">
         <v>12</v>
@@ -3485,83 +3559,86 @@
       <c r="F45" s="27">
         <v>44695</v>
       </c>
-      <c r="G45" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H45" s="96"/>
+      <c r="G45" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H45" s="100"/>
       <c r="I45" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="33" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C46" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="D46" s="103"/>
-      <c r="E46" s="104"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="108"/>
       <c r="F46" s="27">
         <v>44695</v>
       </c>
-      <c r="G46" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H46" s="96"/>
+      <c r="G46" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H46" s="100"/>
       <c r="I46" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="35" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="C47" s="46"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="98"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="102"/>
       <c r="F47" s="37"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="100"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="104"/>
       <c r="I47" s="38"/>
     </row>
-    <row r="48" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A48" s="33" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C48" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="103" t="s">
-        <v>318</v>
-      </c>
-      <c r="E48" s="104"/>
+      <c r="D48" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" s="108"/>
       <c r="F48" s="27">
         <v>44695</v>
       </c>
-      <c r="G48" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H48" s="96"/>
+      <c r="G48" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H48" s="100"/>
       <c r="I48" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="J48" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B49" s="57" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C49" s="89" t="s">
         <v>12</v>
@@ -3571,244 +3648,247 @@
       <c r="F49" s="27">
         <v>44695</v>
       </c>
-      <c r="G49" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H49" s="96"/>
+      <c r="G49" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H49" s="100"/>
       <c r="I49" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="107"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="27">
+        <v>44695</v>
+      </c>
+      <c r="G50" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H50" s="100"/>
+      <c r="I50" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B51" s="44" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C50" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="103"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G50" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H50" s="96"/>
-      <c r="I50" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>93</v>
-      </c>
       <c r="C51" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="103"/>
-      <c r="E51" s="104"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="108"/>
       <c r="F51" s="27">
         <v>44695</v>
       </c>
-      <c r="G51" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H51" s="96"/>
+      <c r="G51" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H51" s="100"/>
       <c r="I51" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A52" s="33" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="C52" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="103"/>
-      <c r="E52" s="104"/>
+      <c r="D52" s="107"/>
+      <c r="E52" s="108"/>
       <c r="F52" s="27">
         <v>44695</v>
       </c>
-      <c r="G52" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H52" s="96"/>
+      <c r="G52" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H52" s="100"/>
       <c r="I52" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A53" s="33" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C53" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="103" t="s">
-        <v>318</v>
-      </c>
-      <c r="E53" s="104"/>
+      <c r="D53" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="E53" s="108"/>
       <c r="F53" s="27">
         <v>44695</v>
       </c>
-      <c r="G53" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H53" s="96"/>
+      <c r="G53" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H53" s="100"/>
       <c r="I53" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="J53" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="35" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="C54" s="41"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="98"/>
+      <c r="D54" s="101"/>
+      <c r="E54" s="102"/>
       <c r="F54" s="37"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="100"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="104"/>
       <c r="I54" s="38"/>
     </row>
-    <row r="55" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A55" s="33" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="B55" s="57" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C55" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="103"/>
-      <c r="E55" s="104"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="108"/>
       <c r="F55" s="27">
         <v>44695</v>
       </c>
-      <c r="G55" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H55" s="96"/>
+      <c r="G55" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H55" s="100"/>
       <c r="I55" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A56" s="33" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C56" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="103"/>
-      <c r="E56" s="104"/>
+      <c r="D56" s="107"/>
+      <c r="E56" s="108"/>
       <c r="F56" s="27">
         <v>44695</v>
       </c>
-      <c r="G56" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H56" s="96"/>
+      <c r="G56" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H56" s="100"/>
       <c r="I56" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="33" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="C57" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="103"/>
-      <c r="E57" s="104"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="108"/>
       <c r="F57" s="27">
         <v>44695</v>
       </c>
-      <c r="G57" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H57" s="96"/>
+      <c r="G57" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H57" s="100"/>
       <c r="I57" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" s="33" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C58" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="103"/>
-      <c r="E58" s="104"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="108"/>
       <c r="F58" s="27">
         <v>44695</v>
       </c>
-      <c r="G58" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H58" s="96"/>
+      <c r="G58" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H58" s="100"/>
       <c r="I58" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="33" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="C59" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="103"/>
-      <c r="E59" s="104"/>
+      <c r="D59" s="107"/>
+      <c r="E59" s="108"/>
       <c r="F59" s="27">
         <v>44695</v>
       </c>
-      <c r="G59" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H59" s="96"/>
+      <c r="G59" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H59" s="100"/>
       <c r="I59" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" s="33" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B60" s="59" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C60" s="89" t="s">
         <v>12</v>
@@ -3818,89 +3898,96 @@
       <c r="F60" s="27">
         <v>44695</v>
       </c>
-      <c r="G60" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H60" s="96"/>
+      <c r="G60" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H60" s="100"/>
       <c r="I60" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A61" s="33" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C61" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="103"/>
-      <c r="E61" s="104"/>
+        <v>13</v>
+      </c>
+      <c r="D61" s="107" t="s">
+        <v>331</v>
+      </c>
+      <c r="E61" s="108"/>
       <c r="F61" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G61" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H61" s="96"/>
+        <v>44698</v>
+      </c>
+      <c r="G61" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H61" s="100"/>
       <c r="I61" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="J61" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A62" s="33" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C62" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="103"/>
-      <c r="E62" s="104"/>
+      <c r="D62" s="107"/>
+      <c r="E62" s="108"/>
       <c r="F62" s="27">
         <v>44695</v>
       </c>
-      <c r="G62" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H62" s="96"/>
+      <c r="G62" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H62" s="100"/>
       <c r="I62" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A63" s="33" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C63" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="58"/>
+        <v>13</v>
+      </c>
+      <c r="D63" s="135" t="s">
+        <v>330</v>
+      </c>
+      <c r="E63" s="136"/>
       <c r="F63" s="27">
         <v>44695</v>
       </c>
-      <c r="G63" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H63" s="96"/>
+      <c r="G63" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H63" s="100"/>
       <c r="I63" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A64" s="33" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C64" s="89" t="s">
         <v>12</v>
@@ -3910,290 +3997,290 @@
       <c r="F64" s="27">
         <v>44695</v>
       </c>
-      <c r="G64" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H64" s="96"/>
+      <c r="G64" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H64" s="100"/>
       <c r="I64" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A65" s="33" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="C65" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="103" t="s">
-        <v>339</v>
-      </c>
-      <c r="E65" s="104"/>
+      <c r="D65" s="107" t="s">
+        <v>325</v>
+      </c>
+      <c r="E65" s="108"/>
       <c r="F65" s="27">
         <v>44695</v>
       </c>
-      <c r="G65" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H65" s="96"/>
+      <c r="G65" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H65" s="100"/>
       <c r="I65" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" s="35" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B66" s="40" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="C66" s="41"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="98"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="102"/>
       <c r="F66" s="37"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="100"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="104"/>
       <c r="I66" s="38"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="71" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B67" s="77" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C67" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D67" s="93"/>
-      <c r="E67" s="94"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="98"/>
       <c r="F67" s="27">
         <v>44695</v>
       </c>
-      <c r="G67" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H67" s="96"/>
+      <c r="G67" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H67" s="100"/>
       <c r="I67" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="71" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B68" s="77" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C68" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="93"/>
-      <c r="E68" s="94"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="98"/>
       <c r="F68" s="27">
         <v>44695</v>
       </c>
-      <c r="G68" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H68" s="96"/>
+      <c r="G68" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H68" s="100"/>
       <c r="I68" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A69" s="71" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B69" s="83" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C69" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="93"/>
-      <c r="E69" s="94"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="98"/>
       <c r="F69" s="27">
         <v>44695</v>
       </c>
-      <c r="G69" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H69" s="96"/>
+      <c r="G69" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H69" s="100"/>
       <c r="I69" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="71" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B70" s="77" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C70" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="93"/>
-      <c r="E70" s="94"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="98"/>
       <c r="F70" s="27">
         <v>44695</v>
       </c>
-      <c r="G70" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H70" s="96"/>
+      <c r="G70" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H70" s="100"/>
       <c r="I70" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A71" s="71" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B71" s="77" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C71" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="93"/>
-      <c r="E71" s="94"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="98"/>
       <c r="F71" s="27">
         <v>44695</v>
       </c>
-      <c r="G71" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H71" s="96"/>
+      <c r="G71" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H71" s="100"/>
       <c r="I71" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="71" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B72" s="77" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="C72" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="93"/>
-      <c r="E72" s="94"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="98"/>
       <c r="F72" s="27">
         <v>44695</v>
       </c>
-      <c r="G72" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H72" s="96"/>
+      <c r="G72" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H72" s="100"/>
       <c r="I72" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A73" s="71" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C73" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="93"/>
-      <c r="E73" s="94"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="98"/>
       <c r="F73" s="27">
         <v>44695</v>
       </c>
-      <c r="G73" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H73" s="96"/>
+      <c r="G73" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H73" s="100"/>
       <c r="I73" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A74" s="71" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="B74" s="77" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C74" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="93"/>
-      <c r="E74" s="94"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="98"/>
       <c r="F74" s="27">
         <v>44695</v>
       </c>
-      <c r="G74" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H74" s="96"/>
+      <c r="G74" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H74" s="100"/>
       <c r="I74" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A75" s="71" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B75" s="77" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C75" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="93"/>
-      <c r="E75" s="94"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="98"/>
       <c r="F75" s="27">
         <v>44695</v>
       </c>
-      <c r="G75" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H75" s="96"/>
+      <c r="G75" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H75" s="100"/>
       <c r="I75" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="71" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B76" s="77" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="C76" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="93"/>
-      <c r="E76" s="94"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="98"/>
       <c r="F76" s="27">
         <v>44695</v>
       </c>
-      <c r="G76" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H76" s="96"/>
+      <c r="G76" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H76" s="100"/>
       <c r="I76" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A77" s="71" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B77" s="79" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="C77" s="81" t="s">
         <v>12</v>
@@ -4203,20 +4290,20 @@
       <c r="F77" s="27">
         <v>44695</v>
       </c>
-      <c r="G77" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H77" s="96"/>
+      <c r="G77" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H77" s="100"/>
       <c r="I77" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="71" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B78" s="79" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C78" s="81" t="s">
         <v>12</v>
@@ -4226,20 +4313,20 @@
       <c r="F78" s="27">
         <v>44695</v>
       </c>
-      <c r="G78" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H78" s="96"/>
+      <c r="G78" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H78" s="100"/>
       <c r="I78" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A79" s="71" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="B79" s="79" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C79" s="81" t="s">
         <v>12</v>
@@ -4249,20 +4336,20 @@
       <c r="F79" s="27">
         <v>44695</v>
       </c>
-      <c r="G79" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H79" s="96"/>
+      <c r="G79" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H79" s="100"/>
       <c r="I79" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="71" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B80" s="79" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C80" s="81" t="s">
         <v>12</v>
@@ -4272,20 +4359,20 @@
       <c r="F80" s="27">
         <v>44695</v>
       </c>
-      <c r="G80" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H80" s="96"/>
+      <c r="G80" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H80" s="100"/>
       <c r="I80" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="71" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B81" s="79" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C81" s="91" t="s">
         <v>12</v>
@@ -4295,20 +4382,20 @@
       <c r="F81" s="27">
         <v>44695</v>
       </c>
-      <c r="G81" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H81" s="96"/>
+      <c r="G81" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H81" s="100"/>
       <c r="I81" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A82" s="71" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B82" s="79" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="C82" s="91" t="s">
         <v>12</v>
@@ -4318,20 +4405,20 @@
       <c r="F82" s="27">
         <v>44695</v>
       </c>
-      <c r="G82" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H82" s="96"/>
+      <c r="G82" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H82" s="100"/>
       <c r="I82" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="71" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B83" s="79" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C83" s="91" t="s">
         <v>12</v>
@@ -4341,20 +4428,20 @@
       <c r="F83" s="27">
         <v>44695</v>
       </c>
-      <c r="G83" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H83" s="96"/>
+      <c r="G83" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H83" s="100"/>
       <c r="I83" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" s="71" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B84" s="79" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C84" s="91" t="s">
         <v>12</v>
@@ -4364,45 +4451,48 @@
       <c r="F84" s="27">
         <v>44695</v>
       </c>
-      <c r="G84" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H84" s="96"/>
+      <c r="G84" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H84" s="100"/>
       <c r="I84" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="71" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B85" s="79" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C85" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="101" t="s">
-        <v>340</v>
-      </c>
-      <c r="E85" s="102"/>
+      <c r="D85" s="105" t="s">
+        <v>326</v>
+      </c>
+      <c r="E85" s="106"/>
       <c r="F85" s="27">
         <v>44695</v>
       </c>
-      <c r="G85" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H85" s="96"/>
+      <c r="G85" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H85" s="100"/>
       <c r="I85" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="J85" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="71" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="B86" s="79" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C86" s="91" t="s">
         <v>12</v>
@@ -4412,1648 +4502,1729 @@
       <c r="F86" s="27">
         <v>44695</v>
       </c>
-      <c r="G86" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H86" s="96"/>
+      <c r="G86" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H86" s="100"/>
       <c r="I86" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="71" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B87" s="79" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C87" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="93"/>
-      <c r="E87" s="94"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="98"/>
       <c r="F87" s="27">
         <v>44695</v>
       </c>
-      <c r="G87" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H87" s="96"/>
+      <c r="G87" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H87" s="100"/>
       <c r="I87" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="35" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C88" s="41"/>
-      <c r="D88" s="97"/>
-      <c r="E88" s="98"/>
+      <c r="D88" s="101"/>
+      <c r="E88" s="102"/>
       <c r="F88" s="37"/>
-      <c r="G88" s="99"/>
-      <c r="H88" s="100"/>
+      <c r="G88" s="103"/>
+      <c r="H88" s="104"/>
       <c r="I88" s="38"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="71" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B89" s="79" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C89" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D89" s="93"/>
-      <c r="E89" s="94"/>
+      <c r="D89" s="97"/>
+      <c r="E89" s="98"/>
       <c r="F89" s="27">
         <v>44695</v>
       </c>
-      <c r="G89" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H89" s="96"/>
+      <c r="G89" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H89" s="100"/>
       <c r="I89" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="71" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B90" s="79" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C90" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="93"/>
-      <c r="E90" s="94"/>
+      <c r="D90" s="97"/>
+      <c r="E90" s="98"/>
       <c r="F90" s="27">
         <v>44695</v>
       </c>
-      <c r="G90" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H90" s="96"/>
+      <c r="G90" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H90" s="100"/>
       <c r="I90" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A91" s="71" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B91" s="79" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C91" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="93"/>
-      <c r="E91" s="94"/>
+      <c r="D91" s="97"/>
+      <c r="E91" s="98"/>
       <c r="F91" s="27">
         <v>44695</v>
       </c>
-      <c r="G91" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H91" s="96"/>
+      <c r="G91" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H91" s="100"/>
       <c r="I91" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="71" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B92" s="79" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C92" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="93"/>
-      <c r="E92" s="94"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="98"/>
       <c r="F92" s="27">
         <v>44695</v>
       </c>
-      <c r="G92" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H92" s="96"/>
+      <c r="G92" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H92" s="100"/>
       <c r="I92" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="71" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B93" s="79" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C93" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="93"/>
-      <c r="E93" s="94"/>
+      <c r="D93" s="97"/>
+      <c r="E93" s="98"/>
       <c r="F93" s="27">
         <v>44695</v>
       </c>
-      <c r="G93" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H93" s="96"/>
+      <c r="G93" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H93" s="100"/>
       <c r="I93" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A94" s="71" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B94" s="79" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C94" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D94" s="93"/>
-      <c r="E94" s="94"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="98"/>
       <c r="F94" s="27">
         <v>44695</v>
       </c>
-      <c r="G94" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H94" s="96"/>
+      <c r="G94" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H94" s="100"/>
       <c r="I94" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="71" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B95" s="79" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C95" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="93"/>
-      <c r="E95" s="94"/>
+      <c r="D95" s="97"/>
+      <c r="E95" s="98"/>
       <c r="F95" s="27">
         <v>44695</v>
       </c>
-      <c r="G95" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H95" s="96"/>
+      <c r="G95" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H95" s="100"/>
       <c r="I95" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="71" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B96" s="79" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C96" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="93"/>
-      <c r="E96" s="94"/>
+      <c r="D96" s="97"/>
+      <c r="E96" s="98"/>
       <c r="F96" s="27">
         <v>44695</v>
       </c>
-      <c r="G96" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H96" s="96"/>
+      <c r="G96" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H96" s="100"/>
       <c r="I96" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A97" s="71" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B97" s="83" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C97" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="93"/>
-      <c r="E97" s="94"/>
+      <c r="D97" s="97"/>
+      <c r="E97" s="98"/>
       <c r="F97" s="27">
         <v>44695</v>
       </c>
-      <c r="G97" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H97" s="96"/>
+      <c r="G97" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H97" s="100"/>
       <c r="I97" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A98" s="71" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B98" s="79" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C98" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D98" s="93"/>
-      <c r="E98" s="94"/>
+      <c r="D98" s="97"/>
+      <c r="E98" s="98"/>
       <c r="F98" s="27">
         <v>44695</v>
       </c>
-      <c r="G98" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H98" s="96"/>
+      <c r="G98" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H98" s="100"/>
       <c r="I98" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="71" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B99" s="79" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C99" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="D99" s="93"/>
-      <c r="E99" s="94"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="98"/>
       <c r="F99" s="27">
         <v>44695</v>
       </c>
-      <c r="G99" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H99" s="96"/>
+      <c r="G99" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H99" s="100"/>
       <c r="I99" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="35" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B100" s="40" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C100" s="82"/>
-      <c r="D100" s="97"/>
-      <c r="E100" s="98"/>
+      <c r="D100" s="101"/>
+      <c r="E100" s="102"/>
       <c r="F100" s="37"/>
-      <c r="G100" s="99"/>
-      <c r="H100" s="100"/>
+      <c r="G100" s="103"/>
+      <c r="H100" s="104"/>
       <c r="I100" s="38"/>
     </row>
     <row r="101" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="71" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B101" s="87" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="C101" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="93"/>
-      <c r="E101" s="94"/>
+      <c r="D101" s="97"/>
+      <c r="E101" s="98"/>
       <c r="F101" s="27">
         <v>44695</v>
       </c>
-      <c r="G101" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H101" s="96"/>
+      <c r="G101" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H101" s="100"/>
       <c r="I101" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A102" s="71" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B102" s="87" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C102" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="93"/>
-      <c r="E102" s="94"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="98"/>
       <c r="F102" s="27">
         <v>44695</v>
       </c>
-      <c r="G102" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H102" s="96"/>
+      <c r="G102" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H102" s="100"/>
       <c r="I102" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A103" s="71" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B103" s="87" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C103" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="93"/>
-      <c r="E103" s="94"/>
+      <c r="D103" s="97"/>
+      <c r="E103" s="98"/>
       <c r="F103" s="27">
         <v>44695</v>
       </c>
-      <c r="G103" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H103" s="96"/>
+      <c r="G103" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H103" s="100"/>
       <c r="I103" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A104" s="71" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B104" s="90" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C104" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D104" s="93"/>
-      <c r="E104" s="94"/>
+      <c r="D104" s="97"/>
+      <c r="E104" s="98"/>
       <c r="F104" s="27">
         <v>44695</v>
       </c>
-      <c r="G104" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H104" s="96"/>
+      <c r="G104" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H104" s="100"/>
       <c r="I104" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="71" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B105" s="87" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C105" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="93"/>
-      <c r="E105" s="94"/>
+      <c r="D105" s="97"/>
+      <c r="E105" s="98"/>
       <c r="F105" s="27">
         <v>44695</v>
       </c>
-      <c r="G105" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H105" s="96"/>
+      <c r="G105" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H105" s="100"/>
       <c r="I105" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="71" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B106" s="87" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C106" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D106" s="93"/>
-      <c r="E106" s="94"/>
+      <c r="D106" s="97"/>
+      <c r="E106" s="98"/>
       <c r="F106" s="27">
         <v>44695</v>
       </c>
-      <c r="G106" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H106" s="96"/>
+      <c r="G106" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H106" s="100"/>
       <c r="I106" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="71" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B107" s="87" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="C107" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D107" s="93"/>
-      <c r="E107" s="94"/>
+      <c r="D107" s="97"/>
+      <c r="E107" s="98"/>
       <c r="F107" s="27">
         <v>44695</v>
       </c>
-      <c r="G107" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H107" s="96"/>
+      <c r="G107" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H107" s="100"/>
       <c r="I107" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A108" s="71" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B108" s="87" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="C108" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="93"/>
-      <c r="E108" s="94"/>
+      <c r="D108" s="97"/>
+      <c r="E108" s="98"/>
       <c r="F108" s="27">
         <v>44695</v>
       </c>
-      <c r="G108" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H108" s="96"/>
+      <c r="G108" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H108" s="100"/>
       <c r="I108" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A109" s="71" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B109" s="87" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="C109" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D109" s="93"/>
-      <c r="E109" s="94"/>
+      <c r="D109" s="97"/>
+      <c r="E109" s="98"/>
       <c r="F109" s="27">
         <v>44695</v>
       </c>
-      <c r="G109" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H109" s="96"/>
+      <c r="G109" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H109" s="100"/>
       <c r="I109" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="71" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B110" s="87" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="C110" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D110" s="93"/>
-      <c r="E110" s="94"/>
+      <c r="D110" s="97"/>
+      <c r="E110" s="98"/>
       <c r="F110" s="27">
         <v>44695</v>
       </c>
-      <c r="G110" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H110" s="96"/>
+      <c r="G110" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H110" s="100"/>
       <c r="I110" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A111" s="71" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B111" s="87" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="C111" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D111" s="93"/>
-      <c r="E111" s="94"/>
+      <c r="D111" s="97"/>
+      <c r="E111" s="98"/>
       <c r="F111" s="27">
         <v>44695</v>
       </c>
-      <c r="G111" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H111" s="96"/>
+      <c r="G111" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H111" s="100"/>
       <c r="I111" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A112" s="71" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B112" s="87" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C112" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="93"/>
-      <c r="E112" s="94"/>
+      <c r="D112" s="97"/>
+      <c r="E112" s="98"/>
       <c r="F112" s="27">
         <v>44695</v>
       </c>
-      <c r="G112" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H112" s="96"/>
+      <c r="G112" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H112" s="100"/>
       <c r="I112" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="71" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B113" s="87" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="C113" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="93"/>
-      <c r="E113" s="94"/>
+      <c r="D113" s="97"/>
+      <c r="E113" s="98"/>
       <c r="F113" s="27">
         <v>44695</v>
       </c>
-      <c r="G113" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H113" s="96"/>
+      <c r="G113" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H113" s="100"/>
       <c r="I113" s="28" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="35" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B114" s="40" t="s">
         <v>40</v>
       </c>
       <c r="C114" s="84"/>
-      <c r="D114" s="97"/>
-      <c r="E114" s="98"/>
+      <c r="D114" s="101"/>
+      <c r="E114" s="102"/>
       <c r="F114" s="37"/>
-      <c r="G114" s="99"/>
-      <c r="H114" s="100"/>
+      <c r="G114" s="103"/>
+      <c r="H114" s="104"/>
       <c r="I114" s="38"/>
     </row>
-    <row r="115" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A115" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B115" s="63" t="s">
-        <v>52</v>
-      </c>
-      <c r="C115" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="115"/>
-      <c r="E115" s="116"/>
-      <c r="F115" s="65"/>
-      <c r="G115" s="113"/>
-      <c r="H115" s="114"/>
-      <c r="I115" s="66"/>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="93" t="s">
+        <v>233</v>
+      </c>
+      <c r="C115" s="95"/>
+      <c r="D115" s="97"/>
+      <c r="E115" s="98"/>
+      <c r="F115" s="27"/>
+      <c r="G115" s="99"/>
+      <c r="H115" s="100"/>
+      <c r="I115" s="28"/>
     </row>
     <row r="116" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A116" s="62" t="s">
-        <v>131</v>
-      </c>
-      <c r="B116" s="63" t="s">
-        <v>53</v>
-      </c>
-      <c r="C116" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="115"/>
-      <c r="E116" s="116"/>
-      <c r="F116" s="65"/>
-      <c r="G116" s="113"/>
-      <c r="H116" s="114"/>
-      <c r="I116" s="66"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="B117" s="63" t="s">
-        <v>54</v>
-      </c>
-      <c r="C117" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="115"/>
-      <c r="E117" s="116"/>
-      <c r="F117" s="65"/>
-      <c r="G117" s="113"/>
-      <c r="H117" s="114"/>
-      <c r="I117" s="66"/>
-    </row>
-    <row r="118" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A118" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="B118" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="C118" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="115"/>
-      <c r="E118" s="116"/>
-      <c r="F118" s="65"/>
-      <c r="G118" s="113"/>
-      <c r="H118" s="114"/>
-      <c r="I118" s="66"/>
-    </row>
-    <row r="119" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A119" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="B119" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="C119" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="115"/>
-      <c r="E119" s="116"/>
-      <c r="F119" s="65"/>
-      <c r="G119" s="113"/>
-      <c r="H119" s="114"/>
-      <c r="I119" s="66"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="62" t="s">
-        <v>135</v>
-      </c>
-      <c r="B120" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C120" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="115"/>
-      <c r="E120" s="116"/>
-      <c r="F120" s="65"/>
-      <c r="G120" s="113"/>
-      <c r="H120" s="114"/>
-      <c r="I120" s="66"/>
+      <c r="A116" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="93" t="s">
+        <v>313</v>
+      </c>
+      <c r="C116" s="95"/>
+      <c r="D116" s="97"/>
+      <c r="E116" s="98"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="99"/>
+      <c r="H116" s="100"/>
+      <c r="I116" s="28"/>
+    </row>
+    <row r="117" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="93" t="s">
+        <v>273</v>
+      </c>
+      <c r="C117" s="95"/>
+      <c r="D117" s="97"/>
+      <c r="E117" s="98"/>
+      <c r="F117" s="27"/>
+      <c r="G117" s="99"/>
+      <c r="H117" s="100"/>
+      <c r="I117" s="28"/>
+    </row>
+    <row r="118" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A118" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="93" t="s">
+        <v>336</v>
+      </c>
+      <c r="C118" s="95"/>
+      <c r="D118" s="97"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="27"/>
+      <c r="G118" s="99"/>
+      <c r="H118" s="100"/>
+      <c r="I118" s="28"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="93" t="s">
+        <v>335</v>
+      </c>
+      <c r="C119" s="95"/>
+      <c r="D119" s="97"/>
+      <c r="E119" s="98"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="99"/>
+      <c r="H119" s="100"/>
+      <c r="I119" s="28"/>
+    </row>
+    <row r="120" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120" s="93" t="s">
+        <v>337</v>
+      </c>
+      <c r="C120" s="95"/>
+      <c r="D120" s="97"/>
+      <c r="E120" s="98"/>
+      <c r="F120" s="74"/>
+      <c r="G120" s="133"/>
+      <c r="H120" s="134"/>
+      <c r="I120" s="75"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B121" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C121" s="84"/>
+      <c r="A121" s="71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121" s="93" t="s">
+        <v>286</v>
+      </c>
+      <c r="C121" s="95"/>
       <c r="D121" s="97"/>
       <c r="E121" s="98"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="99"/>
-      <c r="H121" s="100"/>
-      <c r="I121" s="38"/>
-    </row>
-    <row r="122" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="62" t="s">
+      <c r="F121" s="74"/>
+      <c r="G121" s="133"/>
+      <c r="H121" s="134"/>
+      <c r="I121" s="75"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C122" s="84"/>
+      <c r="D122" s="101"/>
+      <c r="E122" s="102"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="103"/>
+      <c r="H122" s="104"/>
+      <c r="I122" s="38"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="B122" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="C122" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" s="115" t="s">
-        <v>82</v>
-      </c>
-      <c r="E122" s="116"/>
-      <c r="F122" s="65">
-        <v>44631</v>
-      </c>
-      <c r="G122" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H122" s="114"/>
-      <c r="I122" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="62" t="s">
+      <c r="B123" s="93" t="s">
+        <v>338</v>
+      </c>
+      <c r="C123" s="95"/>
+      <c r="D123" s="97"/>
+      <c r="E123" s="98"/>
+      <c r="F123" s="74"/>
+      <c r="G123" s="133"/>
+      <c r="H123" s="134"/>
+      <c r="I123" s="75"/>
+    </row>
+    <row r="124" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A124" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B123" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C123" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="115" t="s">
-        <v>83</v>
-      </c>
-      <c r="E123" s="116"/>
-      <c r="F123" s="65">
-        <v>44631</v>
-      </c>
-      <c r="G123" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H123" s="114"/>
-      <c r="I123" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A124" s="62" t="s">
+      <c r="B124" s="93" t="s">
+        <v>339</v>
+      </c>
+      <c r="C124" s="95"/>
+      <c r="D124" s="97"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="74"/>
+      <c r="G124" s="133"/>
+      <c r="H124" s="134"/>
+      <c r="I124" s="75"/>
+    </row>
+    <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B124" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="C124" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="115" t="s">
-        <v>84</v>
-      </c>
-      <c r="E124" s="116"/>
-      <c r="F124" s="65">
-        <v>44631</v>
-      </c>
-      <c r="G124" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H124" s="114"/>
-      <c r="I124" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="B125" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C125" s="84"/>
-      <c r="D125" s="97"/>
-      <c r="E125" s="98"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="99"/>
-      <c r="H125" s="100"/>
-      <c r="I125" s="38"/>
+      <c r="B125" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="C125" s="95"/>
+      <c r="D125" s="93"/>
+      <c r="E125" s="94"/>
+      <c r="F125" s="74"/>
+      <c r="G125" s="95"/>
+      <c r="H125" s="96"/>
+      <c r="I125" s="75"/>
     </row>
     <row r="126" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A126" s="71" t="s">
-        <v>137</v>
-      </c>
-      <c r="B126" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="C126" s="73" t="s">
-        <v>12</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="B126" s="93" t="s">
+        <v>346</v>
+      </c>
+      <c r="C126" s="95"/>
       <c r="D126" s="93"/>
       <c r="E126" s="94"/>
-      <c r="F126" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G126" s="95" t="s">
-        <v>316</v>
-      </c>
+      <c r="F126" s="74"/>
+      <c r="G126" s="95"/>
       <c r="H126" s="96"/>
-      <c r="I126" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="I126" s="75"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="71" t="s">
-        <v>138</v>
-      </c>
-      <c r="B127" s="72" t="s">
-        <v>163</v>
-      </c>
-      <c r="C127" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="72"/>
-      <c r="E127" s="76"/>
-      <c r="F127" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G127" s="95" t="s">
-        <v>316</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="B127" s="93" t="s">
+        <v>347</v>
+      </c>
+      <c r="C127" s="95"/>
+      <c r="D127" s="93"/>
+      <c r="E127" s="94"/>
+      <c r="F127" s="74"/>
+      <c r="G127" s="95"/>
       <c r="H127" s="96"/>
-      <c r="I127" s="28" t="s">
-        <v>79</v>
-      </c>
+      <c r="I127" s="75"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="71" t="s">
-        <v>302</v>
-      </c>
-      <c r="B128" s="72" t="s">
-        <v>164</v>
-      </c>
-      <c r="C128" s="73" t="s">
-        <v>12</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="B128" s="93" t="s">
+        <v>348</v>
+      </c>
+      <c r="C128" s="95"/>
       <c r="D128" s="93"/>
       <c r="E128" s="94"/>
-      <c r="F128" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G128" s="95" t="s">
-        <v>316</v>
-      </c>
+      <c r="F128" s="74"/>
+      <c r="G128" s="95"/>
       <c r="H128" s="96"/>
-      <c r="I128" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I128" s="75"/>
+    </row>
+    <row r="129" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A129" s="71" t="s">
-        <v>303</v>
-      </c>
-      <c r="B129" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="C129" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="93"/>
-      <c r="E129" s="94"/>
-      <c r="F129" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G129" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H129" s="96"/>
-      <c r="I129" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="B129" s="93" t="s">
+        <v>349</v>
+      </c>
+      <c r="C129" s="95"/>
+      <c r="D129" s="97"/>
+      <c r="E129" s="98"/>
+      <c r="F129" s="74"/>
+      <c r="G129" s="133"/>
+      <c r="H129" s="134"/>
+      <c r="I129" s="75"/>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="71" t="s">
-        <v>304</v>
-      </c>
-      <c r="B130" s="72" t="s">
-        <v>162</v>
-      </c>
-      <c r="C130" s="73" t="s">
-        <v>12</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="B130" s="93" t="s">
+        <v>352</v>
+      </c>
+      <c r="C130" s="95"/>
       <c r="D130" s="93"/>
       <c r="E130" s="94"/>
-      <c r="F130" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G130" s="95" t="s">
-        <v>316</v>
-      </c>
+      <c r="F130" s="74"/>
+      <c r="G130" s="95"/>
       <c r="H130" s="96"/>
-      <c r="I130" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="B131" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="C131" s="84"/>
-      <c r="D131" s="97"/>
-      <c r="E131" s="98"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="99"/>
-      <c r="H131" s="100"/>
-      <c r="I131" s="38"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I130" s="75"/>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A131" s="71" t="s">
+        <v>350</v>
+      </c>
+      <c r="B131" s="93" t="s">
+        <v>353</v>
+      </c>
+      <c r="C131" s="95"/>
+      <c r="D131" s="93"/>
+      <c r="E131" s="94"/>
+      <c r="F131" s="74"/>
+      <c r="G131" s="95"/>
+      <c r="H131" s="96"/>
+      <c r="I131" s="75"/>
+    </row>
+    <row r="132" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="B132" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C132" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="93" t="s">
-        <v>341</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="B132" s="93" t="s">
+        <v>354</v>
+      </c>
+      <c r="C132" s="95"/>
+      <c r="D132" s="93"/>
       <c r="E132" s="94"/>
-      <c r="F132" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G132" s="95" t="s">
-        <v>316</v>
-      </c>
+      <c r="F132" s="74"/>
+      <c r="G132" s="95"/>
       <c r="H132" s="96"/>
-      <c r="I132" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="B133" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="C133" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="93"/>
-      <c r="E133" s="94"/>
-      <c r="F133" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G133" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H133" s="96"/>
-      <c r="I133" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="B134" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C134" s="84"/>
+      <c r="I132" s="75"/>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A133" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B133" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C133" s="84"/>
+      <c r="D133" s="101"/>
+      <c r="E133" s="102"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="103"/>
+      <c r="H133" s="104"/>
+      <c r="I133" s="38"/>
+    </row>
+    <row r="134" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="B134" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C134" s="73" t="s">
+        <v>12</v>
+      </c>
       <c r="D134" s="97"/>
       <c r="E134" s="98"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="99"/>
+      <c r="F134" s="27">
+        <v>44695</v>
+      </c>
+      <c r="G134" s="99" t="s">
+        <v>302</v>
+      </c>
       <c r="H134" s="100"/>
-      <c r="I134" s="38"/>
-    </row>
-    <row r="135" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A135" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="B135" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="C135" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D135" s="115"/>
-      <c r="E135" s="116"/>
-      <c r="F135" s="65">
-        <v>44623</v>
-      </c>
-      <c r="G135" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H135" s="114"/>
-      <c r="I135" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A136" s="62" t="s">
-        <v>307</v>
-      </c>
-      <c r="B136" s="63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C136" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="115"/>
-      <c r="E136" s="116"/>
-      <c r="F136" s="65">
-        <v>44623</v>
-      </c>
-      <c r="G136" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H136" s="114"/>
-      <c r="I136" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="62" t="s">
-        <v>308</v>
-      </c>
-      <c r="B137" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C137" s="64" t="s">
+      <c r="I134" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A135" s="71" t="s">
+        <v>124</v>
+      </c>
+      <c r="B135" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C135" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135" s="72"/>
+      <c r="E135" s="76"/>
+      <c r="F135" s="27">
+        <v>44695</v>
+      </c>
+      <c r="G135" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H135" s="100"/>
+      <c r="I135" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A136" s="71" t="s">
+        <v>288</v>
+      </c>
+      <c r="B136" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C136" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136" s="97"/>
+      <c r="E136" s="98"/>
+      <c r="F136" s="27">
+        <v>44695</v>
+      </c>
+      <c r="G136" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H136" s="100"/>
+      <c r="I136" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A137" s="71" t="s">
+        <v>289</v>
+      </c>
+      <c r="B137" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="C137" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137" s="97"/>
+      <c r="E137" s="98"/>
+      <c r="F137" s="27">
+        <v>44695</v>
+      </c>
+      <c r="G137" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H137" s="100"/>
+      <c r="I137" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A138" s="71" t="s">
+        <v>290</v>
+      </c>
+      <c r="B138" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="C138" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138" s="97"/>
+      <c r="E138" s="98"/>
+      <c r="F138" s="27">
+        <v>44695</v>
+      </c>
+      <c r="G138" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H138" s="100"/>
+      <c r="I138" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A139" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B139" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C139" s="84"/>
+      <c r="D139" s="101"/>
+      <c r="E139" s="102"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="103"/>
+      <c r="H139" s="104"/>
+      <c r="I139" s="38"/>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A140" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="C140" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D137" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="E137" s="116"/>
-      <c r="F137" s="65">
-        <v>44623</v>
-      </c>
-      <c r="G137" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H137" s="114"/>
-      <c r="I137" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A138" s="62" t="s">
-        <v>309</v>
-      </c>
-      <c r="B138" s="63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C138" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="115"/>
-      <c r="E138" s="116"/>
-      <c r="F138" s="65">
-        <v>44623</v>
-      </c>
-      <c r="G138" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H138" s="114"/>
-      <c r="I138" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="B139" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C139" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D139" s="115"/>
-      <c r="E139" s="116"/>
-      <c r="F139" s="65">
-        <v>44623</v>
-      </c>
-      <c r="G139" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H139" s="114"/>
-      <c r="I139" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="62" t="s">
-        <v>311</v>
-      </c>
-      <c r="B140" s="63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C140" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D140" s="115"/>
-      <c r="E140" s="116"/>
-      <c r="F140" s="65">
-        <v>44623</v>
-      </c>
-      <c r="G140" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H140" s="114"/>
-      <c r="I140" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="B141" s="63" t="s">
-        <v>70</v>
-      </c>
-      <c r="C141" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="115"/>
-      <c r="E141" s="116"/>
-      <c r="F141" s="65">
-        <v>44623</v>
-      </c>
-      <c r="G141" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H141" s="114"/>
-      <c r="I141" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="62" t="s">
-        <v>313</v>
-      </c>
-      <c r="B142" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C142" s="64" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="115"/>
-      <c r="E142" s="116"/>
-      <c r="F142" s="65">
-        <v>44623</v>
-      </c>
-      <c r="G142" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H142" s="114"/>
-      <c r="I142" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D140" s="97" t="s">
+        <v>327</v>
+      </c>
+      <c r="E140" s="98"/>
+      <c r="F140" s="27">
+        <v>44695</v>
+      </c>
+      <c r="G140" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H140" s="100"/>
+      <c r="I140" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J140" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A141" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B141" s="93" t="s">
+        <v>231</v>
+      </c>
+      <c r="C141" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141" s="97"/>
+      <c r="E141" s="98"/>
+      <c r="F141" s="27">
+        <v>44695</v>
+      </c>
+      <c r="G141" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H141" s="100"/>
+      <c r="I141" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A142" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="B142" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C142" s="84"/>
+      <c r="D142" s="101"/>
+      <c r="E142" s="102"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="103"/>
+      <c r="H142" s="104"/>
+      <c r="I142" s="38"/>
+    </row>
+    <row r="143" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A143" s="62" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="B143" s="63" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C143" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="115"/>
-      <c r="E143" s="116"/>
+      <c r="D143" s="119"/>
+      <c r="E143" s="120"/>
       <c r="F143" s="65">
         <v>44623</v>
       </c>
-      <c r="G143" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H143" s="114"/>
+      <c r="G143" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="H143" s="118"/>
       <c r="I143" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A144" s="62" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="B144" s="63" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C144" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D144" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="E144" s="116"/>
+        <v>12</v>
+      </c>
+      <c r="D144" s="119"/>
+      <c r="E144" s="120"/>
       <c r="F144" s="65">
         <v>44623</v>
       </c>
-      <c r="G144" s="113" t="s">
-        <v>78</v>
-      </c>
-      <c r="H144" s="114"/>
+      <c r="G144" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="H144" s="118"/>
       <c r="I144" s="66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="B145" s="40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="B145" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C145" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" s="119" t="s">
+        <v>70</v>
+      </c>
+      <c r="E145" s="120"/>
+      <c r="F145" s="65">
+        <v>44623</v>
+      </c>
+      <c r="G145" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="H145" s="118"/>
+      <c r="I145" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="62" t="s">
+        <v>295</v>
+      </c>
+      <c r="B146" s="63" t="s">
+        <v>58</v>
+      </c>
+      <c r="C146" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146" s="119"/>
+      <c r="E146" s="120"/>
+      <c r="F146" s="65">
+        <v>44623</v>
+      </c>
+      <c r="G146" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="H146" s="118"/>
+      <c r="I146" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="62" t="s">
+        <v>296</v>
+      </c>
+      <c r="B147" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C147" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147" s="119"/>
+      <c r="E147" s="120"/>
+      <c r="F147" s="65">
+        <v>44623</v>
+      </c>
+      <c r="G147" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="H147" s="118"/>
+      <c r="I147" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="B148" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C148" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" s="119"/>
+      <c r="E148" s="120"/>
+      <c r="F148" s="65">
+        <v>44623</v>
+      </c>
+      <c r="G148" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="H148" s="118"/>
+      <c r="I148" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="B149" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="C149" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="119"/>
+      <c r="E149" s="120"/>
+      <c r="F149" s="65">
+        <v>44623</v>
+      </c>
+      <c r="G149" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="H149" s="118"/>
+      <c r="I149" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="B150" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C150" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="119"/>
+      <c r="E150" s="120"/>
+      <c r="F150" s="65">
+        <v>44623</v>
+      </c>
+      <c r="G150" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="H150" s="118"/>
+      <c r="I150" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="62" t="s">
+        <v>300</v>
+      </c>
+      <c r="B151" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="C151" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="119"/>
+      <c r="E151" s="120"/>
+      <c r="F151" s="65">
+        <v>44623</v>
+      </c>
+      <c r="G151" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="H151" s="118"/>
+      <c r="I151" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="B152" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C152" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" s="119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="120"/>
+      <c r="F152" s="65">
+        <v>44623</v>
+      </c>
+      <c r="G152" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="H152" s="118"/>
+      <c r="I152" s="66" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B153" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C145" s="84"/>
-      <c r="D145" s="97"/>
-      <c r="E145" s="98"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="99"/>
-      <c r="H145" s="100"/>
-      <c r="I145" s="38"/>
-    </row>
-    <row r="146" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="B146" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="C146" s="73" t="s">
+      <c r="C153" s="84"/>
+      <c r="D153" s="101"/>
+      <c r="E153" s="102"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="103"/>
+      <c r="H153" s="104"/>
+      <c r="I153" s="38"/>
+    </row>
+    <row r="154" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="B154" s="72" t="s">
+        <v>230</v>
+      </c>
+      <c r="C154" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D146" s="127" t="s">
-        <v>342</v>
-      </c>
-      <c r="E146" s="128"/>
-      <c r="F146" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G146" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H146" s="96"/>
-      <c r="I146" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="B147" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="C147" s="73" t="s">
+      <c r="D154" s="129" t="s">
+        <v>328</v>
+      </c>
+      <c r="E154" s="130"/>
+      <c r="F154" s="27">
+        <v>44695</v>
+      </c>
+      <c r="G154" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H154" s="100"/>
+      <c r="I154" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="71" t="s">
+        <v>129</v>
+      </c>
+      <c r="B155" s="72" t="s">
+        <v>231</v>
+      </c>
+      <c r="C155" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D147" s="129"/>
-      <c r="E147" s="130"/>
-      <c r="F147" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G147" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H147" s="96"/>
-      <c r="I147" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B148" s="40" t="s">
+      <c r="D155" s="131"/>
+      <c r="E155" s="132"/>
+      <c r="F155" s="27">
+        <v>44695</v>
+      </c>
+      <c r="G155" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H155" s="100"/>
+      <c r="I155" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B156" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C148" s="84"/>
-      <c r="D148" s="97"/>
-      <c r="E148" s="98"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="99"/>
-      <c r="H148" s="100"/>
-      <c r="I148" s="38"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="B149" s="72" t="s">
-        <v>244</v>
-      </c>
-      <c r="C149" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="D149" s="93"/>
-      <c r="E149" s="94"/>
-      <c r="F149" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G149" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H149" s="96"/>
-      <c r="I149" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="B150" s="72" t="s">
-        <v>245</v>
-      </c>
-      <c r="C150" s="73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D150" s="93" t="s">
-        <v>343</v>
-      </c>
-      <c r="E150" s="94"/>
-      <c r="F150" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G150" s="95" t="s">
-        <v>316</v>
-      </c>
-      <c r="H150" s="96"/>
-      <c r="I150" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B151" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="C151" s="84"/>
-      <c r="D151" s="97"/>
-      <c r="E151" s="98"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="99"/>
-      <c r="H151" s="100"/>
-      <c r="I151" s="38"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="B152" s="72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C152" s="73"/>
-      <c r="D152" s="93"/>
-      <c r="E152" s="94"/>
-      <c r="F152" s="74"/>
-      <c r="G152" s="125"/>
-      <c r="H152" s="126"/>
-      <c r="I152" s="75"/>
-    </row>
-    <row r="153" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="B153" s="72" t="s">
-        <v>75</v>
-      </c>
-      <c r="C153" s="73"/>
-      <c r="D153" s="93"/>
-      <c r="E153" s="94"/>
-      <c r="F153" s="74"/>
-      <c r="G153" s="125"/>
-      <c r="H153" s="126"/>
-      <c r="I153" s="75"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="71" t="s">
-        <v>150</v>
-      </c>
-      <c r="B154" s="72" t="s">
-        <v>246</v>
-      </c>
-      <c r="C154" s="73"/>
-      <c r="D154" s="93"/>
-      <c r="E154" s="94"/>
-      <c r="F154" s="74"/>
-      <c r="G154" s="125"/>
-      <c r="H154" s="126"/>
-      <c r="I154" s="75"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="B155" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="C155" s="84"/>
-      <c r="D155" s="97"/>
-      <c r="E155" s="98"/>
-      <c r="F155" s="37"/>
-      <c r="G155" s="99"/>
-      <c r="H155" s="100"/>
-      <c r="I155" s="38"/>
-    </row>
-    <row r="156" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="71" t="s">
-        <v>152</v>
-      </c>
-      <c r="B156" s="72" t="s">
-        <v>178</v>
-      </c>
-      <c r="C156" s="73"/>
-      <c r="D156" s="93"/>
-      <c r="E156" s="94"/>
-      <c r="F156" s="74"/>
-      <c r="G156" s="125"/>
-      <c r="H156" s="126"/>
-      <c r="I156" s="75"/>
-    </row>
-    <row r="157" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C156" s="84"/>
+      <c r="D156" s="101"/>
+      <c r="E156" s="102"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="103"/>
+      <c r="H156" s="104"/>
+      <c r="I156" s="38"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="71" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B157" s="72" t="s">
-        <v>179</v>
-      </c>
-      <c r="C157" s="73"/>
-      <c r="D157" s="93"/>
-      <c r="E157" s="94"/>
-      <c r="F157" s="74"/>
-      <c r="G157" s="125"/>
-      <c r="H157" s="126"/>
-      <c r="I157" s="75"/>
+        <v>230</v>
+      </c>
+      <c r="C157" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="97"/>
+      <c r="E157" s="98"/>
+      <c r="F157" s="27">
+        <v>44695</v>
+      </c>
+      <c r="G157" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H157" s="100"/>
+      <c r="I157" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="71" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B158" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C158" s="73"/>
-      <c r="D158" s="93"/>
-      <c r="E158" s="94"/>
-      <c r="F158" s="74"/>
-      <c r="G158" s="125"/>
-      <c r="H158" s="126"/>
-      <c r="I158" s="75"/>
+        <v>231</v>
+      </c>
+      <c r="C158" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="97" t="s">
+        <v>329</v>
+      </c>
+      <c r="E158" s="98"/>
+      <c r="F158" s="27">
+        <v>44695</v>
+      </c>
+      <c r="G158" s="99" t="s">
+        <v>302</v>
+      </c>
+      <c r="H158" s="100"/>
+      <c r="I158" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="35" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B159" s="40" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="C159" s="84"/>
-      <c r="D159" s="97"/>
-      <c r="E159" s="98"/>
+      <c r="D159" s="101"/>
+      <c r="E159" s="102"/>
       <c r="F159" s="37"/>
-      <c r="G159" s="99"/>
-      <c r="H159" s="100"/>
+      <c r="G159" s="103"/>
+      <c r="H159" s="104"/>
       <c r="I159" s="38"/>
     </row>
-    <row r="160" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="71" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B160" s="72" t="s">
-        <v>177</v>
+        <v>62</v>
       </c>
       <c r="C160" s="73"/>
-      <c r="D160" s="93"/>
-      <c r="E160" s="94"/>
+      <c r="D160" s="97"/>
+      <c r="E160" s="98"/>
       <c r="F160" s="74"/>
-      <c r="G160" s="125"/>
-      <c r="H160" s="126"/>
+      <c r="G160" s="133"/>
+      <c r="H160" s="134"/>
       <c r="I160" s="75"/>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="71" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B161" s="72" t="s">
-        <v>167</v>
+        <v>64</v>
       </c>
       <c r="C161" s="73"/>
-      <c r="D161" s="93"/>
-      <c r="E161" s="94"/>
+      <c r="D161" s="97"/>
+      <c r="E161" s="98"/>
       <c r="F161" s="74"/>
-      <c r="G161" s="125"/>
-      <c r="H161" s="126"/>
+      <c r="G161" s="133"/>
+      <c r="H161" s="134"/>
       <c r="I161" s="75"/>
     </row>
-    <row r="162" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="71" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B162" s="72" t="s">
-        <v>176</v>
+        <v>232</v>
       </c>
       <c r="C162" s="73"/>
-      <c r="D162" s="93"/>
-      <c r="E162" s="94"/>
+      <c r="D162" s="97"/>
+      <c r="E162" s="98"/>
       <c r="F162" s="74"/>
-      <c r="G162" s="125"/>
-      <c r="H162" s="126"/>
+      <c r="G162" s="133"/>
+      <c r="H162" s="134"/>
       <c r="I162" s="75"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="71" t="s">
-        <v>166</v>
-      </c>
-      <c r="B163" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C163" s="73"/>
-      <c r="D163" s="93"/>
-      <c r="E163" s="94"/>
-      <c r="F163" s="74"/>
-      <c r="G163" s="125"/>
-      <c r="H163" s="126"/>
-      <c r="I163" s="75"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="B164" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C164" s="84"/>
+      <c r="A163" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B163" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C163" s="84"/>
+      <c r="D163" s="101"/>
+      <c r="E163" s="102"/>
+      <c r="F163" s="37"/>
+      <c r="G163" s="103"/>
+      <c r="H163" s="104"/>
+      <c r="I163" s="38"/>
+    </row>
+    <row r="164" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A164" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="B164" s="72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C164" s="73"/>
       <c r="D164" s="97"/>
       <c r="E164" s="98"/>
-      <c r="F164" s="37"/>
-      <c r="G164" s="99"/>
-      <c r="H164" s="100"/>
-      <c r="I164" s="38"/>
+      <c r="F164" s="74"/>
+      <c r="G164" s="133"/>
+      <c r="H164" s="134"/>
+      <c r="I164" s="75"/>
     </row>
     <row r="165" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A165" s="71" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B165" s="72" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C165" s="73"/>
-      <c r="D165" s="93"/>
-      <c r="E165" s="94"/>
+      <c r="D165" s="97"/>
+      <c r="E165" s="98"/>
       <c r="F165" s="74"/>
-      <c r="G165" s="125"/>
-      <c r="H165" s="126"/>
+      <c r="G165" s="133"/>
+      <c r="H165" s="134"/>
       <c r="I165" s="75"/>
     </row>
-    <row r="166" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="71" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B166" s="72" t="s">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="C166" s="73"/>
-      <c r="D166" s="93"/>
-      <c r="E166" s="94"/>
+      <c r="D166" s="97"/>
+      <c r="E166" s="98"/>
       <c r="F166" s="74"/>
-      <c r="G166" s="125"/>
-      <c r="H166" s="126"/>
+      <c r="G166" s="133"/>
+      <c r="H166" s="134"/>
       <c r="I166" s="75"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A167" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="B167" s="72" t="s">
-        <v>74</v>
-      </c>
-      <c r="C167" s="73"/>
-      <c r="D167" s="93"/>
-      <c r="E167" s="94"/>
-      <c r="F167" s="74"/>
-      <c r="G167" s="125"/>
-      <c r="H167" s="126"/>
-      <c r="I167" s="75"/>
+      <c r="A167" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B167" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C167" s="84"/>
+      <c r="D167" s="101"/>
+      <c r="E167" s="102"/>
+      <c r="F167" s="37"/>
+      <c r="G167" s="103"/>
+      <c r="H167" s="104"/>
+      <c r="I167" s="38"/>
+    </row>
+    <row r="168" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="B168" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C168" s="73"/>
+      <c r="D168" s="97"/>
+      <c r="E168" s="98"/>
+      <c r="F168" s="74"/>
+      <c r="G168" s="133"/>
+      <c r="H168" s="134"/>
+      <c r="I168" s="75"/>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="B169" s="72" t="s">
+        <v>153</v>
+      </c>
+      <c r="C169" s="73"/>
+      <c r="D169" s="97"/>
+      <c r="E169" s="98"/>
+      <c r="F169" s="74"/>
+      <c r="G169" s="133"/>
+      <c r="H169" s="134"/>
+      <c r="I169" s="75"/>
+    </row>
+    <row r="170" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A170" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="B170" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="C170" s="73"/>
+      <c r="D170" s="97"/>
+      <c r="E170" s="98"/>
+      <c r="F170" s="74"/>
+      <c r="G170" s="133"/>
+      <c r="H170" s="134"/>
+      <c r="I170" s="75"/>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="71" t="s">
+        <v>152</v>
+      </c>
+      <c r="B171" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C171" s="73"/>
+      <c r="D171" s="97"/>
+      <c r="E171" s="98"/>
+      <c r="F171" s="74"/>
+      <c r="G171" s="133"/>
+      <c r="H171" s="134"/>
+      <c r="I171" s="75"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B172" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C172" s="84"/>
+      <c r="D172" s="101"/>
+      <c r="E172" s="102"/>
+      <c r="F172" s="37"/>
+      <c r="G172" s="103"/>
+      <c r="H172" s="104"/>
+      <c r="I172" s="38"/>
+    </row>
+    <row r="173" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A173" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="B173" s="72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C173" s="73"/>
+      <c r="D173" s="97"/>
+      <c r="E173" s="98"/>
+      <c r="F173" s="74"/>
+      <c r="G173" s="133"/>
+      <c r="H173" s="134"/>
+      <c r="I173" s="75"/>
+    </row>
+    <row r="174" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A174" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="B174" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="C174" s="73"/>
+      <c r="D174" s="97"/>
+      <c r="E174" s="98"/>
+      <c r="F174" s="74"/>
+      <c r="G174" s="133"/>
+      <c r="H174" s="134"/>
+      <c r="I174" s="75"/>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="B175" s="72" t="s">
+        <v>63</v>
+      </c>
+      <c r="C175" s="73"/>
+      <c r="D175" s="97"/>
+      <c r="E175" s="98"/>
+      <c r="F175" s="74"/>
+      <c r="G175" s="133"/>
+      <c r="H175" s="134"/>
+      <c r="I175" s="75"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -6070,7 +6241,10 @@
       <pageSetup paperSize="8" scale="91" fitToHeight="0" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="292">
+  <mergeCells count="295">
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="G51:H51"/>
     <mergeCell ref="G52:H52"/>
@@ -6081,90 +6255,102 @@
     <mergeCell ref="G44:H44"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="G125:H125"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="G126:H126"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="G163:H163"/>
     <mergeCell ref="D164:E164"/>
     <mergeCell ref="G164:H164"/>
     <mergeCell ref="D165:E165"/>
     <mergeCell ref="G165:H165"/>
     <mergeCell ref="D158:E158"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="G162:H162"/>
     <mergeCell ref="G158:H158"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="D154:E155"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="D147:E147"/>
     <mergeCell ref="G147:H147"/>
     <mergeCell ref="D148:E148"/>
     <mergeCell ref="G148:H148"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="G140:H140"/>
     <mergeCell ref="D141:E141"/>
     <mergeCell ref="G141:H141"/>
     <mergeCell ref="D142:E142"/>
     <mergeCell ref="G142:H142"/>
     <mergeCell ref="D143:E143"/>
     <mergeCell ref="G143:H143"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="D146:E147"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="G135:H135"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F7:H7"/>
     <mergeCell ref="F8:H8"/>
@@ -6172,32 +6358,32 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B9:D9"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="G124:H124"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="G69:H69"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="G121:H121"/>
     <mergeCell ref="D122:E122"/>
     <mergeCell ref="G122:H122"/>
     <mergeCell ref="D123:E123"/>
     <mergeCell ref="G123:H123"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="G124:H124"/>
     <mergeCell ref="D120:E120"/>
     <mergeCell ref="G120:H120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="G114:H114"/>
     <mergeCell ref="D115:E115"/>
     <mergeCell ref="G115:H115"/>
     <mergeCell ref="D116:E116"/>
     <mergeCell ref="G116:H116"/>
     <mergeCell ref="D117:E117"/>
     <mergeCell ref="G117:H117"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="G119:H119"/>
     <mergeCell ref="D111:E111"/>
     <mergeCell ref="G111:H111"/>
     <mergeCell ref="D112:E112"/>
@@ -6302,10 +6488,6 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D65:E65"/>
     <mergeCell ref="D50:E50"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="D59:E59"/>
@@ -6315,15 +6497,6 @@
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
     <mergeCell ref="G64:H64"/>
     <mergeCell ref="G65:H65"/>
     <mergeCell ref="D88:E88"/>
@@ -6347,6 +6520,7 @@
     <mergeCell ref="G84:H84"/>
     <mergeCell ref="G85:H85"/>
     <mergeCell ref="G86:H86"/>
+    <mergeCell ref="D65:E65"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="G89:H89"/>
     <mergeCell ref="D100:E100"/>
@@ -6365,313 +6539,323 @@
     <mergeCell ref="G93:H93"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="C101:C103 C105 C89:C93 C115:C120 C95:C99 C111:C113 C122:C124 C48:C49 C51 C24:C26 C55:C65 C14:C21 C28:C30 C36:C44 C46 C67:C85">
-    <cfRule type="cellIs" dxfId="61" priority="104" operator="equal">
+  <conditionalFormatting sqref="C101:C103 C105 C89:C93 C95:C99 C111:C113 C123:C128 C48:C49 C51 C24:C26 C55:C65 C14:C21 C28:C30 C36:C44 C46 C67:C85 C120:C121">
+    <cfRule type="cellIs" dxfId="63" priority="107" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="cellIs" dxfId="60" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="106" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
+    <cfRule type="cellIs" dxfId="61" priority="101" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="cellIs" dxfId="60" priority="100" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
     <cfRule type="cellIs" dxfId="59" priority="98" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
+  <conditionalFormatting sqref="C122">
     <cfRule type="cellIs" dxfId="58" priority="97" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="57" priority="95" operator="equal">
+  <conditionalFormatting sqref="C139">
+    <cfRule type="cellIs" dxfId="57" priority="96" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="56" priority="94" operator="equal">
+  <conditionalFormatting sqref="C142">
+    <cfRule type="cellIs" dxfId="56" priority="95" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="cellIs" dxfId="55" priority="93" operator="equal">
+  <conditionalFormatting sqref="C153">
+    <cfRule type="cellIs" dxfId="55" priority="92" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="cellIs" dxfId="54" priority="91" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="cellIs" dxfId="53" priority="90" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="cellIs" dxfId="52" priority="86" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106:C110">
+    <cfRule type="cellIs" dxfId="51" priority="82" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="50" priority="81" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="cellIs" dxfId="49" priority="79" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145">
+    <cfRule type="cellIs" dxfId="48" priority="77" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C144">
+    <cfRule type="cellIs" dxfId="47" priority="76" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C146">
+    <cfRule type="cellIs" dxfId="46" priority="75" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="cellIs" dxfId="44" priority="73" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="cellIs" dxfId="43" priority="72" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="42" priority="71" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="cellIs" dxfId="41" priority="70" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="cellIs" dxfId="40" priority="69" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
+    <cfRule type="cellIs" dxfId="39" priority="60" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C53">
+    <cfRule type="cellIs" dxfId="38" priority="53" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="cellIs" dxfId="37" priority="66" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="cellIs" dxfId="36" priority="65" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C167">
+    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="cellIs" dxfId="33" priority="61" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="cellIs" dxfId="32" priority="52" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C168">
+    <cfRule type="cellIs" dxfId="31" priority="45" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C169">
+    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C170">
+    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C171">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C175">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C172">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C173">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C174">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C134">
-    <cfRule type="cellIs" dxfId="54" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C145">
-    <cfRule type="cellIs" dxfId="53" priority="89" operator="equal">
+  <conditionalFormatting sqref="C45">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
-    <cfRule type="cellIs" dxfId="52" priority="88" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="cellIs" dxfId="51" priority="87" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="cellIs" dxfId="50" priority="83" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106:C110">
-    <cfRule type="cellIs" dxfId="48" priority="79" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="cellIs" dxfId="47" priority="78" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="cellIs" dxfId="46" priority="76" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
-    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
-    <cfRule type="cellIs" dxfId="44" priority="73" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
-    <cfRule type="cellIs" dxfId="43" priority="72" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
-    <cfRule type="cellIs" dxfId="42" priority="71" operator="equal">
+  <conditionalFormatting sqref="C86:C87">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141">
-    <cfRule type="cellIs" dxfId="41" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="cellIs" dxfId="40" priority="69" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="cellIs" dxfId="39" priority="68" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="cellIs" dxfId="38" priority="67" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C146">
-    <cfRule type="cellIs" dxfId="37" priority="66" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
-    <cfRule type="cellIs" dxfId="36" priority="57" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C53">
-    <cfRule type="cellIs" dxfId="35" priority="50" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
-    <cfRule type="cellIs" dxfId="34" priority="63" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="cellIs" dxfId="33" priority="62" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
-    <cfRule type="cellIs" dxfId="31" priority="59" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="cellIs" dxfId="30" priority="58" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="29" priority="49" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="cellIs" dxfId="28" priority="42" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="27" priority="40" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="cellIs" dxfId="25" priority="35" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
-    <cfRule type="cellIs" dxfId="22" priority="30" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="21" priority="29" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="20" priority="28" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C167">
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C165">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
+  <conditionalFormatting sqref="C115:C119">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C86:C87">
+  <conditionalFormatting sqref="C129:C132">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C130 C135:C144 C152:C154 C165:C167 C146:C147 C149:C150 C156:C163 C132:C133">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C140:C141 C143:C152 C160:C162 C173:C175 C154:C155 C157:C158 C164:C171 C13:C138">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6896,10 +7080,10 @@
       <c r="I13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="103" t="s">
+      <c r="J13" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="104"/>
+      <c r="K13" s="108"/>
       <c r="L13" s="27">
         <v>44317</v>
       </c>
@@ -6927,10 +7111,10 @@
       <c r="I14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="103" t="s">
+      <c r="J14" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="104"/>
+      <c r="K14" s="108"/>
       <c r="L14" s="27">
         <v>44317</v>
       </c>
@@ -6958,10 +7142,10 @@
       <c r="I15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="103" t="s">
+      <c r="J15" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="104"/>
+      <c r="K15" s="108"/>
       <c r="L15" s="27">
         <v>44317</v>
       </c>

--- a/BN/wwwroot/Database/HRGIS_TRAINING_TestCase_MTP_rev01.xlsx
+++ b/BN/wwwroot/Database/HRGIS_TRAINING_TestCase_MTP_rev01.xlsx
@@ -16,14 +16,17 @@
     <sheet name="Page1 (sample)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Page1!$A$3:$I$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Page1!$12:$12</definedName>
+    <definedName name="Z_0FAE12C6_CB85_42BD_84FF_3C4AFFE70ABF_.wvu.FilterData" localSheetId="0" hidden="1">Page1!$A$3:$I$3</definedName>
     <definedName name="Z_0FAE12C6_CB85_42BD_84FF_3C4AFFE70ABF_.wvu.PrintTitles" localSheetId="0" hidden="1">Page1!$12:$12</definedName>
+    <definedName name="Z_49FC3580_D803_4F15_9B66_67158C68A06A_.wvu.FilterData" localSheetId="0" hidden="1">Page1!$A$3:$I$3</definedName>
     <definedName name="Z_49FC3580_D803_4F15_9B66_67158C68A06A_.wvu.PrintTitles" localSheetId="0" hidden="1">Page1!$12:$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
-    <customWorkbookView name="Kanchana Saipanus - Personal View" guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" mergeInterval="0" personalView="1" maximized="1" xWindow="1272" yWindow="-14" windowWidth="1296" windowHeight="1000" activeSheetId="1"/>
     <customWorkbookView name="Napassakorn Singtayom - Personal View" guid="{0FAE12C6-CB85-42BD-84FF-3C4AFFE70ABF}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="1"/>
+    <customWorkbookView name="Kanchana Saipanus - Personal View" guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="364">
   <si>
     <t>Project Test Cases</t>
   </si>
@@ -1039,18 +1042,6 @@
     <t>ขอแก้เป็น 10 วันตาม ระเบียบ ISO</t>
   </si>
   <si>
-    <t>ถ้าไม่กรอกชื่อผู้สอน ห้ามอนุญาติให้ Safe</t>
-  </si>
-  <si>
-    <t>แก้แล้ว</t>
-  </si>
-  <si>
-    <t>แก้แล้ว แต่งงว่า Band ต้องทำด้วยไหม</t>
-  </si>
-  <si>
-    <t>มีแจ้งเตือนอยู่แล้ว</t>
-  </si>
-  <si>
     <t>หากลงทะเบียนสำเร็จ ข้อมูลที่แสดงมีความถูกต้อง</t>
   </si>
   <si>
@@ -1112,6 +1103,47 @@
   </si>
   <si>
     <t>กำลังเพิ่มฟังก์ชันให้</t>
+  </si>
+  <si>
+    <t>- ลองใช้รหัสพี่วิสร้างคอร์ส เพิ่มชื่อเทรนเนอร์แล้ว แต่ช่องที่ให้กรอก Trainer ไม่ขึ้น
+-ถ้าไม่กรอกชื่อผู้สอน ห้ามอนุญาติให้ Safe</t>
+  </si>
+  <si>
+    <t>ตัด Student's approver ออกแล้วเปลี่ยนเป็น MTP member แทนค่ะ</t>
+  </si>
+  <si>
+    <t>- แสดงชื่อหลักสูตรภาษาไทยไม่ครบ เช่น "ทดสอบระบบ 1" แต่แสดงแค่ "1"
+'- ช่องตำแหน่งดูกว้างไป และช่องเซ็นไม่ค่อย balance</t>
+  </si>
+  <si>
+    <t>รีพอร์ตขาดชื่อภาษาไทยค่ะ</t>
+  </si>
+  <si>
+    <t>- ถ้ากรอกวัน END date หลัง START date ให้แจ้งว่ากรอกผิด เช่น START date คือ 12 Jun 22 ,END date คือ 11 May 22
+'- เนื่องจากข้อมูล Band เราไม่ได้บังคับใส่ ถ้าไม่มีข้อมูล ให้สามารถ add Trainee ได้ทุก band</t>
+  </si>
+  <si>
+    <t>ตาราง Pre/Post test ไม่เท่ากัน</t>
+  </si>
+  <si>
+    <t>แก้แล้ว 20-May-2022</t>
+  </si>
+  <si>
+    <t>แก้แล้ว 18-May-2022</t>
+  </si>
+  <si>
+    <t>มีแจ้งเตือนอยู่แล้ว 18-May-2022</t>
+  </si>
+  <si>
+    <t>เช็คแล้ว ปกติ 20-May-2022</t>
+  </si>
+  <si>
+    <t>20-May-2022
+- ข้อ 1 แก้แล้ว 20-May-2022
+- ข้อ 2 ขอให้ผู้ใช้งานเลือกทุกแบนด์แทนดีกว่า</t>
+  </si>
+  <si>
+    <t>ใส่ 9 หลักไม่ได้ค่ะ</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1543,12 +1575,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1609,7 +1635,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1618,12 +1669,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1636,17 +1681,62 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1666,65 +1756,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1737,17 +1770,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="63">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2391,6 +2414,435 @@
 </styleSheet>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7AB995C4-0AFE-4E73-AFB3-774C8AD3AECA}" diskRevisions="1" revisionId="45" version="4">
+  <header guid="{6AD77E53-8268-4192-9ADA-8C2C24D8338E}" dateTime="2022-05-20T14:27:06" maxSheetId="3" userName="Kanchana Saipanus" r:id="rId1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{152D1C1E-23C0-40B9-96A9-53FD7A8ECF3A}" dateTime="2022-05-20T14:28:45" maxSheetId="3" userName="Kanchana Saipanus" r:id="rId2">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{792ABF30-DAB1-4223-A311-E1C14D93F7CC}" dateTime="2022-05-20T14:39:06" maxSheetId="3" userName="Napassakorn Singtayom" r:id="rId3" minRId="3" maxRId="16">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7AB995C4-0AFE-4E73-AFB3-774C8AD3AECA}" dateTime="2022-05-20T14:39:38" maxSheetId="3" userName="Napassakorn Singtayom" r:id="rId4" minRId="19" maxRId="45">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcv guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_49FC3580_D803_4F15_9B66_67158C68A06A_.wvu.PrintTitles" hidden="1" oldHidden="1">
+    <formula>Page1!$12:$12</formula>
+    <oldFormula>Page1!$12:$12</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_49FC3580_D803_4F15_9B66_67158C68A06A_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Page1!$A$3:$I$3</formula>
+    <oldFormula>Page1!$A$3:$I$3</oldFormula>
+  </rdn>
+  <rcv guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="3" sId="1">
+    <nc r="C164" t="inlineStr">
+      <is>
+        <t>Fail</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4" sId="1">
+    <nc r="D164" t="inlineStr">
+      <is>
+        <t>ใส่ 9 หลักไม่ได้ค่ะ</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="5" sId="1">
+    <nc r="C165" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="6" sId="1">
+    <nc r="C166" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="7" sId="1">
+    <nc r="C168" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="8" sId="1">
+    <nc r="C169" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="9" sId="1">
+    <nc r="C170" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="10" sId="1">
+    <nc r="C171" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="11" sId="1">
+    <nc r="C173" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="12" sId="1">
+    <nc r="C174" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="13" sId="1">
+    <nc r="C175" t="inlineStr">
+      <is>
+        <t>Pass</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="F164" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="14" sId="1" odxf="1" dxf="1">
+    <nc r="G164" t="inlineStr">
+      <is>
+        <t>Napassakorn S.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rfmt sheetId="1" sqref="H164" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="15" sId="1" odxf="1" dxf="1">
+    <nc r="I164" t="inlineStr">
+      <is>
+        <t>MTP</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="16" sId="1" numFmtId="19">
+    <nc r="F164">
+      <v>44701</v>
+    </nc>
+  </rcc>
+  <rcv guid="{0FAE12C6-CB85-42BD-84FF-3C4AFFE70ABF}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_0FAE12C6_CB85_42BD_84FF_3C4AFFE70ABF_.wvu.PrintTitles" hidden="1" oldHidden="1">
+    <formula>Page1!$12:$12</formula>
+    <oldFormula>Page1!$12:$12</oldFormula>
+  </rdn>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_0FAE12C6_CB85_42BD_84FF_3C4AFFE70ABF_.wvu.FilterData" hidden="1" oldHidden="1">
+    <formula>Page1!$A$3:$I$3</formula>
+  </rdn>
+  <rcv guid="{0FAE12C6-CB85-42BD-84FF-3C4AFFE70ABF}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="19" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="F165">
+      <v>44701</v>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="20" sId="1" odxf="1" dxf="1">
+    <nc r="G165" t="inlineStr">
+      <is>
+        <t>Napassakorn S.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rfmt sheetId="1" sqref="H165" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="21" sId="1" odxf="1" dxf="1">
+    <nc r="I165" t="inlineStr">
+      <is>
+        <t>MTP</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="22" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="F166">
+      <v>44701</v>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="23" sId="1" odxf="1" dxf="1">
+    <nc r="G166" t="inlineStr">
+      <is>
+        <t>Napassakorn S.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rfmt sheetId="1" sqref="H166" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="24" sId="1" odxf="1" dxf="1">
+    <nc r="I166" t="inlineStr">
+      <is>
+        <t>MTP</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="25" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="F168">
+      <v>44701</v>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="26" sId="1" odxf="1" dxf="1">
+    <nc r="G168" t="inlineStr">
+      <is>
+        <t>Napassakorn S.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rfmt sheetId="1" sqref="H168" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="27" sId="1" odxf="1" dxf="1">
+    <nc r="I168" t="inlineStr">
+      <is>
+        <t>MTP</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="28" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="F169">
+      <v>44701</v>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="29" sId="1" odxf="1" dxf="1">
+    <nc r="G169" t="inlineStr">
+      <is>
+        <t>Napassakorn S.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rfmt sheetId="1" sqref="H169" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="30" sId="1" odxf="1" dxf="1">
+    <nc r="I169" t="inlineStr">
+      <is>
+        <t>MTP</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="31" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="F170">
+      <v>44701</v>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="32" sId="1" odxf="1" dxf="1">
+    <nc r="G170" t="inlineStr">
+      <is>
+        <t>Napassakorn S.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rfmt sheetId="1" sqref="H170" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="33" sId="1" odxf="1" dxf="1">
+    <nc r="I170" t="inlineStr">
+      <is>
+        <t>MTP</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="34" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="F171">
+      <v>44701</v>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="35" sId="1" odxf="1" dxf="1">
+    <nc r="G171" t="inlineStr">
+      <is>
+        <t>Napassakorn S.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rfmt sheetId="1" sqref="H171" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="36" sId="1" odxf="1" dxf="1">
+    <nc r="I171" t="inlineStr">
+      <is>
+        <t>MTP</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="37" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="F173">
+      <v>44701</v>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="38" sId="1" odxf="1" dxf="1">
+    <nc r="G173" t="inlineStr">
+      <is>
+        <t>Napassakorn S.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rfmt sheetId="1" sqref="H173" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="39" sId="1" odxf="1" dxf="1">
+    <nc r="I173" t="inlineStr">
+      <is>
+        <t>MTP</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="40" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="F174">
+      <v>44701</v>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="41" sId="1" odxf="1" dxf="1">
+    <nc r="G174" t="inlineStr">
+      <is>
+        <t>Napassakorn S.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rfmt sheetId="1" sqref="H174" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="42" sId="1" odxf="1" dxf="1">
+    <nc r="I174" t="inlineStr">
+      <is>
+        <t>MTP</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="43" sId="1" odxf="1" dxf="1" numFmtId="19">
+    <nc r="F175">
+      <v>44701</v>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="44" sId="1" odxf="1" dxf="1">
+    <nc r="G175" t="inlineStr">
+      <is>
+        <t>Napassakorn S.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rfmt sheetId="1" sqref="H175" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="45" sId="1" odxf="1" dxf="1">
+    <nc r="I175" t="inlineStr">
+      <is>
+        <t>MTP</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2659,8 +3111,8 @@
   </sheetPr>
   <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A112" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A130" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B146" sqref="B146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2670,6 +3122,7 @@
     <col min="3" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
@@ -2693,10 +3146,10 @@
       <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="121" t="s">
+      <c r="F3" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="122"/>
+      <c r="G3" s="120"/>
       <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
@@ -2740,19 +3193,19 @@
       <c r="A7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="B7" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="128"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="126"/>
       <c r="E7" s="48">
         <v>44621</v>
       </c>
-      <c r="F7" s="123" t="s">
+      <c r="F7" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="124"/>
-      <c r="H7" s="125"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="123"/>
       <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2761,32 +3214,32 @@
       <c r="A8" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="124" t="s">
         <v>83</v>
       </c>
-      <c r="C8" s="127"/>
-      <c r="D8" s="128"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="126"/>
       <c r="E8" s="22">
         <v>44639</v>
       </c>
-      <c r="F8" s="123" t="s">
+      <c r="F8" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="124"/>
-      <c r="H8" s="125"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="128"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="126"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="124"/>
-      <c r="H9" s="125"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="123"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2836,11 +3289,11 @@
         <v>185</v>
       </c>
       <c r="C13" s="41"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="107"/>
       <c r="F13" s="37"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="109"/>
       <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
@@ -2853,15 +3306,15 @@
       <c r="C14" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
       <c r="F14" s="27">
         <v>44695</v>
       </c>
-      <c r="G14" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H14" s="100"/>
+      <c r="G14" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H14" s="103"/>
       <c r="I14" s="28" t="s">
         <v>68</v>
       </c>
@@ -2873,18 +3326,18 @@
       <c r="B15" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C15" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="107"/>
-      <c r="E15" s="108"/>
+      <c r="C15" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="98"/>
+      <c r="E15" s="99"/>
       <c r="F15" s="27">
         <v>44695</v>
       </c>
-      <c r="G15" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H15" s="100"/>
+      <c r="G15" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H15" s="103"/>
       <c r="I15" s="28" t="s">
         <v>68</v>
       </c>
@@ -2896,30 +3349,30 @@
       <c r="B16" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
+      <c r="C16" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="98"/>
+      <c r="E16" s="99"/>
       <c r="F16" s="27">
         <v>44695</v>
       </c>
-      <c r="G16" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H16" s="100"/>
+      <c r="G16" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H16" s="103"/>
       <c r="I16" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="33" t="s">
         <v>88</v>
       </c>
       <c r="B17" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="83" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="59"/>
@@ -2927,22 +3380,22 @@
       <c r="F17" s="27">
         <v>44695</v>
       </c>
-      <c r="G17" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H17" s="100"/>
+      <c r="G17" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H17" s="103"/>
       <c r="I17" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="33" t="s">
         <v>170</v>
       </c>
       <c r="B18" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="C18" s="85" t="s">
+      <c r="C18" s="83" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="59"/>
@@ -2950,84 +3403,85 @@
       <c r="F18" s="27">
         <v>44695</v>
       </c>
-      <c r="G18" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H18" s="100"/>
+      <c r="G18" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H18" s="103"/>
       <c r="I18" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>200</v>
       </c>
       <c r="B19" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="C19" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
+      <c r="C19" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="98"/>
+      <c r="E19" s="99"/>
       <c r="F19" s="27">
         <v>44695</v>
       </c>
-      <c r="G19" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H19" s="100"/>
+      <c r="G19" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H19" s="103"/>
       <c r="I19" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="33" t="s">
         <v>203</v>
       </c>
       <c r="B20" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="C20" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="108"/>
+      <c r="C20" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="98"/>
+      <c r="E20" s="99"/>
       <c r="F20" s="27">
         <v>44695</v>
       </c>
-      <c r="G20" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H20" s="100"/>
+      <c r="G20" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H20" s="103"/>
       <c r="I20" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>204</v>
       </c>
       <c r="B21" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="C21" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="107"/>
-      <c r="E21" s="108"/>
+      <c r="C21" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="98"/>
+      <c r="E21" s="99"/>
       <c r="F21" s="27">
         <v>44695</v>
       </c>
-      <c r="G21" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H21" s="100"/>
+      <c r="G21" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H21" s="103"/>
       <c r="I21" s="28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="95"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="35">
         <v>2</v>
       </c>
@@ -3035,14 +3489,14 @@
         <v>41</v>
       </c>
       <c r="C22" s="41"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="107"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="104"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109"/>
       <c r="I22" s="38"/>
     </row>
-    <row r="23" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A23" s="33" t="s">
         <v>157</v>
       </c>
@@ -3052,20 +3506,20 @@
       <c r="C23" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="107"/>
-      <c r="E23" s="108"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="99"/>
       <c r="F23" s="27">
         <v>44695</v>
       </c>
-      <c r="G23" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H23" s="100"/>
+      <c r="G23" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H23" s="103"/>
       <c r="I23" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
         <v>158</v>
       </c>
@@ -3075,20 +3529,20 @@
       <c r="C24" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="99"/>
       <c r="F24" s="27">
         <v>44695</v>
       </c>
-      <c r="G24" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H24" s="100"/>
+      <c r="G24" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H24" s="103"/>
       <c r="I24" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A25" s="33" t="s">
         <v>159</v>
       </c>
@@ -3098,20 +3552,20 @@
       <c r="C25" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="99"/>
       <c r="F25" s="27">
         <v>44695</v>
       </c>
-      <c r="G25" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H25" s="100"/>
+      <c r="G25" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H25" s="103"/>
       <c r="I25" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A26" s="33" t="s">
         <v>155</v>
       </c>
@@ -3121,20 +3575,20 @@
       <c r="C26" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="107"/>
-      <c r="E26" s="108"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="99"/>
       <c r="F26" s="27">
         <v>44695</v>
       </c>
-      <c r="G26" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H26" s="100"/>
+      <c r="G26" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="103"/>
       <c r="I26" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A27" s="33" t="s">
         <v>89</v>
       </c>
@@ -3144,20 +3598,20 @@
       <c r="C27" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="107"/>
-      <c r="E27" s="108"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="99"/>
       <c r="F27" s="27">
         <v>44695</v>
       </c>
-      <c r="G27" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H27" s="100"/>
+      <c r="G27" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H27" s="103"/>
       <c r="I27" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="33" t="s">
         <v>160</v>
       </c>
@@ -3167,68 +3621,68 @@
       <c r="C28" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="109" t="s">
+      <c r="D28" s="129" t="s">
         <v>303</v>
       </c>
-      <c r="E28" s="110"/>
+      <c r="E28" s="130"/>
       <c r="F28" s="27">
         <v>44695</v>
       </c>
-      <c r="G28" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H28" s="100"/>
+      <c r="G28" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H28" s="103"/>
       <c r="I28" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="33" t="s">
         <v>172</v>
       </c>
       <c r="B29" s="53" t="s">
         <v>156</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="112"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="132"/>
       <c r="F29" s="27">
         <v>44695</v>
       </c>
-      <c r="G29" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H29" s="100"/>
+      <c r="G29" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H29" s="103"/>
       <c r="I29" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A30" s="33" t="s">
         <v>173</v>
       </c>
       <c r="B30" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C30" s="85" t="s">
+      <c r="C30" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="113"/>
-      <c r="E30" s="114"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="134"/>
       <c r="F30" s="27">
         <v>44695</v>
       </c>
-      <c r="G30" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H30" s="100"/>
+      <c r="G30" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H30" s="103"/>
       <c r="I30" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="33" t="s">
         <v>174</v>
       </c>
@@ -3238,20 +3692,20 @@
       <c r="C31" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="108"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="99"/>
       <c r="F31" s="27">
         <v>44695</v>
       </c>
-      <c r="G31" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H31" s="100"/>
+      <c r="G31" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H31" s="103"/>
       <c r="I31" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="33" t="s">
         <v>174</v>
       </c>
@@ -3261,15 +3715,15 @@
       <c r="C32" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="107"/>
-      <c r="E32" s="108"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="99"/>
       <c r="F32" s="27">
         <v>44695</v>
       </c>
-      <c r="G32" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H32" s="100"/>
+      <c r="G32" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H32" s="103"/>
       <c r="I32" s="28" t="s">
         <v>68</v>
       </c>
@@ -3284,15 +3738,15 @@
       <c r="C33" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="107"/>
-      <c r="E33" s="108"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="99"/>
       <c r="F33" s="27">
         <v>44695</v>
       </c>
-      <c r="G33" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H33" s="100"/>
+      <c r="G33" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H33" s="103"/>
       <c r="I33" s="28" t="s">
         <v>68</v>
       </c>
@@ -3307,17 +3761,17 @@
       <c r="C34" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="107" t="s">
+      <c r="D34" s="98" t="s">
         <v>307</v>
       </c>
-      <c r="E34" s="108"/>
+      <c r="E34" s="99"/>
       <c r="F34" s="27">
         <v>44695</v>
       </c>
-      <c r="G34" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H34" s="100"/>
+      <c r="G34" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H34" s="103"/>
       <c r="I34" s="28" t="s">
         <v>68</v>
       </c>
@@ -3330,11 +3784,11 @@
         <v>42</v>
       </c>
       <c r="C35" s="36"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="102"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="107"/>
       <c r="F35" s="37"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="104"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="109"/>
       <c r="I35" s="38"/>
     </row>
     <row r="36" spans="1:10" ht="57" x14ac:dyDescent="0.2">
@@ -3347,15 +3801,15 @@
       <c r="C36" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="107"/>
-      <c r="E36" s="108"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="99"/>
       <c r="F36" s="27">
         <v>44695</v>
       </c>
-      <c r="G36" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H36" s="100"/>
+      <c r="G36" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H36" s="103"/>
       <c r="I36" s="28" t="s">
         <v>68</v>
       </c>
@@ -3370,15 +3824,15 @@
       <c r="C37" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="107"/>
-      <c r="E37" s="108"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="99"/>
       <c r="F37" s="27">
         <v>44695</v>
       </c>
-      <c r="G37" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H37" s="100"/>
+      <c r="G37" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H37" s="103"/>
       <c r="I37" s="28" t="s">
         <v>68</v>
       </c>
@@ -3390,7 +3844,7 @@
       <c r="B38" s="67" t="s">
         <v>225</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="84" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="67"/>
@@ -3398,10 +3852,10 @@
       <c r="F38" s="27">
         <v>44695</v>
       </c>
-      <c r="G38" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H38" s="100"/>
+      <c r="G38" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H38" s="103"/>
       <c r="I38" s="28" t="s">
         <v>68</v>
       </c>
@@ -3413,7 +3867,7 @@
       <c r="B39" s="67" t="s">
         <v>226</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="84" t="s">
         <v>12</v>
       </c>
       <c r="D39" s="67"/>
@@ -3421,10 +3875,10 @@
       <c r="F39" s="27">
         <v>44695</v>
       </c>
-      <c r="G39" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H39" s="100"/>
+      <c r="G39" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H39" s="103"/>
       <c r="I39" s="28" t="s">
         <v>68</v>
       </c>
@@ -3436,7 +3890,7 @@
       <c r="B40" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="C40" s="86" t="s">
+      <c r="C40" s="84" t="s">
         <v>12</v>
       </c>
       <c r="D40" s="67"/>
@@ -3444,10 +3898,10 @@
       <c r="F40" s="27">
         <v>44695</v>
       </c>
-      <c r="G40" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H40" s="100"/>
+      <c r="G40" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H40" s="103"/>
       <c r="I40" s="28" t="s">
         <v>68</v>
       </c>
@@ -3462,15 +3916,15 @@
       <c r="C41" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="115"/>
-      <c r="E41" s="116"/>
+      <c r="D41" s="127"/>
+      <c r="E41" s="128"/>
       <c r="F41" s="27">
         <v>44695</v>
       </c>
-      <c r="G41" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H41" s="100"/>
+      <c r="G41" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H41" s="103"/>
       <c r="I41" s="28" t="s">
         <v>68</v>
       </c>
@@ -3482,18 +3936,18 @@
       <c r="B42" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="C42" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="107"/>
-      <c r="E42" s="108"/>
+      <c r="C42" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="98"/>
+      <c r="E42" s="99"/>
       <c r="F42" s="27">
         <v>44695</v>
       </c>
-      <c r="G42" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H42" s="100"/>
+      <c r="G42" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H42" s="103"/>
       <c r="I42" s="28" t="s">
         <v>68</v>
       </c>
@@ -3505,7 +3959,7 @@
       <c r="B43" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="84" t="s">
         <v>12</v>
       </c>
       <c r="D43" s="69"/>
@@ -3513,10 +3967,10 @@
       <c r="F43" s="27">
         <v>44695</v>
       </c>
-      <c r="G43" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H43" s="100"/>
+      <c r="G43" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H43" s="103"/>
       <c r="I43" s="28" t="s">
         <v>68</v>
       </c>
@@ -3528,7 +3982,7 @@
       <c r="B44" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="84" t="s">
         <v>12</v>
       </c>
       <c r="D44" s="69"/>
@@ -3536,10 +3990,10 @@
       <c r="F44" s="27">
         <v>44695</v>
       </c>
-      <c r="G44" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H44" s="100"/>
+      <c r="G44" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H44" s="103"/>
       <c r="I44" s="28" t="s">
         <v>68</v>
       </c>
@@ -3551,7 +4005,7 @@
       <c r="B45" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="84" t="s">
         <v>12</v>
       </c>
       <c r="D45" s="51"/>
@@ -3559,10 +4013,10 @@
       <c r="F45" s="27">
         <v>44695</v>
       </c>
-      <c r="G45" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H45" s="100"/>
+      <c r="G45" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H45" s="103"/>
       <c r="I45" s="28" t="s">
         <v>68</v>
       </c>
@@ -3574,18 +4028,18 @@
       <c r="B46" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="C46" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="C46" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="98"/>
+      <c r="E46" s="99"/>
       <c r="F46" s="27">
         <v>44695</v>
       </c>
-      <c r="G46" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H46" s="100"/>
+      <c r="G46" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H46" s="103"/>
       <c r="I46" s="28" t="s">
         <v>68</v>
       </c>
@@ -3598,11 +4052,11 @@
         <v>184</v>
       </c>
       <c r="C47" s="46"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="102"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="107"/>
       <c r="F47" s="37"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="104"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="109"/>
       <c r="I47" s="38"/>
     </row>
     <row r="48" spans="1:10" ht="57" x14ac:dyDescent="0.2">
@@ -3615,22 +4069,22 @@
       <c r="C48" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="107" t="s">
+      <c r="D48" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="E48" s="108"/>
+      <c r="E48" s="99"/>
       <c r="F48" s="27">
         <v>44695</v>
       </c>
-      <c r="G48" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H48" s="100"/>
+      <c r="G48" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H48" s="103"/>
       <c r="I48" s="28" t="s">
         <v>68</v>
       </c>
       <c r="J48" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
@@ -3640,7 +4094,7 @@
       <c r="B49" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="C49" s="89" t="s">
+      <c r="C49" s="87" t="s">
         <v>12</v>
       </c>
       <c r="D49" s="57"/>
@@ -3648,10 +4102,10 @@
       <c r="F49" s="27">
         <v>44695</v>
       </c>
-      <c r="G49" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H49" s="100"/>
+      <c r="G49" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H49" s="103"/>
       <c r="I49" s="28" t="s">
         <v>68</v>
       </c>
@@ -3663,18 +4117,18 @@
       <c r="B50" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="107"/>
-      <c r="E50" s="108"/>
+      <c r="C50" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="98"/>
+      <c r="E50" s="99"/>
       <c r="F50" s="27">
         <v>44695</v>
       </c>
-      <c r="G50" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H50" s="100"/>
+      <c r="G50" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H50" s="103"/>
       <c r="I50" s="28" t="s">
         <v>68</v>
       </c>
@@ -3686,18 +4140,18 @@
       <c r="B51" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="107"/>
-      <c r="E51" s="108"/>
+      <c r="C51" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="98"/>
+      <c r="E51" s="99"/>
       <c r="F51" s="27">
         <v>44695</v>
       </c>
-      <c r="G51" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H51" s="100"/>
+      <c r="G51" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H51" s="103"/>
       <c r="I51" s="28" t="s">
         <v>68</v>
       </c>
@@ -3709,18 +4163,18 @@
       <c r="B52" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="107"/>
-      <c r="E52" s="108"/>
+      <c r="C52" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="98"/>
+      <c r="E52" s="99"/>
       <c r="F52" s="27">
         <v>44695</v>
       </c>
-      <c r="G52" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H52" s="100"/>
+      <c r="G52" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H52" s="103"/>
       <c r="I52" s="28" t="s">
         <v>68</v>
       </c>
@@ -3735,22 +4189,22 @@
       <c r="C53" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="107" t="s">
+      <c r="D53" s="98" t="s">
         <v>304</v>
       </c>
-      <c r="E53" s="108"/>
+      <c r="E53" s="99"/>
       <c r="F53" s="27">
         <v>44695</v>
       </c>
-      <c r="G53" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H53" s="100"/>
+      <c r="G53" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H53" s="103"/>
       <c r="I53" s="28" t="s">
         <v>68</v>
       </c>
       <c r="J53" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -3761,11 +4215,11 @@
         <v>186</v>
       </c>
       <c r="C54" s="41"/>
-      <c r="D54" s="101"/>
-      <c r="E54" s="102"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="107"/>
       <c r="F54" s="37"/>
-      <c r="G54" s="103"/>
-      <c r="H54" s="104"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="109"/>
       <c r="I54" s="38"/>
     </row>
     <row r="55" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
@@ -3778,15 +4232,15 @@
       <c r="C55" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="107"/>
-      <c r="E55" s="108"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="99"/>
       <c r="F55" s="27">
         <v>44695</v>
       </c>
-      <c r="G55" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H55" s="100"/>
+      <c r="G55" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H55" s="103"/>
       <c r="I55" s="28" t="s">
         <v>68</v>
       </c>
@@ -3798,18 +4252,18 @@
       <c r="B56" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="107"/>
-      <c r="E56" s="108"/>
+      <c r="C56" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="98"/>
+      <c r="E56" s="99"/>
       <c r="F56" s="27">
         <v>44695</v>
       </c>
-      <c r="G56" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H56" s="100"/>
+      <c r="G56" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H56" s="103"/>
       <c r="I56" s="28" t="s">
         <v>68</v>
       </c>
@@ -3821,18 +4275,18 @@
       <c r="B57" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="C57" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="107"/>
-      <c r="E57" s="108"/>
+      <c r="C57" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="98"/>
+      <c r="E57" s="99"/>
       <c r="F57" s="27">
         <v>44695</v>
       </c>
-      <c r="G57" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H57" s="100"/>
+      <c r="G57" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H57" s="103"/>
       <c r="I57" s="28" t="s">
         <v>68</v>
       </c>
@@ -3844,18 +4298,18 @@
       <c r="B58" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="C58" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="107"/>
-      <c r="E58" s="108"/>
+      <c r="C58" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="98"/>
+      <c r="E58" s="99"/>
       <c r="F58" s="27">
         <v>44695</v>
       </c>
-      <c r="G58" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H58" s="100"/>
+      <c r="G58" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H58" s="103"/>
       <c r="I58" s="28" t="s">
         <v>68</v>
       </c>
@@ -3867,18 +4321,18 @@
       <c r="B59" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="C59" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="107"/>
-      <c r="E59" s="108"/>
+      <c r="C59" s="87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="98"/>
+      <c r="E59" s="99"/>
       <c r="F59" s="27">
         <v>44695</v>
       </c>
-      <c r="G59" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H59" s="100"/>
+      <c r="G59" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H59" s="103"/>
       <c r="I59" s="28" t="s">
         <v>68</v>
       </c>
@@ -3890,7 +4344,7 @@
       <c r="B60" s="59" t="s">
         <v>220</v>
       </c>
-      <c r="C60" s="89" t="s">
+      <c r="C60" s="87" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="59"/>
@@ -3898,63 +4352,68 @@
       <c r="F60" s="27">
         <v>44695</v>
       </c>
-      <c r="G60" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H60" s="100"/>
+      <c r="G60" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H60" s="103"/>
       <c r="I60" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="33" t="s">
         <v>104</v>
       </c>
       <c r="B61" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="C61" s="89" t="s">
+      <c r="C61" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="107" t="s">
-        <v>331</v>
-      </c>
-      <c r="E61" s="108"/>
+      <c r="D61" s="135" t="s">
+        <v>352</v>
+      </c>
+      <c r="E61" s="99"/>
       <c r="F61" s="27">
-        <v>44698</v>
-      </c>
-      <c r="G61" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H61" s="100"/>
+        <v>44700</v>
+      </c>
+      <c r="G61" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H61" s="103"/>
       <c r="I61" s="28" t="s">
         <v>68</v>
       </c>
       <c r="J61" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="108.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B62" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="107"/>
-      <c r="E62" s="108"/>
+      <c r="C62" s="87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="135" t="s">
+        <v>356</v>
+      </c>
+      <c r="E62" s="99"/>
       <c r="F62" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G62" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H62" s="100"/>
+        <v>44700</v>
+      </c>
+      <c r="G62" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H62" s="103"/>
       <c r="I62" s="28" t="s">
         <v>68</v>
+      </c>
+      <c r="J62" s="94" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
@@ -3964,22 +4423,25 @@
       <c r="B63" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="C63" s="89" t="s">
+      <c r="C63" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="135" t="s">
+      <c r="D63" s="136" t="s">
         <v>330</v>
       </c>
-      <c r="E63" s="136"/>
+      <c r="E63" s="137"/>
       <c r="F63" s="27">
         <v>44695</v>
       </c>
-      <c r="G63" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H63" s="100"/>
+      <c r="G63" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H63" s="103"/>
       <c r="I63" s="28" t="s">
         <v>68</v>
+      </c>
+      <c r="J63" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
@@ -3989,7 +4451,7 @@
       <c r="B64" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="89" t="s">
+      <c r="C64" s="87" t="s">
         <v>12</v>
       </c>
       <c r="D64" s="57"/>
@@ -3997,10 +4459,10 @@
       <c r="F64" s="27">
         <v>44695</v>
       </c>
-      <c r="G64" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H64" s="100"/>
+      <c r="G64" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H64" s="103"/>
       <c r="I64" s="28" t="s">
         <v>68</v>
       </c>
@@ -4015,17 +4477,17 @@
       <c r="C65" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="107" t="s">
+      <c r="D65" s="98" t="s">
         <v>325</v>
       </c>
-      <c r="E65" s="108"/>
+      <c r="E65" s="99"/>
       <c r="F65" s="27">
         <v>44695</v>
       </c>
-      <c r="G65" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H65" s="100"/>
+      <c r="G65" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H65" s="103"/>
       <c r="I65" s="28" t="s">
         <v>68</v>
       </c>
@@ -4038,32 +4500,32 @@
         <v>187</v>
       </c>
       <c r="C66" s="41"/>
-      <c r="D66" s="101"/>
-      <c r="E66" s="102"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="107"/>
       <c r="F66" s="37"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="104"/>
+      <c r="G66" s="108"/>
+      <c r="H66" s="109"/>
       <c r="I66" s="38"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="B67" s="77" t="s">
+      <c r="B67" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="C67" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="97"/>
-      <c r="E67" s="98"/>
+      <c r="C67" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="104"/>
+      <c r="E67" s="105"/>
       <c r="F67" s="27">
         <v>44695</v>
       </c>
-      <c r="G67" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H67" s="100"/>
+      <c r="G67" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H67" s="103"/>
       <c r="I67" s="28" t="s">
         <v>68</v>
       </c>
@@ -4072,21 +4534,21 @@
       <c r="A68" s="71" t="s">
         <v>234</v>
       </c>
-      <c r="B68" s="77" t="s">
+      <c r="B68" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="C68" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="97"/>
-      <c r="E68" s="98"/>
+      <c r="C68" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="104"/>
+      <c r="E68" s="105"/>
       <c r="F68" s="27">
         <v>44695</v>
       </c>
-      <c r="G68" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H68" s="100"/>
+      <c r="G68" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H68" s="103"/>
       <c r="I68" s="28" t="s">
         <v>68</v>
       </c>
@@ -4095,21 +4557,21 @@
       <c r="A69" s="71" t="s">
         <v>236</v>
       </c>
-      <c r="B69" s="83" t="s">
+      <c r="B69" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="C69" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="97"/>
-      <c r="E69" s="98"/>
+      <c r="C69" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="104"/>
+      <c r="E69" s="105"/>
       <c r="F69" s="27">
         <v>44695</v>
       </c>
-      <c r="G69" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H69" s="100"/>
+      <c r="G69" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H69" s="103"/>
       <c r="I69" s="28" t="s">
         <v>68</v>
       </c>
@@ -4118,21 +4580,21 @@
       <c r="A70" s="71" t="s">
         <v>237</v>
       </c>
-      <c r="B70" s="77" t="s">
+      <c r="B70" s="75" t="s">
         <v>238</v>
       </c>
-      <c r="C70" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="97"/>
-      <c r="E70" s="98"/>
+      <c r="C70" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="104"/>
+      <c r="E70" s="105"/>
       <c r="F70" s="27">
         <v>44695</v>
       </c>
-      <c r="G70" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H70" s="100"/>
+      <c r="G70" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H70" s="103"/>
       <c r="I70" s="28" t="s">
         <v>68</v>
       </c>
@@ -4141,21 +4603,21 @@
       <c r="A71" s="71" t="s">
         <v>239</v>
       </c>
-      <c r="B71" s="77" t="s">
+      <c r="B71" s="75" t="s">
         <v>240</v>
       </c>
-      <c r="C71" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="97"/>
-      <c r="E71" s="98"/>
+      <c r="C71" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="104"/>
+      <c r="E71" s="105"/>
       <c r="F71" s="27">
         <v>44695</v>
       </c>
-      <c r="G71" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H71" s="100"/>
+      <c r="G71" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H71" s="103"/>
       <c r="I71" s="28" t="s">
         <v>68</v>
       </c>
@@ -4164,21 +4626,21 @@
       <c r="A72" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="B72" s="77" t="s">
+      <c r="B72" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="C72" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="97"/>
-      <c r="E72" s="98"/>
+      <c r="C72" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="104"/>
+      <c r="E72" s="105"/>
       <c r="F72" s="27">
         <v>44695</v>
       </c>
-      <c r="G72" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H72" s="100"/>
+      <c r="G72" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H72" s="103"/>
       <c r="I72" s="28" t="s">
         <v>68</v>
       </c>
@@ -4187,21 +4649,21 @@
       <c r="A73" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="B73" s="77" t="s">
+      <c r="B73" s="75" t="s">
         <v>244</v>
       </c>
-      <c r="C73" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="97"/>
-      <c r="E73" s="98"/>
+      <c r="C73" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="104"/>
+      <c r="E73" s="105"/>
       <c r="F73" s="27">
         <v>44695</v>
       </c>
-      <c r="G73" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H73" s="100"/>
+      <c r="G73" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H73" s="103"/>
       <c r="I73" s="28" t="s">
         <v>68</v>
       </c>
@@ -4210,21 +4672,21 @@
       <c r="A74" s="71" t="s">
         <v>245</v>
       </c>
-      <c r="B74" s="77" t="s">
+      <c r="B74" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="C74" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="97"/>
-      <c r="E74" s="98"/>
+      <c r="C74" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="104"/>
+      <c r="E74" s="105"/>
       <c r="F74" s="27">
         <v>44695</v>
       </c>
-      <c r="G74" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H74" s="100"/>
+      <c r="G74" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H74" s="103"/>
       <c r="I74" s="28" t="s">
         <v>68</v>
       </c>
@@ -4233,21 +4695,21 @@
       <c r="A75" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="B75" s="77" t="s">
+      <c r="B75" s="75" t="s">
         <v>247</v>
       </c>
-      <c r="C75" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="97"/>
-      <c r="E75" s="98"/>
+      <c r="C75" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="104"/>
+      <c r="E75" s="105"/>
       <c r="F75" s="27">
         <v>44695</v>
       </c>
-      <c r="G75" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H75" s="100"/>
+      <c r="G75" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H75" s="103"/>
       <c r="I75" s="28" t="s">
         <v>68</v>
       </c>
@@ -4256,21 +4718,21 @@
       <c r="A76" s="71" t="s">
         <v>250</v>
       </c>
-      <c r="B76" s="77" t="s">
+      <c r="B76" s="75" t="s">
         <v>249</v>
       </c>
-      <c r="C76" s="78" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="97"/>
-      <c r="E76" s="98"/>
+      <c r="C76" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="104"/>
+      <c r="E76" s="105"/>
       <c r="F76" s="27">
         <v>44695</v>
       </c>
-      <c r="G76" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H76" s="100"/>
+      <c r="G76" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H76" s="103"/>
       <c r="I76" s="28" t="s">
         <v>68</v>
       </c>
@@ -4279,21 +4741,21 @@
       <c r="A77" s="71" t="s">
         <v>251</v>
       </c>
-      <c r="B77" s="79" t="s">
+      <c r="B77" s="77" t="s">
         <v>253</v>
       </c>
-      <c r="C77" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="79"/>
-      <c r="E77" s="80"/>
+      <c r="C77" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="77"/>
+      <c r="E77" s="78"/>
       <c r="F77" s="27">
         <v>44695</v>
       </c>
-      <c r="G77" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H77" s="100"/>
+      <c r="G77" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H77" s="103"/>
       <c r="I77" s="28" t="s">
         <v>68</v>
       </c>
@@ -4302,21 +4764,21 @@
       <c r="A78" s="71" t="s">
         <v>252</v>
       </c>
-      <c r="B78" s="79" t="s">
+      <c r="B78" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="C78" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="79"/>
-      <c r="E78" s="80"/>
+      <c r="C78" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="77"/>
+      <c r="E78" s="78"/>
       <c r="F78" s="27">
         <v>44695</v>
       </c>
-      <c r="G78" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H78" s="100"/>
+      <c r="G78" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H78" s="103"/>
       <c r="I78" s="28" t="s">
         <v>68</v>
       </c>
@@ -4325,21 +4787,21 @@
       <c r="A79" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="B79" s="79" t="s">
+      <c r="B79" s="77" t="s">
         <v>256</v>
       </c>
-      <c r="C79" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="79"/>
-      <c r="E79" s="80"/>
+      <c r="C79" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="77"/>
+      <c r="E79" s="78"/>
       <c r="F79" s="27">
         <v>44695</v>
       </c>
-      <c r="G79" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H79" s="100"/>
+      <c r="G79" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H79" s="103"/>
       <c r="I79" s="28" t="s">
         <v>68</v>
       </c>
@@ -4348,21 +4810,21 @@
       <c r="A80" s="71" t="s">
         <v>257</v>
       </c>
-      <c r="B80" s="79" t="s">
+      <c r="B80" s="77" t="s">
         <v>258</v>
       </c>
-      <c r="C80" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="79"/>
-      <c r="E80" s="80"/>
+      <c r="C80" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="77"/>
+      <c r="E80" s="78"/>
       <c r="F80" s="27">
         <v>44695</v>
       </c>
-      <c r="G80" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H80" s="100"/>
+      <c r="G80" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H80" s="103"/>
       <c r="I80" s="28" t="s">
         <v>68</v>
       </c>
@@ -4371,21 +4833,21 @@
       <c r="A81" s="71" t="s">
         <v>259</v>
       </c>
-      <c r="B81" s="79" t="s">
+      <c r="B81" s="77" t="s">
         <v>260</v>
       </c>
-      <c r="C81" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="79"/>
-      <c r="E81" s="80"/>
+      <c r="C81" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="77"/>
+      <c r="E81" s="78"/>
       <c r="F81" s="27">
         <v>44695</v>
       </c>
-      <c r="G81" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H81" s="100"/>
+      <c r="G81" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H81" s="103"/>
       <c r="I81" s="28" t="s">
         <v>68</v>
       </c>
@@ -4394,21 +4856,21 @@
       <c r="A82" s="71" t="s">
         <v>261</v>
       </c>
-      <c r="B82" s="79" t="s">
+      <c r="B82" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="C82" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="79"/>
-      <c r="E82" s="80"/>
+      <c r="C82" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="77"/>
+      <c r="E82" s="78"/>
       <c r="F82" s="27">
         <v>44695</v>
       </c>
-      <c r="G82" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H82" s="100"/>
+      <c r="G82" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H82" s="103"/>
       <c r="I82" s="28" t="s">
         <v>68</v>
       </c>
@@ -4417,21 +4879,21 @@
       <c r="A83" s="71" t="s">
         <v>262</v>
       </c>
-      <c r="B83" s="79" t="s">
+      <c r="B83" s="77" t="s">
         <v>263</v>
       </c>
-      <c r="C83" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="79"/>
-      <c r="E83" s="80"/>
+      <c r="C83" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="77"/>
+      <c r="E83" s="78"/>
       <c r="F83" s="27">
         <v>44695</v>
       </c>
-      <c r="G83" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H83" s="100"/>
+      <c r="G83" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H83" s="103"/>
       <c r="I83" s="28" t="s">
         <v>68</v>
       </c>
@@ -4440,21 +4902,21 @@
       <c r="A84" s="71" t="s">
         <v>265</v>
       </c>
-      <c r="B84" s="79" t="s">
+      <c r="B84" s="77" t="s">
         <v>266</v>
       </c>
-      <c r="C84" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="79"/>
-      <c r="E84" s="80"/>
+      <c r="C84" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="77"/>
+      <c r="E84" s="78"/>
       <c r="F84" s="27">
         <v>44695</v>
       </c>
-      <c r="G84" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H84" s="100"/>
+      <c r="G84" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H84" s="103"/>
       <c r="I84" s="28" t="s">
         <v>68</v>
       </c>
@@ -4463,49 +4925,49 @@
       <c r="A85" s="71" t="s">
         <v>267</v>
       </c>
-      <c r="B85" s="79" t="s">
+      <c r="B85" s="77" t="s">
         <v>268</v>
       </c>
-      <c r="C85" s="81" t="s">
+      <c r="C85" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="105" t="s">
+      <c r="D85" s="100" t="s">
         <v>326</v>
       </c>
-      <c r="E85" s="106"/>
+      <c r="E85" s="101"/>
       <c r="F85" s="27">
         <v>44695</v>
       </c>
-      <c r="G85" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H85" s="100"/>
+      <c r="G85" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H85" s="103"/>
       <c r="I85" s="28" t="s">
         <v>68</v>
       </c>
       <c r="J85" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="71" t="s">
         <v>269</v>
       </c>
-      <c r="B86" s="79" t="s">
+      <c r="B86" s="77" t="s">
         <v>270</v>
       </c>
-      <c r="C86" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="79"/>
-      <c r="E86" s="80"/>
+      <c r="C86" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="77"/>
+      <c r="E86" s="78"/>
       <c r="F86" s="27">
         <v>44695</v>
       </c>
-      <c r="G86" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H86" s="100"/>
+      <c r="G86" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H86" s="103"/>
       <c r="I86" s="28" t="s">
         <v>68</v>
       </c>
@@ -4514,21 +4976,21 @@
       <c r="A87" s="71" t="s">
         <v>271</v>
       </c>
-      <c r="B87" s="79" t="s">
+      <c r="B87" s="77" t="s">
         <v>272</v>
       </c>
-      <c r="C87" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="97"/>
-      <c r="E87" s="98"/>
+      <c r="C87" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="104"/>
+      <c r="E87" s="105"/>
       <c r="F87" s="27">
         <v>44695</v>
       </c>
-      <c r="G87" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H87" s="100"/>
+      <c r="G87" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H87" s="103"/>
       <c r="I87" s="28" t="s">
         <v>68</v>
       </c>
@@ -4541,32 +5003,32 @@
         <v>188</v>
       </c>
       <c r="C88" s="41"/>
-      <c r="D88" s="101"/>
-      <c r="E88" s="102"/>
+      <c r="D88" s="106"/>
+      <c r="E88" s="107"/>
       <c r="F88" s="37"/>
-      <c r="G88" s="103"/>
-      <c r="H88" s="104"/>
+      <c r="G88" s="108"/>
+      <c r="H88" s="109"/>
       <c r="I88" s="38"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B89" s="79" t="s">
+      <c r="B89" s="77" t="s">
         <v>233</v>
       </c>
-      <c r="C89" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="97"/>
-      <c r="E89" s="98"/>
+      <c r="C89" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="104"/>
+      <c r="E89" s="105"/>
       <c r="F89" s="27">
         <v>44695</v>
       </c>
-      <c r="G89" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H89" s="100"/>
+      <c r="G89" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H89" s="103"/>
       <c r="I89" s="28" t="s">
         <v>68</v>
       </c>
@@ -4575,21 +5037,21 @@
       <c r="A90" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="79" t="s">
+      <c r="B90" s="77" t="s">
         <v>305</v>
       </c>
-      <c r="C90" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="97"/>
-      <c r="E90" s="98"/>
+      <c r="C90" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="104"/>
+      <c r="E90" s="105"/>
       <c r="F90" s="27">
         <v>44695</v>
       </c>
-      <c r="G90" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H90" s="100"/>
+      <c r="G90" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H90" s="103"/>
       <c r="I90" s="28" t="s">
         <v>68</v>
       </c>
@@ -4598,21 +5060,21 @@
       <c r="A91" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="B91" s="79" t="s">
+      <c r="B91" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="C91" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="97"/>
-      <c r="E91" s="98"/>
+      <c r="C91" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="104"/>
+      <c r="E91" s="105"/>
       <c r="F91" s="27">
         <v>44695</v>
       </c>
-      <c r="G91" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H91" s="100"/>
+      <c r="G91" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H91" s="103"/>
       <c r="I91" s="28" t="s">
         <v>68</v>
       </c>
@@ -4621,21 +5083,21 @@
       <c r="A92" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="B92" s="79" t="s">
+      <c r="B92" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="C92" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="97"/>
-      <c r="E92" s="98"/>
+      <c r="C92" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="104"/>
+      <c r="E92" s="105"/>
       <c r="F92" s="27">
         <v>44695</v>
       </c>
-      <c r="G92" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H92" s="100"/>
+      <c r="G92" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H92" s="103"/>
       <c r="I92" s="28" t="s">
         <v>68</v>
       </c>
@@ -4644,21 +5106,21 @@
       <c r="A93" s="71" t="s">
         <v>275</v>
       </c>
-      <c r="B93" s="79" t="s">
+      <c r="B93" s="77" t="s">
         <v>306</v>
       </c>
-      <c r="C93" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="97"/>
-      <c r="E93" s="98"/>
+      <c r="C93" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="104"/>
+      <c r="E93" s="105"/>
       <c r="F93" s="27">
         <v>44695</v>
       </c>
-      <c r="G93" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H93" s="100"/>
+      <c r="G93" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H93" s="103"/>
       <c r="I93" s="28" t="s">
         <v>68</v>
       </c>
@@ -4667,21 +5129,21 @@
       <c r="A94" s="71" t="s">
         <v>276</v>
       </c>
-      <c r="B94" s="79" t="s">
+      <c r="B94" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="C94" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="97"/>
-      <c r="E94" s="98"/>
+      <c r="C94" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="104"/>
+      <c r="E94" s="105"/>
       <c r="F94" s="27">
         <v>44695</v>
       </c>
-      <c r="G94" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H94" s="100"/>
+      <c r="G94" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H94" s="103"/>
       <c r="I94" s="28" t="s">
         <v>68</v>
       </c>
@@ -4690,21 +5152,21 @@
       <c r="A95" s="71" t="s">
         <v>278</v>
       </c>
-      <c r="B95" s="79" t="s">
+      <c r="B95" s="77" t="s">
         <v>279</v>
       </c>
-      <c r="C95" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="97"/>
-      <c r="E95" s="98"/>
+      <c r="C95" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="104"/>
+      <c r="E95" s="105"/>
       <c r="F95" s="27">
         <v>44695</v>
       </c>
-      <c r="G95" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H95" s="100"/>
+      <c r="G95" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H95" s="103"/>
       <c r="I95" s="28" t="s">
         <v>68</v>
       </c>
@@ -4713,21 +5175,21 @@
       <c r="A96" s="71" t="s">
         <v>280</v>
       </c>
-      <c r="B96" s="79" t="s">
+      <c r="B96" s="77" t="s">
         <v>281</v>
       </c>
-      <c r="C96" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D96" s="97"/>
-      <c r="E96" s="98"/>
+      <c r="C96" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="104"/>
+      <c r="E96" s="105"/>
       <c r="F96" s="27">
         <v>44695</v>
       </c>
-      <c r="G96" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H96" s="100"/>
+      <c r="G96" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H96" s="103"/>
       <c r="I96" s="28" t="s">
         <v>68</v>
       </c>
@@ -4736,21 +5198,21 @@
       <c r="A97" s="71" t="s">
         <v>282</v>
       </c>
-      <c r="B97" s="83" t="s">
+      <c r="B97" s="81" t="s">
         <v>283</v>
       </c>
-      <c r="C97" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="97"/>
-      <c r="E97" s="98"/>
+      <c r="C97" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="104"/>
+      <c r="E97" s="105"/>
       <c r="F97" s="27">
         <v>44695</v>
       </c>
-      <c r="G97" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H97" s="100"/>
+      <c r="G97" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H97" s="103"/>
       <c r="I97" s="28" t="s">
         <v>68</v>
       </c>
@@ -4759,21 +5221,21 @@
       <c r="A98" s="71" t="s">
         <v>284</v>
       </c>
-      <c r="B98" s="79" t="s">
+      <c r="B98" s="77" t="s">
         <v>287</v>
       </c>
-      <c r="C98" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D98" s="97"/>
-      <c r="E98" s="98"/>
+      <c r="C98" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="104"/>
+      <c r="E98" s="105"/>
       <c r="F98" s="27">
         <v>44695</v>
       </c>
-      <c r="G98" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H98" s="100"/>
+      <c r="G98" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H98" s="103"/>
       <c r="I98" s="28" t="s">
         <v>68</v>
       </c>
@@ -4782,21 +5244,21 @@
       <c r="A99" s="71" t="s">
         <v>285</v>
       </c>
-      <c r="B99" s="79" t="s">
+      <c r="B99" s="77" t="s">
         <v>286</v>
       </c>
-      <c r="C99" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="97"/>
-      <c r="E99" s="98"/>
+      <c r="C99" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="104"/>
+      <c r="E99" s="105"/>
       <c r="F99" s="27">
         <v>44695</v>
       </c>
-      <c r="G99" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H99" s="100"/>
+      <c r="G99" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H99" s="103"/>
       <c r="I99" s="28" t="s">
         <v>68</v>
       </c>
@@ -4808,33 +5270,33 @@
       <c r="B100" s="40" t="s">
         <v>189</v>
       </c>
-      <c r="C100" s="82"/>
-      <c r="D100" s="101"/>
-      <c r="E100" s="102"/>
+      <c r="C100" s="80"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="107"/>
       <c r="F100" s="37"/>
-      <c r="G100" s="103"/>
-      <c r="H100" s="104"/>
+      <c r="G100" s="108"/>
+      <c r="H100" s="109"/>
       <c r="I100" s="38"/>
     </row>
     <row r="101" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="71" t="s">
         <v>308</v>
       </c>
-      <c r="B101" s="87" t="s">
+      <c r="B101" s="85" t="s">
         <v>233</v>
       </c>
-      <c r="C101" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="97"/>
-      <c r="E101" s="98"/>
+      <c r="C101" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="104"/>
+      <c r="E101" s="105"/>
       <c r="F101" s="27">
         <v>44695</v>
       </c>
-      <c r="G101" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H101" s="100"/>
+      <c r="G101" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H101" s="103"/>
       <c r="I101" s="28" t="s">
         <v>68</v>
       </c>
@@ -4843,21 +5305,21 @@
       <c r="A102" s="71" t="s">
         <v>309</v>
       </c>
-      <c r="B102" s="87" t="s">
+      <c r="B102" s="85" t="s">
         <v>313</v>
       </c>
-      <c r="C102" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="97"/>
-      <c r="E102" s="98"/>
+      <c r="C102" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="104"/>
+      <c r="E102" s="105"/>
       <c r="F102" s="27">
         <v>44695</v>
       </c>
-      <c r="G102" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H102" s="100"/>
+      <c r="G102" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H102" s="103"/>
       <c r="I102" s="28" t="s">
         <v>68</v>
       </c>
@@ -4866,21 +5328,21 @@
       <c r="A103" s="71" t="s">
         <v>310</v>
       </c>
-      <c r="B103" s="87" t="s">
+      <c r="B103" s="85" t="s">
         <v>273</v>
       </c>
-      <c r="C103" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="97"/>
-      <c r="E103" s="98"/>
+      <c r="C103" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="104"/>
+      <c r="E103" s="105"/>
       <c r="F103" s="27">
         <v>44695</v>
       </c>
-      <c r="G103" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H103" s="100"/>
+      <c r="G103" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H103" s="103"/>
       <c r="I103" s="28" t="s">
         <v>68</v>
       </c>
@@ -4889,21 +5351,21 @@
       <c r="A104" s="71" t="s">
         <v>311</v>
       </c>
-      <c r="B104" s="90" t="s">
+      <c r="B104" s="88" t="s">
         <v>314</v>
       </c>
-      <c r="C104" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="97"/>
-      <c r="E104" s="98"/>
+      <c r="C104" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="104"/>
+      <c r="E104" s="105"/>
       <c r="F104" s="27">
         <v>44695</v>
       </c>
-      <c r="G104" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H104" s="100"/>
+      <c r="G104" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H104" s="103"/>
       <c r="I104" s="28" t="s">
         <v>68</v>
       </c>
@@ -4912,21 +5374,21 @@
       <c r="A105" s="71" t="s">
         <v>312</v>
       </c>
-      <c r="B105" s="87" t="s">
+      <c r="B105" s="85" t="s">
         <v>315</v>
       </c>
-      <c r="C105" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="97"/>
-      <c r="E105" s="98"/>
+      <c r="C105" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="104"/>
+      <c r="E105" s="105"/>
       <c r="F105" s="27">
         <v>44695</v>
       </c>
-      <c r="G105" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H105" s="100"/>
+      <c r="G105" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H105" s="103"/>
       <c r="I105" s="28" t="s">
         <v>68</v>
       </c>
@@ -4935,21 +5397,21 @@
       <c r="A106" s="71" t="s">
         <v>317</v>
       </c>
-      <c r="B106" s="87" t="s">
+      <c r="B106" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="C106" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="97"/>
-      <c r="E106" s="98"/>
+      <c r="C106" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="104"/>
+      <c r="E106" s="105"/>
       <c r="F106" s="27">
         <v>44695</v>
       </c>
-      <c r="G106" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H106" s="100"/>
+      <c r="G106" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H106" s="103"/>
       <c r="I106" s="28" t="s">
         <v>68</v>
       </c>
@@ -4958,21 +5420,21 @@
       <c r="A107" s="71" t="s">
         <v>318</v>
       </c>
-      <c r="B107" s="87" t="s">
+      <c r="B107" s="85" t="s">
         <v>306</v>
       </c>
-      <c r="C107" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="97"/>
-      <c r="E107" s="98"/>
+      <c r="C107" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="104"/>
+      <c r="E107" s="105"/>
       <c r="F107" s="27">
         <v>44695</v>
       </c>
-      <c r="G107" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H107" s="100"/>
+      <c r="G107" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H107" s="103"/>
       <c r="I107" s="28" t="s">
         <v>68</v>
       </c>
@@ -4981,21 +5443,21 @@
       <c r="A108" s="71" t="s">
         <v>319</v>
       </c>
-      <c r="B108" s="87" t="s">
+      <c r="B108" s="85" t="s">
         <v>277</v>
       </c>
-      <c r="C108" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D108" s="97"/>
-      <c r="E108" s="98"/>
+      <c r="C108" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="104"/>
+      <c r="E108" s="105"/>
       <c r="F108" s="27">
         <v>44695</v>
       </c>
-      <c r="G108" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H108" s="100"/>
+      <c r="G108" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H108" s="103"/>
       <c r="I108" s="28" t="s">
         <v>68</v>
       </c>
@@ -5004,21 +5466,21 @@
       <c r="A109" s="71" t="s">
         <v>320</v>
       </c>
-      <c r="B109" s="87" t="s">
+      <c r="B109" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="C109" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="97"/>
-      <c r="E109" s="98"/>
+      <c r="C109" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="104"/>
+      <c r="E109" s="105"/>
       <c r="F109" s="27">
         <v>44695</v>
       </c>
-      <c r="G109" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H109" s="100"/>
+      <c r="G109" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H109" s="103"/>
       <c r="I109" s="28" t="s">
         <v>68</v>
       </c>
@@ -5027,21 +5489,21 @@
       <c r="A110" s="71" t="s">
         <v>321</v>
       </c>
-      <c r="B110" s="87" t="s">
+      <c r="B110" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="C110" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="97"/>
-      <c r="E110" s="98"/>
+      <c r="C110" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="104"/>
+      <c r="E110" s="105"/>
       <c r="F110" s="27">
         <v>44695</v>
       </c>
-      <c r="G110" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H110" s="100"/>
+      <c r="G110" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H110" s="103"/>
       <c r="I110" s="28" t="s">
         <v>68</v>
       </c>
@@ -5050,21 +5512,21 @@
       <c r="A111" s="71" t="s">
         <v>322</v>
       </c>
-      <c r="B111" s="87" t="s">
+      <c r="B111" s="85" t="s">
         <v>283</v>
       </c>
-      <c r="C111" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="97"/>
-      <c r="E111" s="98"/>
+      <c r="C111" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="104"/>
+      <c r="E111" s="105"/>
       <c r="F111" s="27">
         <v>44695</v>
       </c>
-      <c r="G111" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H111" s="100"/>
+      <c r="G111" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H111" s="103"/>
       <c r="I111" s="28" t="s">
         <v>68</v>
       </c>
@@ -5073,332 +5535,478 @@
       <c r="A112" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="B112" s="87" t="s">
+      <c r="B112" s="85" t="s">
         <v>287</v>
       </c>
-      <c r="C112" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="97"/>
-      <c r="E112" s="98"/>
+      <c r="C112" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="104"/>
+      <c r="E112" s="105"/>
       <c r="F112" s="27">
         <v>44695</v>
       </c>
-      <c r="G112" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H112" s="100"/>
+      <c r="G112" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H112" s="103"/>
       <c r="I112" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="71" t="s">
         <v>324</v>
       </c>
-      <c r="B113" s="87" t="s">
+      <c r="B113" s="85" t="s">
         <v>286</v>
       </c>
-      <c r="C113" s="88" t="s">
-        <v>12</v>
-      </c>
-      <c r="D113" s="97"/>
-      <c r="E113" s="98"/>
+      <c r="C113" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="104"/>
+      <c r="E113" s="105"/>
       <c r="F113" s="27">
         <v>44695</v>
       </c>
-      <c r="G113" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H113" s="100"/>
+      <c r="G113" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H113" s="103"/>
       <c r="I113" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="35" t="s">
         <v>115</v>
       </c>
       <c r="B114" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C114" s="84"/>
-      <c r="D114" s="101"/>
-      <c r="E114" s="102"/>
+      <c r="C114" s="82"/>
+      <c r="D114" s="106"/>
+      <c r="E114" s="107"/>
       <c r="F114" s="37"/>
-      <c r="G114" s="103"/>
-      <c r="H114" s="104"/>
+      <c r="G114" s="108"/>
+      <c r="H114" s="109"/>
       <c r="I114" s="38"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="93" t="s">
+      <c r="B115" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="C115" s="95"/>
-      <c r="D115" s="97"/>
-      <c r="E115" s="98"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="99"/>
-      <c r="H115" s="100"/>
-      <c r="I115" s="28"/>
-    </row>
-    <row r="116" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C115" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="104"/>
+      <c r="E115" s="105"/>
+      <c r="F115" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G115" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H115" s="103"/>
+      <c r="I115" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A116" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="93" t="s">
+      <c r="B116" s="91" t="s">
         <v>313</v>
       </c>
-      <c r="C116" s="95"/>
-      <c r="D116" s="97"/>
-      <c r="E116" s="98"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="99"/>
-      <c r="H116" s="100"/>
-      <c r="I116" s="28"/>
-    </row>
-    <row r="117" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C116" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="104"/>
+      <c r="E116" s="105"/>
+      <c r="F116" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G116" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H116" s="103"/>
+      <c r="I116" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A117" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="93" t="s">
+      <c r="B117" s="91" t="s">
         <v>273</v>
       </c>
-      <c r="C117" s="95"/>
-      <c r="D117" s="97"/>
-      <c r="E117" s="98"/>
-      <c r="F117" s="27"/>
-      <c r="G117" s="99"/>
-      <c r="H117" s="100"/>
-      <c r="I117" s="28"/>
-    </row>
-    <row r="118" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="C117" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="104"/>
+      <c r="E117" s="105"/>
+      <c r="F117" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G117" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H117" s="103"/>
+      <c r="I117" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="57" x14ac:dyDescent="0.2">
       <c r="A118" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="93" t="s">
-        <v>336</v>
-      </c>
-      <c r="C118" s="95"/>
-      <c r="D118" s="97"/>
-      <c r="E118" s="98"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="99"/>
-      <c r="H118" s="100"/>
-      <c r="I118" s="28"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B118" s="91" t="s">
+        <v>332</v>
+      </c>
+      <c r="C118" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="104"/>
+      <c r="E118" s="105"/>
+      <c r="F118" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G118" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H118" s="103"/>
+      <c r="I118" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="93" t="s">
-        <v>335</v>
-      </c>
-      <c r="C119" s="95"/>
-      <c r="D119" s="97"/>
-      <c r="E119" s="98"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="99"/>
-      <c r="H119" s="100"/>
-      <c r="I119" s="28"/>
-    </row>
-    <row r="120" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B119" s="91" t="s">
+        <v>331</v>
+      </c>
+      <c r="C119" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="104"/>
+      <c r="E119" s="105"/>
+      <c r="F119" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G119" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H119" s="103"/>
+      <c r="I119" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="B120" s="93" t="s">
-        <v>337</v>
-      </c>
-      <c r="C120" s="95"/>
-      <c r="D120" s="97"/>
-      <c r="E120" s="98"/>
-      <c r="F120" s="74"/>
-      <c r="G120" s="133"/>
-      <c r="H120" s="134"/>
-      <c r="I120" s="75"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B120" s="91" t="s">
+        <v>333</v>
+      </c>
+      <c r="C120" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120" s="104"/>
+      <c r="E120" s="105"/>
+      <c r="F120" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G120" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H120" s="103"/>
+      <c r="I120" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="B121" s="93" t="s">
+      <c r="B121" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="C121" s="95"/>
-      <c r="D121" s="97"/>
-      <c r="E121" s="98"/>
-      <c r="F121" s="74"/>
-      <c r="G121" s="133"/>
-      <c r="H121" s="134"/>
-      <c r="I121" s="75"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C121" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="104"/>
+      <c r="E121" s="105"/>
+      <c r="F121" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G121" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H121" s="103"/>
+      <c r="I121" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" s="35" t="s">
         <v>122</v>
       </c>
       <c r="B122" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C122" s="84"/>
-      <c r="D122" s="101"/>
-      <c r="E122" s="102"/>
+      <c r="C122" s="82"/>
+      <c r="D122" s="106"/>
+      <c r="E122" s="107"/>
       <c r="F122" s="37"/>
-      <c r="G122" s="103"/>
-      <c r="H122" s="104"/>
+      <c r="G122" s="108"/>
+      <c r="H122" s="109"/>
       <c r="I122" s="38"/>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="71" t="s">
         <v>49</v>
       </c>
-      <c r="B123" s="93" t="s">
-        <v>338</v>
-      </c>
-      <c r="C123" s="95"/>
-      <c r="D123" s="97"/>
-      <c r="E123" s="98"/>
-      <c r="F123" s="74"/>
-      <c r="G123" s="133"/>
-      <c r="H123" s="134"/>
-      <c r="I123" s="75"/>
-    </row>
-    <row r="124" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B123" s="91" t="s">
+        <v>334</v>
+      </c>
+      <c r="C123" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123" s="104"/>
+      <c r="E123" s="105"/>
+      <c r="F123" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G123" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H123" s="103"/>
+      <c r="I123" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A124" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="B124" s="93" t="s">
-        <v>339</v>
-      </c>
-      <c r="C124" s="95"/>
-      <c r="D124" s="97"/>
-      <c r="E124" s="98"/>
-      <c r="F124" s="74"/>
-      <c r="G124" s="133"/>
-      <c r="H124" s="134"/>
-      <c r="I124" s="75"/>
-    </row>
-    <row r="125" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B124" s="91" t="s">
+        <v>335</v>
+      </c>
+      <c r="C124" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="104"/>
+      <c r="E124" s="105"/>
+      <c r="F124" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G124" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H124" s="103"/>
+      <c r="I124" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="B125" s="93" t="s">
-        <v>340</v>
-      </c>
-      <c r="C125" s="95"/>
-      <c r="D125" s="93"/>
-      <c r="E125" s="94"/>
-      <c r="F125" s="74"/>
-      <c r="G125" s="95"/>
-      <c r="H125" s="96"/>
-      <c r="I125" s="75"/>
-    </row>
-    <row r="126" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B125" s="91" t="s">
+        <v>336</v>
+      </c>
+      <c r="C125" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125" s="91"/>
+      <c r="E125" s="92"/>
+      <c r="F125" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G125" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H125" s="103"/>
+      <c r="I125" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="71" t="s">
-        <v>341</v>
-      </c>
-      <c r="B126" s="93" t="s">
-        <v>346</v>
-      </c>
-      <c r="C126" s="95"/>
-      <c r="D126" s="93"/>
-      <c r="E126" s="94"/>
-      <c r="F126" s="74"/>
-      <c r="G126" s="95"/>
-      <c r="H126" s="96"/>
-      <c r="I126" s="75"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+      <c r="B126" s="91" t="s">
+        <v>342</v>
+      </c>
+      <c r="C126" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="100" t="s">
+        <v>353</v>
+      </c>
+      <c r="E126" s="101"/>
+      <c r="F126" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G126" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H126" s="103"/>
+      <c r="I126" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J126" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" s="71" t="s">
-        <v>342</v>
-      </c>
-      <c r="B127" s="93" t="s">
-        <v>347</v>
-      </c>
-      <c r="C127" s="95"/>
-      <c r="D127" s="93"/>
-      <c r="E127" s="94"/>
-      <c r="F127" s="74"/>
-      <c r="G127" s="95"/>
-      <c r="H127" s="96"/>
-      <c r="I127" s="75"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="B127" s="91" t="s">
+        <v>343</v>
+      </c>
+      <c r="C127" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" s="91"/>
+      <c r="E127" s="92"/>
+      <c r="F127" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G127" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H127" s="103"/>
+      <c r="I127" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="71" t="s">
-        <v>343</v>
-      </c>
-      <c r="B128" s="93" t="s">
-        <v>348</v>
-      </c>
-      <c r="C128" s="95"/>
-      <c r="D128" s="93"/>
-      <c r="E128" s="94"/>
-      <c r="F128" s="74"/>
-      <c r="G128" s="95"/>
-      <c r="H128" s="96"/>
-      <c r="I128" s="75"/>
+        <v>339</v>
+      </c>
+      <c r="B128" s="91" t="s">
+        <v>344</v>
+      </c>
+      <c r="C128" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128" s="91"/>
+      <c r="E128" s="92"/>
+      <c r="F128" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G128" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H128" s="103"/>
+      <c r="I128" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="129" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A129" s="71" t="s">
-        <v>344</v>
-      </c>
-      <c r="B129" s="93" t="s">
-        <v>349</v>
-      </c>
-      <c r="C129" s="95"/>
-      <c r="D129" s="97"/>
-      <c r="E129" s="98"/>
-      <c r="F129" s="74"/>
-      <c r="G129" s="133"/>
-      <c r="H129" s="134"/>
-      <c r="I129" s="75"/>
+        <v>340</v>
+      </c>
+      <c r="B129" s="91" t="s">
+        <v>345</v>
+      </c>
+      <c r="C129" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="104"/>
+      <c r="E129" s="105"/>
+      <c r="F129" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G129" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H129" s="103"/>
+      <c r="I129" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" s="71" t="s">
-        <v>345</v>
-      </c>
-      <c r="B130" s="93" t="s">
-        <v>352</v>
-      </c>
-      <c r="C130" s="95"/>
-      <c r="D130" s="93"/>
-      <c r="E130" s="94"/>
-      <c r="F130" s="74"/>
-      <c r="G130" s="95"/>
-      <c r="H130" s="96"/>
-      <c r="I130" s="75"/>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="B130" s="91" t="s">
+        <v>348</v>
+      </c>
+      <c r="C130" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130" s="91"/>
+      <c r="E130" s="92"/>
+      <c r="F130" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G130" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H130" s="103"/>
+      <c r="I130" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="71" t="s">
-        <v>350</v>
-      </c>
-      <c r="B131" s="93" t="s">
-        <v>353</v>
-      </c>
-      <c r="C131" s="95"/>
-      <c r="D131" s="93"/>
-      <c r="E131" s="94"/>
-      <c r="F131" s="74"/>
-      <c r="G131" s="95"/>
-      <c r="H131" s="96"/>
-      <c r="I131" s="75"/>
+        <v>346</v>
+      </c>
+      <c r="B131" s="91" t="s">
+        <v>349</v>
+      </c>
+      <c r="C131" s="93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="91" t="s">
+        <v>355</v>
+      </c>
+      <c r="E131" s="92"/>
+      <c r="F131" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G131" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H131" s="103"/>
+      <c r="I131" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="J131" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="132" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A132" s="71" t="s">
-        <v>351</v>
-      </c>
-      <c r="B132" s="93" t="s">
-        <v>354</v>
-      </c>
-      <c r="C132" s="95"/>
-      <c r="D132" s="93"/>
-      <c r="E132" s="94"/>
-      <c r="F132" s="74"/>
-      <c r="G132" s="95"/>
-      <c r="H132" s="96"/>
-      <c r="I132" s="75"/>
+        <v>347</v>
+      </c>
+      <c r="B132" s="91" t="s">
+        <v>350</v>
+      </c>
+      <c r="C132" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="91"/>
+      <c r="E132" s="92"/>
+      <c r="F132" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G132" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H132" s="103"/>
+      <c r="I132" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="35" t="s">
@@ -5407,12 +6015,12 @@
       <c r="B133" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C133" s="84"/>
-      <c r="D133" s="101"/>
-      <c r="E133" s="102"/>
+      <c r="C133" s="82"/>
+      <c r="D133" s="106"/>
+      <c r="E133" s="107"/>
       <c r="F133" s="37"/>
-      <c r="G133" s="103"/>
-      <c r="H133" s="104"/>
+      <c r="G133" s="108"/>
+      <c r="H133" s="109"/>
       <c r="I133" s="38"/>
     </row>
     <row r="134" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
@@ -5425,15 +6033,15 @@
       <c r="C134" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D134" s="97"/>
-      <c r="E134" s="98"/>
+      <c r="D134" s="104"/>
+      <c r="E134" s="105"/>
       <c r="F134" s="27">
         <v>44695</v>
       </c>
-      <c r="G134" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H134" s="100"/>
+      <c r="G134" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H134" s="103"/>
       <c r="I134" s="28" t="s">
         <v>68</v>
       </c>
@@ -5449,14 +6057,14 @@
         <v>12</v>
       </c>
       <c r="D135" s="72"/>
-      <c r="E135" s="76"/>
+      <c r="E135" s="74"/>
       <c r="F135" s="27">
         <v>44695</v>
       </c>
-      <c r="G135" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H135" s="100"/>
+      <c r="G135" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H135" s="103"/>
       <c r="I135" s="28" t="s">
         <v>68</v>
       </c>
@@ -5471,15 +6079,15 @@
       <c r="C136" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D136" s="97"/>
-      <c r="E136" s="98"/>
+      <c r="D136" s="104"/>
+      <c r="E136" s="105"/>
       <c r="F136" s="27">
         <v>44695</v>
       </c>
-      <c r="G136" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H136" s="100"/>
+      <c r="G136" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H136" s="103"/>
       <c r="I136" s="28" t="s">
         <v>68</v>
       </c>
@@ -5494,15 +6102,15 @@
       <c r="C137" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D137" s="97"/>
-      <c r="E137" s="98"/>
+      <c r="D137" s="104"/>
+      <c r="E137" s="105"/>
       <c r="F137" s="27">
         <v>44695</v>
       </c>
-      <c r="G137" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H137" s="100"/>
+      <c r="G137" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H137" s="103"/>
       <c r="I137" s="28" t="s">
         <v>68</v>
       </c>
@@ -5517,15 +6125,15 @@
       <c r="C138" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D138" s="97"/>
-      <c r="E138" s="98"/>
+      <c r="D138" s="104"/>
+      <c r="E138" s="105"/>
       <c r="F138" s="27">
         <v>44695</v>
       </c>
-      <c r="G138" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H138" s="100"/>
+      <c r="G138" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H138" s="103"/>
       <c r="I138" s="28" t="s">
         <v>68</v>
       </c>
@@ -5537,63 +6145,68 @@
       <c r="B139" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="C139" s="84"/>
-      <c r="D139" s="101"/>
-      <c r="E139" s="102"/>
+      <c r="C139" s="82"/>
+      <c r="D139" s="106"/>
+      <c r="E139" s="107"/>
       <c r="F139" s="37"/>
-      <c r="G139" s="103"/>
-      <c r="H139" s="104"/>
+      <c r="G139" s="108"/>
+      <c r="H139" s="109"/>
       <c r="I139" s="38"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="B140" s="93" t="s">
+      <c r="B140" s="91" t="s">
         <v>230</v>
       </c>
       <c r="C140" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D140" s="97" t="s">
+      <c r="D140" s="104" t="s">
         <v>327</v>
       </c>
-      <c r="E140" s="98"/>
+      <c r="E140" s="105"/>
       <c r="F140" s="27">
         <v>44695</v>
       </c>
-      <c r="G140" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H140" s="100"/>
+      <c r="G140" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H140" s="103"/>
       <c r="I140" s="28" t="s">
         <v>68</v>
       </c>
       <c r="J140" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="B141" s="93" t="s">
+      <c r="B141" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="C141" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="D141" s="97"/>
-      <c r="E141" s="98"/>
+      <c r="C141" s="90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="118" t="s">
+        <v>354</v>
+      </c>
+      <c r="E141" s="105"/>
       <c r="F141" s="27">
-        <v>44695</v>
-      </c>
-      <c r="G141" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H141" s="100"/>
+        <v>44700</v>
+      </c>
+      <c r="G141" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H141" s="103"/>
       <c r="I141" s="28" t="s">
         <v>68</v>
+      </c>
+      <c r="J141" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
@@ -5603,12 +6216,12 @@
       <c r="B142" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C142" s="84"/>
-      <c r="D142" s="101"/>
-      <c r="E142" s="102"/>
+      <c r="C142" s="82"/>
+      <c r="D142" s="106"/>
+      <c r="E142" s="107"/>
       <c r="F142" s="37"/>
-      <c r="G142" s="103"/>
-      <c r="H142" s="104"/>
+      <c r="G142" s="108"/>
+      <c r="H142" s="109"/>
       <c r="I142" s="38"/>
     </row>
     <row r="143" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
@@ -5621,15 +6234,15 @@
       <c r="C143" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D143" s="119"/>
-      <c r="E143" s="120"/>
+      <c r="D143" s="110"/>
+      <c r="E143" s="111"/>
       <c r="F143" s="65">
         <v>44623</v>
       </c>
-      <c r="G143" s="117" t="s">
+      <c r="G143" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H143" s="118"/>
+      <c r="H143" s="113"/>
       <c r="I143" s="66" t="s">
         <v>68</v>
       </c>
@@ -5644,20 +6257,20 @@
       <c r="C144" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D144" s="119"/>
-      <c r="E144" s="120"/>
+      <c r="D144" s="110"/>
+      <c r="E144" s="111"/>
       <c r="F144" s="65">
         <v>44623</v>
       </c>
-      <c r="G144" s="117" t="s">
+      <c r="G144" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H144" s="118"/>
+      <c r="H144" s="113"/>
       <c r="I144" s="66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A145" s="62" t="s">
         <v>294</v>
       </c>
@@ -5667,22 +6280,22 @@
       <c r="C145" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D145" s="119" t="s">
+      <c r="D145" s="110" t="s">
         <v>70</v>
       </c>
-      <c r="E145" s="120"/>
+      <c r="E145" s="111"/>
       <c r="F145" s="65">
         <v>44623</v>
       </c>
-      <c r="G145" s="117" t="s">
+      <c r="G145" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H145" s="118"/>
+      <c r="H145" s="113"/>
       <c r="I145" s="66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="62" t="s">
         <v>295</v>
       </c>
@@ -5692,20 +6305,20 @@
       <c r="C146" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D146" s="119"/>
-      <c r="E146" s="120"/>
+      <c r="D146" s="110"/>
+      <c r="E146" s="111"/>
       <c r="F146" s="65">
         <v>44623</v>
       </c>
-      <c r="G146" s="117" t="s">
+      <c r="G146" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H146" s="118"/>
+      <c r="H146" s="113"/>
       <c r="I146" s="66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="62" t="s">
         <v>296</v>
       </c>
@@ -5715,20 +6328,20 @@
       <c r="C147" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D147" s="119"/>
-      <c r="E147" s="120"/>
+      <c r="D147" s="110"/>
+      <c r="E147" s="111"/>
       <c r="F147" s="65">
         <v>44623</v>
       </c>
-      <c r="G147" s="117" t="s">
+      <c r="G147" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H147" s="118"/>
+      <c r="H147" s="113"/>
       <c r="I147" s="66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="62" t="s">
         <v>297</v>
       </c>
@@ -5738,20 +6351,20 @@
       <c r="C148" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D148" s="119"/>
-      <c r="E148" s="120"/>
+      <c r="D148" s="110"/>
+      <c r="E148" s="111"/>
       <c r="F148" s="65">
         <v>44623</v>
       </c>
-      <c r="G148" s="117" t="s">
+      <c r="G148" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H148" s="118"/>
+      <c r="H148" s="113"/>
       <c r="I148" s="66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="62" t="s">
         <v>298</v>
       </c>
@@ -5761,20 +6374,20 @@
       <c r="C149" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D149" s="119"/>
-      <c r="E149" s="120"/>
+      <c r="D149" s="110"/>
+      <c r="E149" s="111"/>
       <c r="F149" s="65">
         <v>44623</v>
       </c>
-      <c r="G149" s="117" t="s">
+      <c r="G149" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H149" s="118"/>
+      <c r="H149" s="113"/>
       <c r="I149" s="66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="62" t="s">
         <v>299</v>
       </c>
@@ -5784,20 +6397,20 @@
       <c r="C150" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D150" s="119"/>
-      <c r="E150" s="120"/>
+      <c r="D150" s="110"/>
+      <c r="E150" s="111"/>
       <c r="F150" s="65">
         <v>44623</v>
       </c>
-      <c r="G150" s="117" t="s">
+      <c r="G150" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H150" s="118"/>
+      <c r="H150" s="113"/>
       <c r="I150" s="66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="62" t="s">
         <v>300</v>
       </c>
@@ -5807,20 +6420,20 @@
       <c r="C151" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D151" s="119"/>
-      <c r="E151" s="120"/>
+      <c r="D151" s="110"/>
+      <c r="E151" s="111"/>
       <c r="F151" s="65">
         <v>44623</v>
       </c>
-      <c r="G151" s="117" t="s">
+      <c r="G151" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H151" s="118"/>
+      <c r="H151" s="113"/>
       <c r="I151" s="66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="62" t="s">
         <v>301</v>
       </c>
@@ -5830,37 +6443,37 @@
       <c r="C152" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="D152" s="119" t="s">
+      <c r="D152" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="E152" s="120"/>
+      <c r="E152" s="111"/>
       <c r="F152" s="65">
         <v>44623</v>
       </c>
-      <c r="G152" s="117" t="s">
+      <c r="G152" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="H152" s="118"/>
+      <c r="H152" s="113"/>
       <c r="I152" s="66" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="35" t="s">
         <v>127</v>
       </c>
       <c r="B153" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="C153" s="84"/>
-      <c r="D153" s="101"/>
-      <c r="E153" s="102"/>
+      <c r="C153" s="82"/>
+      <c r="D153" s="106"/>
+      <c r="E153" s="107"/>
       <c r="F153" s="37"/>
-      <c r="G153" s="103"/>
-      <c r="H153" s="104"/>
+      <c r="G153" s="108"/>
+      <c r="H153" s="109"/>
       <c r="I153" s="38"/>
     </row>
-    <row r="154" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="71" t="s">
         <v>128</v>
       </c>
@@ -5870,22 +6483,22 @@
       <c r="C154" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D154" s="129" t="s">
+      <c r="D154" s="114" t="s">
         <v>328</v>
       </c>
-      <c r="E154" s="130"/>
+      <c r="E154" s="115"/>
       <c r="F154" s="27">
         <v>44695</v>
       </c>
-      <c r="G154" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H154" s="100"/>
+      <c r="G154" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H154" s="103"/>
       <c r="I154" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="71" t="s">
         <v>129</v>
       </c>
@@ -5895,35 +6508,35 @@
       <c r="C155" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D155" s="131"/>
-      <c r="E155" s="132"/>
+      <c r="D155" s="116"/>
+      <c r="E155" s="117"/>
       <c r="F155" s="27">
         <v>44695</v>
       </c>
-      <c r="G155" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H155" s="100"/>
+      <c r="G155" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H155" s="103"/>
       <c r="I155" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="35" t="s">
         <v>130</v>
       </c>
       <c r="B156" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C156" s="84"/>
-      <c r="D156" s="101"/>
-      <c r="E156" s="102"/>
+      <c r="C156" s="82"/>
+      <c r="D156" s="106"/>
+      <c r="E156" s="107"/>
       <c r="F156" s="37"/>
-      <c r="G156" s="103"/>
-      <c r="H156" s="104"/>
+      <c r="G156" s="108"/>
+      <c r="H156" s="109"/>
       <c r="I156" s="38"/>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="71" t="s">
         <v>131</v>
       </c>
@@ -5933,20 +6546,20 @@
       <c r="C157" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="D157" s="97"/>
-      <c r="E157" s="98"/>
+      <c r="D157" s="104"/>
+      <c r="E157" s="105"/>
       <c r="F157" s="27">
         <v>44695</v>
       </c>
-      <c r="G157" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H157" s="100"/>
+      <c r="G157" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H157" s="103"/>
       <c r="I157" s="28" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" s="71" t="s">
         <v>132</v>
       </c>
@@ -5956,50 +6569,61 @@
       <c r="C158" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="D158" s="97" t="s">
+      <c r="D158" s="104" t="s">
         <v>329</v>
       </c>
-      <c r="E158" s="98"/>
+      <c r="E158" s="105"/>
       <c r="F158" s="27">
         <v>44695</v>
       </c>
-      <c r="G158" s="99" t="s">
-        <v>302</v>
-      </c>
-      <c r="H158" s="100"/>
+      <c r="G158" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H158" s="103"/>
       <c r="I158" s="28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J158" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" s="35" t="s">
         <v>133</v>
       </c>
       <c r="B159" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C159" s="84"/>
-      <c r="D159" s="101"/>
-      <c r="E159" s="102"/>
+      <c r="C159" s="82"/>
+      <c r="D159" s="106"/>
+      <c r="E159" s="107"/>
       <c r="F159" s="37"/>
-      <c r="G159" s="103"/>
-      <c r="H159" s="104"/>
+      <c r="G159" s="108"/>
+      <c r="H159" s="109"/>
       <c r="I159" s="38"/>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" s="71" t="s">
         <v>134</v>
       </c>
       <c r="B160" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="C160" s="73"/>
-      <c r="D160" s="97"/>
-      <c r="E160" s="98"/>
-      <c r="F160" s="74"/>
-      <c r="G160" s="133"/>
-      <c r="H160" s="134"/>
-      <c r="I160" s="75"/>
+      <c r="C160" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D160" s="104"/>
+      <c r="E160" s="105"/>
+      <c r="F160" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G160" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H160" s="103"/>
+      <c r="I160" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="161" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="71" t="s">
@@ -6008,13 +6632,23 @@
       <c r="B161" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="C161" s="73"/>
-      <c r="D161" s="97"/>
-      <c r="E161" s="98"/>
-      <c r="F161" s="74"/>
-      <c r="G161" s="133"/>
-      <c r="H161" s="134"/>
-      <c r="I161" s="75"/>
+      <c r="C161" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="104" t="s">
+        <v>357</v>
+      </c>
+      <c r="E161" s="105"/>
+      <c r="F161" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G161" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H161" s="103"/>
+      <c r="I161" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="71" t="s">
@@ -6023,13 +6657,21 @@
       <c r="B162" s="72" t="s">
         <v>232</v>
       </c>
-      <c r="C162" s="73"/>
-      <c r="D162" s="97"/>
-      <c r="E162" s="98"/>
-      <c r="F162" s="74"/>
-      <c r="G162" s="133"/>
-      <c r="H162" s="134"/>
-      <c r="I162" s="75"/>
+      <c r="C162" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D162" s="104"/>
+      <c r="E162" s="105"/>
+      <c r="F162" s="27">
+        <v>44700</v>
+      </c>
+      <c r="G162" s="102" t="s">
+        <v>302</v>
+      </c>
+      <c r="H162" s="103"/>
+      <c r="I162" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="35" t="s">
@@ -6038,12 +6680,12 @@
       <c r="B163" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C163" s="84"/>
-      <c r="D163" s="101"/>
-      <c r="E163" s="102"/>
+      <c r="C163" s="82"/>
+      <c r="D163" s="106"/>
+      <c r="E163" s="107"/>
       <c r="F163" s="37"/>
-      <c r="G163" s="103"/>
-      <c r="H163" s="104"/>
+      <c r="G163" s="108"/>
+      <c r="H163" s="109"/>
       <c r="I163" s="38"/>
     </row>
     <row r="164" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -6053,13 +6695,23 @@
       <c r="B164" s="72" t="s">
         <v>164</v>
       </c>
-      <c r="C164" s="73"/>
-      <c r="D164" s="97"/>
-      <c r="E164" s="98"/>
-      <c r="F164" s="74"/>
-      <c r="G164" s="133"/>
-      <c r="H164" s="134"/>
-      <c r="I164" s="75"/>
+      <c r="C164" s="73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="104" t="s">
+        <v>363</v>
+      </c>
+      <c r="E164" s="105"/>
+      <c r="F164" s="27">
+        <v>44701</v>
+      </c>
+      <c r="G164" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="H164" s="97"/>
+      <c r="I164" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="165" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A165" s="71" t="s">
@@ -6068,13 +6720,21 @@
       <c r="B165" s="72" t="s">
         <v>165</v>
       </c>
-      <c r="C165" s="73"/>
-      <c r="D165" s="97"/>
-      <c r="E165" s="98"/>
-      <c r="F165" s="74"/>
-      <c r="G165" s="133"/>
-      <c r="H165" s="134"/>
-      <c r="I165" s="75"/>
+      <c r="C165" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" s="104"/>
+      <c r="E165" s="105"/>
+      <c r="F165" s="27">
+        <v>44701</v>
+      </c>
+      <c r="G165" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="H165" s="97"/>
+      <c r="I165" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="71" t="s">
@@ -6083,13 +6743,21 @@
       <c r="B166" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C166" s="73"/>
-      <c r="D166" s="97"/>
-      <c r="E166" s="98"/>
-      <c r="F166" s="74"/>
-      <c r="G166" s="133"/>
-      <c r="H166" s="134"/>
-      <c r="I166" s="75"/>
+      <c r="C166" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" s="104"/>
+      <c r="E166" s="105"/>
+      <c r="F166" s="27">
+        <v>44701</v>
+      </c>
+      <c r="G166" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="H166" s="97"/>
+      <c r="I166" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="35" t="s">
@@ -6098,12 +6766,12 @@
       <c r="B167" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="C167" s="84"/>
-      <c r="D167" s="101"/>
-      <c r="E167" s="102"/>
+      <c r="C167" s="82"/>
+      <c r="D167" s="106"/>
+      <c r="E167" s="107"/>
       <c r="F167" s="37"/>
-      <c r="G167" s="103"/>
-      <c r="H167" s="104"/>
+      <c r="G167" s="108"/>
+      <c r="H167" s="109"/>
       <c r="I167" s="38"/>
     </row>
     <row r="168" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -6113,13 +6781,21 @@
       <c r="B168" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="C168" s="73"/>
-      <c r="D168" s="97"/>
-      <c r="E168" s="98"/>
-      <c r="F168" s="74"/>
-      <c r="G168" s="133"/>
-      <c r="H168" s="134"/>
-      <c r="I168" s="75"/>
+      <c r="C168" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="104"/>
+      <c r="E168" s="105"/>
+      <c r="F168" s="27">
+        <v>44701</v>
+      </c>
+      <c r="G168" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="H168" s="97"/>
+      <c r="I168" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="71" t="s">
@@ -6128,13 +6804,21 @@
       <c r="B169" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="C169" s="73"/>
-      <c r="D169" s="97"/>
-      <c r="E169" s="98"/>
-      <c r="F169" s="74"/>
-      <c r="G169" s="133"/>
-      <c r="H169" s="134"/>
-      <c r="I169" s="75"/>
+      <c r="C169" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169" s="104"/>
+      <c r="E169" s="105"/>
+      <c r="F169" s="27">
+        <v>44701</v>
+      </c>
+      <c r="G169" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="H169" s="97"/>
+      <c r="I169" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="170" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A170" s="71" t="s">
@@ -6143,13 +6827,21 @@
       <c r="B170" s="72" t="s">
         <v>162</v>
       </c>
-      <c r="C170" s="73"/>
-      <c r="D170" s="97"/>
-      <c r="E170" s="98"/>
-      <c r="F170" s="74"/>
-      <c r="G170" s="133"/>
-      <c r="H170" s="134"/>
-      <c r="I170" s="75"/>
+      <c r="C170" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="104"/>
+      <c r="E170" s="105"/>
+      <c r="F170" s="27">
+        <v>44701</v>
+      </c>
+      <c r="G170" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="H170" s="97"/>
+      <c r="I170" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="71" t="s">
@@ -6158,13 +6850,21 @@
       <c r="B171" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C171" s="73"/>
-      <c r="D171" s="97"/>
-      <c r="E171" s="98"/>
-      <c r="F171" s="74"/>
-      <c r="G171" s="133"/>
-      <c r="H171" s="134"/>
-      <c r="I171" s="75"/>
+      <c r="C171" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D171" s="104"/>
+      <c r="E171" s="105"/>
+      <c r="F171" s="27">
+        <v>44701</v>
+      </c>
+      <c r="G171" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="H171" s="97"/>
+      <c r="I171" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="35" t="s">
@@ -6173,12 +6873,12 @@
       <c r="B172" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C172" s="84"/>
-      <c r="D172" s="101"/>
-      <c r="E172" s="102"/>
+      <c r="C172" s="82"/>
+      <c r="D172" s="106"/>
+      <c r="E172" s="107"/>
       <c r="F172" s="37"/>
-      <c r="G172" s="103"/>
-      <c r="H172" s="104"/>
+      <c r="G172" s="108"/>
+      <c r="H172" s="109"/>
       <c r="I172" s="38"/>
     </row>
     <row r="173" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -6188,13 +6888,21 @@
       <c r="B173" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="C173" s="73"/>
-      <c r="D173" s="97"/>
-      <c r="E173" s="98"/>
-      <c r="F173" s="74"/>
-      <c r="G173" s="133"/>
-      <c r="H173" s="134"/>
-      <c r="I173" s="75"/>
+      <c r="C173" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D173" s="104"/>
+      <c r="E173" s="105"/>
+      <c r="F173" s="27">
+        <v>44701</v>
+      </c>
+      <c r="G173" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="H173" s="97"/>
+      <c r="I173" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="174" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A174" s="71" t="s">
@@ -6203,13 +6911,21 @@
       <c r="B174" s="72" t="s">
         <v>166</v>
       </c>
-      <c r="C174" s="73"/>
-      <c r="D174" s="97"/>
-      <c r="E174" s="98"/>
-      <c r="F174" s="74"/>
-      <c r="G174" s="133"/>
-      <c r="H174" s="134"/>
-      <c r="I174" s="75"/>
+      <c r="C174" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" s="104"/>
+      <c r="E174" s="105"/>
+      <c r="F174" s="27">
+        <v>44701</v>
+      </c>
+      <c r="G174" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="H174" s="97"/>
+      <c r="I174" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="71" t="s">
@@ -6218,43 +6934,89 @@
       <c r="B175" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="C175" s="73"/>
-      <c r="D175" s="97"/>
-      <c r="E175" s="98"/>
-      <c r="F175" s="74"/>
-      <c r="G175" s="133"/>
-      <c r="H175" s="134"/>
-      <c r="I175" s="75"/>
+      <c r="C175" s="73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D175" s="104"/>
+      <c r="E175" s="105"/>
+      <c r="F175" s="27">
+        <v>44701</v>
+      </c>
+      <c r="G175" s="96" t="s">
+        <v>302</v>
+      </c>
+      <c r="H175" s="97"/>
+      <c r="I175" s="28" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" topLeftCell="A110">
-      <selection activeCell="A114" sqref="A114:XFD114"/>
+    <customSheetView guid="{0FAE12C6-CB85-42BD-84FF-3C4AFFE70ABF}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" topLeftCell="A145">
+      <selection activeCell="H164" sqref="H164"/>
       <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+      <pageSetup paperSize="8" scale="73" fitToHeight="0" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{0FAE12C6-CB85-42BD-84FF-3C4AFFE70ABF}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" topLeftCell="A76">
-      <selection activeCell="C81" sqref="C81"/>
+    <customSheetView guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" scale="85" showPageBreaks="1" showGridLines="0" fitToPage="1" showAutoFilter="1">
+      <selection activeCell="D15" sqref="D15:E15"/>
       <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
       <printOptions horizontalCentered="1"/>
-      <pageSetup paperSize="8" scale="91" fitToHeight="0" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+      <autoFilter ref="A3:I3">
+        <filterColumn colId="5" showButton="0"/>
+      </autoFilter>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="295">
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="G129:H129"/>
+  <mergeCells count="293">
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G64:H64"/>
     <mergeCell ref="D63:E63"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="G54:H54"/>
     <mergeCell ref="D57:E57"/>
@@ -6267,203 +7029,6 @@
     <mergeCell ref="G61:H61"/>
     <mergeCell ref="G62:H62"/>
     <mergeCell ref="G63:H63"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="D161:E161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="D162:E162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="D173:E173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="D169:E169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="D157:E157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="D168:E168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="D163:E163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="D164:E164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="D165:E165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="D154:E155"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="G142:H142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="G122:H122"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="G123:H123"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="D28:E30"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="D47:E47"/>
@@ -6488,369 +7053,529 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D28:E30"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="D66:E66"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="G89:H89"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="D157:E157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="D167:E167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="D168:E168"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="D163:E163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="D164:E164"/>
+    <mergeCell ref="D165:E165"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="D161:E161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="D162:E162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="D154:E155"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="D111:E111"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="C101:C103 C105 C89:C93 C95:C99 C111:C113 C123:C128 C48:C49 C51 C24:C26 C55:C65 C14:C21 C28:C30 C36:C44 C46 C67:C85 C120:C121">
-    <cfRule type="cellIs" dxfId="63" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="107" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="cellIs" dxfId="62" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="106" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="cellIs" dxfId="61" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="101" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="cellIs" dxfId="60" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="100" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="59" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="98" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="58" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="97" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C139">
-    <cfRule type="cellIs" dxfId="57" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="96" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142">
-    <cfRule type="cellIs" dxfId="56" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="95" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="cellIs" dxfId="55" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="92" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156">
-    <cfRule type="cellIs" dxfId="54" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="91" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="cellIs" dxfId="53" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="90" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140">
-    <cfRule type="cellIs" dxfId="52" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="86" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106:C110">
-    <cfRule type="cellIs" dxfId="51" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="82" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="cellIs" dxfId="50" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="81" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C143">
-    <cfRule type="cellIs" dxfId="49" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="79" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C145">
-    <cfRule type="cellIs" dxfId="48" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="77" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C144">
-    <cfRule type="cellIs" dxfId="47" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="76" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146">
-    <cfRule type="cellIs" dxfId="46" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="75" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="cellIs" dxfId="45" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="74" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
-    <cfRule type="cellIs" dxfId="44" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="73" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150">
-    <cfRule type="cellIs" dxfId="43" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="72" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="cellIs" dxfId="42" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="71" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="cellIs" dxfId="41" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="70" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154">
-    <cfRule type="cellIs" dxfId="40" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C166">
-    <cfRule type="cellIs" dxfId="39" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="60" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53">
-    <cfRule type="cellIs" dxfId="38" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="53" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155">
-    <cfRule type="cellIs" dxfId="37" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157">
-    <cfRule type="cellIs" dxfId="36" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="65" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C167">
-    <cfRule type="cellIs" dxfId="35" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="49" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164">
-    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="62" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C165">
-    <cfRule type="cellIs" dxfId="33" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="61" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C52">
-    <cfRule type="cellIs" dxfId="32" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="52" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C168">
-    <cfRule type="cellIs" dxfId="31" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="45" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="cellIs" dxfId="30" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="43" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C169">
-    <cfRule type="cellIs" dxfId="29" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="39" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C170">
-    <cfRule type="cellIs" dxfId="28" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="38" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="cellIs" dxfId="27" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="36" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C171">
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="34" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158">
-    <cfRule type="cellIs" dxfId="25" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="33" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="24" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="32" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27">
-    <cfRule type="cellIs" dxfId="22" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="21" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C161">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C175">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="8" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C172">
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C173">
-    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="16" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C174">
-    <cfRule type="cellIs" dxfId="11" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="15" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C138">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C133">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C137">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C134">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C86:C87">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C141">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115:C119">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129:C132">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6861,7 +7586,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup paperSize="8" scale="73" fitToHeight="0" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -7080,10 +7805,10 @@
       <c r="I13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="107" t="s">
+      <c r="J13" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="108"/>
+      <c r="K13" s="99"/>
       <c r="L13" s="27">
         <v>44317</v>
       </c>
@@ -7111,10 +7836,10 @@
       <c r="I14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="107" t="s">
+      <c r="J14" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="108"/>
+      <c r="K14" s="99"/>
       <c r="L14" s="27">
         <v>44317</v>
       </c>
@@ -7142,10 +7867,10 @@
       <c r="I15" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="107" t="s">
+      <c r="J15" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="108"/>
+      <c r="K15" s="99"/>
       <c r="L15" s="27">
         <v>44317</v>
       </c>
@@ -7596,13 +8321,13 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" scale="85" showGridLines="0" fitToPage="1">
+    <customSheetView guid="{0FAE12C6-CB85-42BD-84FF-3C4AFFE70ABF}" scale="85" showGridLines="0" fitToPage="1">
       <selection activeCell="E28" sqref="E28"/>
       <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
       <printOptions horizontalCentered="1"/>
       <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{0FAE12C6-CB85-42BD-84FF-3C4AFFE70ABF}" scale="85" showGridLines="0" fitToPage="1">
+    <customSheetView guid="{49FC3580-D803-4F15-9B66-67158C68A06A}" scale="85" showGridLines="0" fitToPage="1">
       <selection activeCell="E28" sqref="E28"/>
       <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
       <printOptions horizontalCentered="1"/>
